--- a/jogos_2025-05-19.xlsx
+++ b/jogos_2025-05-19.xlsx
@@ -253,13 +253,19 @@
     <t>Russia FNL</t>
   </si>
   <si>
+    <t>Israel Liga Leumit</t>
+  </si>
+  <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
-    <t>Israel Liga Leumit</t>
-  </si>
-  <si>
-    <t>Estonia Meistriliiga</t>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Poland 1. Liga</t>
   </si>
   <si>
     <t>Turkey 1. Lig</t>
@@ -271,13 +277,10 @@
     <t>Poland Ekstraklasa</t>
   </si>
   <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Poland 1. Liga</t>
+    <t>Romania Liga I</t>
   </si>
   <si>
     <t>Israel Israeli Premier League</t>
@@ -286,9 +289,6 @@
     <t>Russia Russian Premier League</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Hungary NB II</t>
   </si>
   <si>
@@ -301,21 +301,21 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
     <t>England Premier League</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -337,72 +337,72 @@
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
+    <t>Dubočica</t>
+  </si>
+  <si>
+    <t>AGMK</t>
+  </si>
+  <si>
+    <t>Sloboda Užice</t>
+  </si>
+  <si>
     <t>Semendrija 1924</t>
   </si>
   <si>
-    <t>AGMK</t>
-  </si>
-  <si>
-    <t>Sloboda Užice</t>
-  </si>
-  <si>
     <t>Neftekhimik</t>
   </si>
   <si>
     <t>KAMAZ</t>
   </si>
   <si>
-    <t>Dubočica</t>
-  </si>
-  <si>
     <t>Inđija</t>
   </si>
   <si>
+    <t>Hapoel Kfar Saba</t>
+  </si>
+  <si>
+    <t>Maccabi Herzliya</t>
+  </si>
+  <si>
+    <t>Hapoel Ramat Gan</t>
+  </si>
+  <si>
+    <t>Tallinna Kalev</t>
+  </si>
+  <si>
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>Maccabi Herzliya</t>
-  </si>
-  <si>
-    <t>Hapoel Ramat Gan</t>
-  </si>
-  <si>
-    <t>Tallinna Kalev</t>
-  </si>
-  <si>
-    <t>Hapoel Kfar Saba</t>
-  </si>
-  <si>
     <t>MC Alger</t>
   </si>
   <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Miedź Legnica</t>
+  </si>
+  <si>
     <t>Boluspor</t>
   </si>
   <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>Chrobry Głogów</t>
+  </si>
+  <si>
     <t>Mjällby</t>
   </si>
   <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Chrobry Głogów</t>
-  </si>
-  <si>
-    <t>Miedź Legnica</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
     <t>Al Wahda</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Rapid Bucureşti</t>
+  </si>
+  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>Beitar Jerusalem</t>
+  </si>
+  <si>
     <t>Lokomotiv Moskva</t>
   </si>
   <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>Beitar Jerusalem</t>
-  </si>
-  <si>
     <t>Kazincbarcika</t>
   </si>
   <si>
@@ -436,33 +436,33 @@
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Unión Española</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Unión Española</t>
+    <t>ÍA</t>
+  </si>
+  <si>
+    <t>Breidablik</t>
   </si>
   <si>
     <t>Stjarnan</t>
   </si>
   <si>
-    <t>ÍA</t>
-  </si>
-  <si>
-    <t>Breidablik</t>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Colo-Colo</t>
-  </si>
-  <si>
-    <t>Volta Redonda</t>
-  </si>
-  <si>
     <t>Confiança</t>
   </si>
   <si>
@@ -472,12 +472,12 @@
     <t>Agropecuario</t>
   </si>
   <si>
+    <t>La Serena</t>
+  </si>
+  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>La Serena</t>
-  </si>
-  <si>
     <t>Coritiba</t>
   </si>
   <si>
@@ -490,72 +490,72 @@
     <t>Levski Krumovgrad</t>
   </si>
   <si>
+    <t>Sloven Ruma</t>
+  </si>
+  <si>
+    <t>Neftchi</t>
+  </si>
+  <si>
+    <t>Radnički Sr. Mitrovica</t>
+  </si>
+  <si>
     <t>Trajal Krusevac</t>
   </si>
   <si>
-    <t>Neftchi</t>
-  </si>
-  <si>
-    <t>Radnički Sr. Mitrovica</t>
-  </si>
-  <si>
     <t>FK Chernomorets Novorossiysk</t>
   </si>
   <si>
     <t>Spartak Vladikavkaz</t>
   </si>
   <si>
-    <t>Sloven Ruma</t>
-  </si>
-  <si>
     <t>Zemun</t>
   </si>
   <si>
+    <t>Hapoel Tel Aviv</t>
+  </si>
+  <si>
+    <t>Hapoel Petah Tikva</t>
+  </si>
+  <si>
+    <t>Bnei Yehuda</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
     <t>CR Belouizdad</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
-  </si>
-  <si>
-    <t>Bnei Yehuda</t>
-  </si>
-  <si>
-    <t>Trans</t>
-  </si>
-  <si>
-    <t>Hapoel Tel Aviv</t>
-  </si>
-  <si>
     <t>ES Sétif</t>
   </si>
   <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Nieciecza</t>
+  </si>
+  <si>
     <t>Bandırmaspor</t>
   </si>
   <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
     <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Nieciecza</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
     <t>Al Jazira</t>
   </si>
   <si>
@@ -565,18 +565,18 @@
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
     <t>Maccabi Tel Aviv</t>
   </si>
   <si>
+    <t>Hapoel Be'er Sheva</t>
+  </si>
+  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>Hapoel Be'er Sheva</t>
-  </si>
-  <si>
     <t>Mezőkövesd-Zsóry</t>
   </si>
   <si>
@@ -589,33 +589,33 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Everton</t>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>Valur</t>
   </si>
   <si>
     <t>Víkingur Reykjavík</t>
   </si>
   <si>
-    <t>FH</t>
-  </si>
-  <si>
-    <t>Valur</t>
+    <t>Ñublense</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
   </si>
   <si>
     <t>San Lorenzo</t>
   </si>
   <si>
-    <t>Ñublense</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
     <t>Londrina</t>
   </si>
   <si>
@@ -625,10 +625,10 @@
     <t>Gimnasia Jujuy</t>
   </si>
   <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
     <t>Independiente</t>
-  </si>
-  <si>
-    <t>Deportes Iquique</t>
   </si>
   <si>
     <t>América Mineiro</t>
@@ -1570,58 +1570,58 @@
         <v>3.42</v>
       </c>
       <c r="R4">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S4">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="T4">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="V4">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="X4">
         <v>1.01</v>
       </c>
       <c r="Y4">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z4">
         <v>1.28</v>
       </c>
       <c r="AA4">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="AB4">
+        <v>1.83</v>
+      </c>
+      <c r="AC4">
+        <v>1.87</v>
+      </c>
+      <c r="AD4">
+        <v>3.44</v>
+      </c>
+      <c r="AE4">
+        <v>1.23</v>
+      </c>
+      <c r="AF4">
         <v>2</v>
       </c>
-      <c r="AC4">
-        <v>1.8</v>
-      </c>
-      <c r="AD4">
-        <v>3.2</v>
-      </c>
-      <c r="AE4">
-        <v>1.3</v>
-      </c>
-      <c r="AF4">
-        <v>2.12</v>
-      </c>
       <c r="AG4">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="AH4">
         <v>5.8</v>
       </c>
       <c r="AI4">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ4" t="s">
         <v>207</v>
@@ -1636,7 +1636,7 @@
         <v>1.22</v>
       </c>
       <c r="AN4">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="AO4">
         <v>-1</v>
@@ -1645,31 +1645,31 @@
         <v>1.28</v>
       </c>
       <c r="AQ4">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR4">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS4">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT4">
-        <v>3.42</v>
+        <v>3.15</v>
       </c>
       <c r="AU4">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="AV4">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AW4">
         <v>1.76</v>
       </c>
       <c r="AX4">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AY4">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>102</v>
@@ -2232,76 +2232,76 @@
         <v>206</v>
       </c>
       <c r="L8">
-        <v>4.78</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.18</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="s">
         <v>207</v>
@@ -2310,13 +2310,13 @@
         <v>207</v>
       </c>
       <c r="AL8">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>-1</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="3">
         <v>45796.5</v>
@@ -2402,76 +2402,76 @@
         <v>206</v>
       </c>
       <c r="L9">
-        <v>1.51</v>
+        <v>4.78</v>
       </c>
       <c r="M9">
-        <v>3.98</v>
+        <v>3.18</v>
       </c>
       <c r="N9">
-        <v>6.77</v>
+        <v>1.89</v>
       </c>
       <c r="O9">
-        <v>1.43</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="Q9">
-        <v>3.35</v>
+        <v>1.64</v>
       </c>
       <c r="R9">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="S9">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="T9">
-        <v>3.15</v>
+        <v>3.92</v>
       </c>
       <c r="U9">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="V9">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="W9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="Y9">
-        <v>9.4</v>
+        <v>5.45</v>
       </c>
       <c r="Z9">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AA9">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="AB9">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="AC9">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="AD9">
-        <v>3.92</v>
+        <v>5.55</v>
       </c>
       <c r="AE9">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AF9">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="AG9">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AH9">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI9">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AJ9" t="s">
         <v>207</v>
@@ -2480,13 +2480,13 @@
         <v>207</v>
       </c>
       <c r="AL9">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="AM9">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AN9">
-        <v>2.52</v>
+        <v>1.26</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2528,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.43</v>
+        <v>3.1</v>
       </c>
       <c r="BC9">
-        <v>3.35</v>
+        <v>1.64</v>
       </c>
       <c r="BD9" s="3">
         <v>45796.5</v>
@@ -2545,7 +2545,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
@@ -2572,76 +2572,76 @@
         <v>206</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ10" t="s">
         <v>207</v>
@@ -2650,13 +2650,13 @@
         <v>207</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2698,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BD10" s="3">
         <v>45796.5</v>
@@ -2912,76 +2912,76 @@
         <v>206</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ12" t="s">
         <v>207</v>
@@ -2990,13 +2990,13 @@
         <v>207</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BD12" s="3">
         <v>45796.54166666666</v>
@@ -3055,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -3127,7 +3127,7 @@
         <v>1.19</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="AB13">
         <v>1.8</v>
@@ -3148,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="AH13">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="AI13">
         <v>1.07</v>
@@ -3225,7 +3225,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3276,13 +3276,13 @@
         <v>2.99</v>
       </c>
       <c r="T14">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="U14">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="V14">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="W14">
         <v>1.09</v>
@@ -3294,10 +3294,10 @@
         <v>10.9</v>
       </c>
       <c r="Z14">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AA14">
-        <v>3.58</v>
+        <v>3.74</v>
       </c>
       <c r="AB14">
         <v>1.8</v>
@@ -3306,22 +3306,22 @@
         <v>2</v>
       </c>
       <c r="AD14">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="AE14">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AF14">
         <v>1.67</v>
       </c>
       <c r="AG14">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="AH14">
-        <v>5.35</v>
+        <v>4.6</v>
       </c>
       <c r="AI14">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AJ14" t="s">
         <v>207</v>
@@ -3336,7 +3336,7 @@
         <v>1.21</v>
       </c>
       <c r="AN14">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3395,7 +3395,7 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>103</v>
@@ -3422,13 +3422,13 @@
         <v>206</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="M15">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="N15">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="O15">
         <v>3.1</v>
@@ -3446,10 +3446,10 @@
         <v>3.4</v>
       </c>
       <c r="T15">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="U15">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V15">
         <v>4.6</v>
@@ -3464,13 +3464,13 @@
         <v>14.5</v>
       </c>
       <c r="Z15">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AA15">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AB15">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AC15">
         <v>2.5</v>
@@ -3479,7 +3479,7 @@
         <v>2.25</v>
       </c>
       <c r="AE15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AF15">
         <v>1.6</v>
@@ -3488,10 +3488,10 @@
         <v>2.25</v>
       </c>
       <c r="AH15">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="AI15">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AJ15" t="s">
         <v>207</v>
@@ -3506,7 +3506,7 @@
         <v>1.15</v>
       </c>
       <c r="AN15">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AO15">
         <v>-1</v>
@@ -3565,7 +3565,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
@@ -3592,76 +3592,76 @@
         <v>206</v>
       </c>
       <c r="L16">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="M16">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="N16">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="O16">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="P16">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="Q16">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="R16">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="S16">
-        <v>2.89</v>
+        <v>2.69</v>
       </c>
       <c r="T16">
-        <v>2.61</v>
+        <v>3.04</v>
       </c>
       <c r="U16">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="V16">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="W16">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="X16">
         <v>1.01</v>
       </c>
       <c r="Y16">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="Z16">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AA16">
-        <v>3.5</v>
+        <v>2.97</v>
       </c>
       <c r="AB16">
-        <v>1.71</v>
+        <v>2.05</v>
       </c>
       <c r="AC16">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AD16">
-        <v>2.88</v>
+        <v>3.68</v>
       </c>
       <c r="AE16">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AF16">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="AG16">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="AH16">
-        <v>5.4</v>
+        <v>6.75</v>
       </c>
       <c r="AI16">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AJ16" t="s">
         <v>207</v>
@@ -3670,13 +3670,13 @@
         <v>207</v>
       </c>
       <c r="AL16">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM16">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AN16">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="AO16">
         <v>-1</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="BC16">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="BD16" s="3">
         <v>45796.54166666666</v>
@@ -3735,7 +3735,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -3762,76 +3762,76 @@
         <v>206</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ17" t="s">
         <v>207</v>
@@ -3840,13 +3840,13 @@
         <v>207</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -3888,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="BD17" s="3">
         <v>45796.54166666666</v>
@@ -3932,76 +3932,76 @@
         <v>206</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AJ18" t="s">
         <v>207</v>
@@ -4010,46 +4010,46 @@
         <v>207</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AX18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AY18">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BD18" s="3">
         <v>45796.58333333334</v>
@@ -4078,7 +4078,7 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
         <v>121</v>
@@ -4102,76 +4102,76 @@
         <v>206</v>
       </c>
       <c r="L19">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="M19">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="N19">
-        <v>5.1</v>
+        <v>2.41</v>
       </c>
       <c r="O19">
+        <v>1.95</v>
+      </c>
+      <c r="P19">
+        <v>12.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.92</v>
+      </c>
+      <c r="R19">
+        <v>1.35</v>
+      </c>
+      <c r="S19">
+        <v>2.95</v>
+      </c>
+      <c r="T19">
+        <v>2.52</v>
+      </c>
+      <c r="U19">
         <v>1.44</v>
       </c>
-      <c r="P19">
-        <v>11</v>
-      </c>
-      <c r="Q19">
-        <v>2.88</v>
-      </c>
-      <c r="R19">
-        <v>1.3</v>
-      </c>
-      <c r="S19">
-        <v>3.4</v>
-      </c>
-      <c r="T19">
-        <v>2.38</v>
-      </c>
-      <c r="U19">
-        <v>1.53</v>
-      </c>
       <c r="V19">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W19">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X19">
         <v>1.04</v>
       </c>
       <c r="Y19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z19">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA19">
-        <v>4.5</v>
+        <v>3.58</v>
       </c>
       <c r="AB19">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="AC19">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="AD19">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AE19">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AF19">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AG19">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="AH19">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI19">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AJ19" t="s">
         <v>207</v>
@@ -4180,43 +4180,43 @@
         <v>207</v>
       </c>
       <c r="AL19">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AM19">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AN19">
-        <v>2.35</v>
+        <v>1.46</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR19">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS19">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AT19">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AU19">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>2.95</v>
+        <v>3.42</v>
       </c>
       <c r="AW19">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="AX19">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AY19">
         <v>1.54</v>
@@ -4228,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="BC19">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="BD19" s="3">
         <v>45796.58333333334</v>
@@ -4272,76 +4272,76 @@
         <v>206</v>
       </c>
       <c r="L20">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>3.84</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="O20">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.38</v>
+      </c>
+      <c r="S20">
+        <v>2.93</v>
+      </c>
+      <c r="T20">
+        <v>2.92</v>
+      </c>
+      <c r="U20">
+        <v>1.38</v>
+      </c>
+      <c r="V20">
+        <v>6.7</v>
+      </c>
+      <c r="W20">
+        <v>1.07</v>
+      </c>
+      <c r="X20">
+        <v>1.06</v>
+      </c>
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
         <v>1.3</v>
       </c>
-      <c r="S20">
-        <v>3.22</v>
-      </c>
-      <c r="T20">
-        <v>2.62</v>
-      </c>
-      <c r="U20">
-        <v>1.49</v>
-      </c>
-      <c r="V20">
-        <v>5.8</v>
-      </c>
-      <c r="W20">
-        <v>1.1</v>
-      </c>
-      <c r="X20">
-        <v>1.04</v>
-      </c>
-      <c r="Y20">
-        <v>13</v>
-      </c>
-      <c r="Z20">
-        <v>1.2</v>
-      </c>
       <c r="AA20">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB20">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AC20">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="AD20">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="AE20">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AF20">
         <v>1.67</v>
       </c>
       <c r="AG20">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="AH20">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI20">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AJ20" t="s">
         <v>207</v>
@@ -4350,46 +4350,46 @@
         <v>207</v>
       </c>
       <c r="AL20">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AM20">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AN20">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AQ20">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>1.73</v>
+        <v>2.21</v>
       </c>
       <c r="AS20">
-        <v>2.14</v>
+        <v>2.95</v>
       </c>
       <c r="AT20">
-        <v>2.75</v>
+        <v>3.78</v>
       </c>
       <c r="AU20">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AV20">
-        <v>2.88</v>
+        <v>2.03</v>
       </c>
       <c r="AW20">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="AX20">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="AY20">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BC20">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="3">
         <v>45796.58333333334</v>
@@ -4418,7 +4418,7 @@
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
@@ -4442,76 +4442,76 @@
         <v>206</v>
       </c>
       <c r="L21">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="M21">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="N21">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="O21">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P21">
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S21">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T21">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U21">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="V21">
-        <v>4.95</v>
+        <v>6.5</v>
       </c>
       <c r="W21">
         <v>1.11</v>
       </c>
       <c r="X21">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y21">
         <v>10</v>
       </c>
       <c r="Z21">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AA21">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AB21">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AC21">
+        <v>2.08</v>
+      </c>
+      <c r="AD21">
+        <v>2.85</v>
+      </c>
+      <c r="AE21">
+        <v>1.42</v>
+      </c>
+      <c r="AF21">
+        <v>1.62</v>
+      </c>
+      <c r="AG21">
         <v>2.2</v>
       </c>
-      <c r="AD21">
-        <v>2.25</v>
-      </c>
-      <c r="AE21">
-        <v>1.51</v>
-      </c>
-      <c r="AF21">
-        <v>1.45</v>
-      </c>
-      <c r="AG21">
-        <v>2.5</v>
-      </c>
       <c r="AH21">
-        <v>3.98</v>
+        <v>5.25</v>
       </c>
       <c r="AI21">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AJ21" t="s">
         <v>207</v>
@@ -4520,46 +4520,46 @@
         <v>207</v>
       </c>
       <c r="AL21">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AM21">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AN21">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AR21">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS21">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="AT21">
+        <v>2.08</v>
+      </c>
+      <c r="AU21">
+        <v>4.6</v>
+      </c>
+      <c r="AV21">
+        <v>3.3</v>
+      </c>
+      <c r="AW21">
         <v>2.5</v>
       </c>
-      <c r="AU21">
-        <v>4.2</v>
-      </c>
-      <c r="AV21">
-        <v>2.91</v>
-      </c>
-      <c r="AW21">
-        <v>2.24</v>
-      </c>
       <c r="AX21">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="AY21">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="BC21">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="BD21" s="3">
         <v>45796.58333333334</v>
@@ -4588,7 +4588,7 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>124</v>
@@ -4612,76 +4612,76 @@
         <v>206</v>
       </c>
       <c r="L22">
-        <v>2.07</v>
+        <v>1.55</v>
       </c>
       <c r="M22">
-        <v>3.41</v>
+        <v>3.84</v>
       </c>
       <c r="N22">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="O22">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="P22">
         <v>10</v>
       </c>
       <c r="Q22">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R22">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S22">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T22">
-        <v>2.65</v>
+        <v>2.58</v>
       </c>
       <c r="U22">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V22">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="W22">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z22">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AA22">
-        <v>3.55</v>
+        <v>4.05</v>
       </c>
       <c r="AB22">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AC22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AD22">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AE22">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="AF22">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH22">
-        <v>6.5</v>
+        <v>5.3</v>
       </c>
       <c r="AI22">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AJ22" t="s">
         <v>207</v>
@@ -4690,58 +4690,58 @@
         <v>207</v>
       </c>
       <c r="AL22">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AN22">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AQ22">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AR22">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AS22">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AT22">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AU22">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="AV22">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AW22">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="AX22">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AY22">
+        <v>1.36</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
         <v>1.44</v>
       </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>1.8</v>
-      </c>
       <c r="BC22">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="BD22" s="3">
         <v>45796.58333333334</v>
@@ -4755,7 +4755,7 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>103</v>
@@ -4782,76 +4782,76 @@
         <v>206</v>
       </c>
       <c r="L23">
-        <v>2.64</v>
+        <v>2.11</v>
       </c>
       <c r="M23">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>2.26</v>
+        <v>2.85</v>
       </c>
       <c r="O23">
+        <v>1.67</v>
+      </c>
+      <c r="P23">
+        <v>11</v>
+      </c>
+      <c r="Q23">
+        <v>2.25</v>
+      </c>
+      <c r="R23">
+        <v>1.3</v>
+      </c>
+      <c r="S23">
+        <v>3.4</v>
+      </c>
+      <c r="T23">
+        <v>2.5</v>
+      </c>
+      <c r="U23">
+        <v>1.5</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
+      </c>
+      <c r="W23">
+        <v>1.13</v>
+      </c>
+      <c r="X23">
+        <v>1.04</v>
+      </c>
+      <c r="Y23">
+        <v>11</v>
+      </c>
+      <c r="Z23">
+        <v>1.2</v>
+      </c>
+      <c r="AA23">
+        <v>4.5</v>
+      </c>
+      <c r="AB23">
+        <v>1.6</v>
+      </c>
+      <c r="AC23">
         <v>2.1</v>
       </c>
-      <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="Q23">
-        <v>1.8</v>
-      </c>
-      <c r="R23">
-        <v>1.33</v>
-      </c>
-      <c r="S23">
-        <v>3.25</v>
-      </c>
-      <c r="T23">
-        <v>2.63</v>
-      </c>
-      <c r="U23">
-        <v>1.44</v>
-      </c>
-      <c r="V23">
-        <v>6.5</v>
-      </c>
-      <c r="W23">
-        <v>1.11</v>
-      </c>
-      <c r="X23">
-        <v>1.05</v>
-      </c>
-      <c r="Y23">
-        <v>10</v>
-      </c>
-      <c r="Z23">
-        <v>1.25</v>
-      </c>
-      <c r="AA23">
-        <v>4</v>
-      </c>
-      <c r="AB23">
-        <v>1.66</v>
-      </c>
-      <c r="AC23">
-        <v>2.08</v>
-      </c>
       <c r="AD23">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="AE23">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AF23">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AG23">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AH23">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AI23">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AJ23" t="s">
         <v>207</v>
@@ -4860,31 +4860,31 @@
         <v>207</v>
       </c>
       <c r="AL23">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="AM23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AN23">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AO23">
         <v>-1</v>
       </c>
       <c r="AP23">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="AQ23">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AR23">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AS23">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="AT23">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AU23">
         <v>4.6</v>
@@ -4893,13 +4893,13 @@
         <v>3.3</v>
       </c>
       <c r="AW23">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AX23">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AY23">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AZ23">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="BC23">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="BD23" s="3">
         <v>45796.58333333334</v>
@@ -4928,7 +4928,7 @@
         <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>126</v>
@@ -4952,76 +4952,76 @@
         <v>206</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.07</v>
       </c>
       <c r="M24">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="N24">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O24">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="P24">
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="Q24">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="R24">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S24">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U24">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="V24">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="W24">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Y24">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z24">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA24">
         <v>3.55</v>
       </c>
       <c r="AB24">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AC24">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AD24">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE24">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AF24">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AG24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AH24">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI24">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AJ24" t="s">
         <v>207</v>
@@ -5030,46 +5030,46 @@
         <v>207</v>
       </c>
       <c r="AL24">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM24">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AN24">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO24">
         <v>-1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AR24">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AS24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AT24">
-        <v>2.49</v>
+        <v>2.55</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AV24">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="AW24">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="AX24">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AY24">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -5078,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="BC24">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="BD24" s="3">
         <v>45796.58333333334</v>
@@ -5095,7 +5095,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -5122,76 +5122,76 @@
         <v>206</v>
       </c>
       <c r="L25">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="M25">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="N25">
-        <v>2.41</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="P25">
-        <v>12.5</v>
+        <v>12.75</v>
       </c>
       <c r="Q25">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="S25">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="T25">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="U25">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="V25">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="W25">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>11</v>
+        <v>9.1</v>
       </c>
       <c r="Z25">
         <v>1.22</v>
       </c>
       <c r="AA25">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AB25">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AC25">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AD25">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="AE25">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF25">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AG25">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AH25">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="AI25">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AJ25" t="s">
         <v>207</v>
@@ -5200,13 +5200,13 @@
         <v>207</v>
       </c>
       <c r="AL25">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AM25">
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AO25">
         <v>-1</v>
@@ -5215,31 +5215,31 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AR25">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="AS25">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="AT25">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="AU25">
         <v>0</v>
       </c>
       <c r="AV25">
-        <v>3.42</v>
+        <v>2.92</v>
       </c>
       <c r="AW25">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="AX25">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AY25">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5248,10 +5248,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BC25">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="BD25" s="3">
         <v>45796.58333333334</v>
@@ -5265,7 +5265,7 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>103</v>
@@ -5292,22 +5292,22 @@
         <v>206</v>
       </c>
       <c r="L26">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
       <c r="O26">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P26">
         <v>11</v>
       </c>
       <c r="Q26">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="R26">
         <v>1.3</v>
@@ -5316,10 +5316,10 @@
         <v>3.4</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U26">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V26">
         <v>6</v>
@@ -5340,22 +5340,22 @@
         <v>4.5</v>
       </c>
       <c r="AB26">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC26">
+        <v>2.2</v>
+      </c>
+      <c r="AD26">
+        <v>2.6</v>
+      </c>
+      <c r="AE26">
+        <v>1.5</v>
+      </c>
+      <c r="AF26">
+        <v>1.67</v>
+      </c>
+      <c r="AG26">
         <v>2.1</v>
-      </c>
-      <c r="AD26">
-        <v>2.55</v>
-      </c>
-      <c r="AE26">
-        <v>1.53</v>
-      </c>
-      <c r="AF26">
-        <v>1.57</v>
-      </c>
-      <c r="AG26">
-        <v>2.25</v>
       </c>
       <c r="AH26">
         <v>4.5</v>
@@ -5370,46 +5370,46 @@
         <v>207</v>
       </c>
       <c r="AL26">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AM26">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN26">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AQ26">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AS26">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT26">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AU26">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AV26">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AW26">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AX26">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AY26">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5418,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BC26">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="BD26" s="3">
         <v>45796.58333333334</v>
@@ -5605,7 +5605,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
@@ -5805,10 +5805,10 @@
         <v>4.6</v>
       </c>
       <c r="M29">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="N29">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="O29">
         <v>2.5</v>
@@ -5820,16 +5820,16 @@
         <v>1.71</v>
       </c>
       <c r="R29">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S29">
         <v>2.8</v>
       </c>
       <c r="T29">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="U29">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="V29">
         <v>6.75</v>
@@ -5847,31 +5847,31 @@
         <v>1.27</v>
       </c>
       <c r="AA29">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AB29">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AC29">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AD29">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="AE29">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF29">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AG29">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="AH29">
-        <v>5.8</v>
+        <v>6.15</v>
       </c>
       <c r="AI29">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AJ29" t="s">
         <v>207</v>
@@ -5886,7 +5886,7 @@
         <v>1.28</v>
       </c>
       <c r="AN29">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AO29">
         <v>-1</v>
@@ -5898,10 +5898,10 @@
         <v>1.76</v>
       </c>
       <c r="AR29">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="AS29">
-        <v>2.65</v>
+        <v>3.04</v>
       </c>
       <c r="AT29">
         <v>3.45</v>
@@ -5913,7 +5913,7 @@
         <v>2.08</v>
       </c>
       <c r="AW29">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AX29">
         <v>1.42</v>
@@ -5972,76 +5972,76 @@
         <v>206</v>
       </c>
       <c r="L30">
-        <v>3.13</v>
+        <v>2.67</v>
       </c>
       <c r="M30">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>2.41</v>
       </c>
       <c r="O30">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="P30">
-        <v>26</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q30">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="R30">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="S30">
-        <v>4.25</v>
+        <v>2.62</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="U30">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="V30">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="W30">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X30">
         <v>1.01</v>
       </c>
       <c r="Y30">
-        <v>17</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z30">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AA30">
-        <v>5.75</v>
+        <v>2.88</v>
       </c>
       <c r="AB30">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC30">
-        <v>2.9</v>
+        <v>1.61</v>
       </c>
       <c r="AD30">
-        <v>1.91</v>
+        <v>3.8</v>
       </c>
       <c r="AE30">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="AF30">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AG30">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="AH30">
-        <v>3.15</v>
+        <v>7.9</v>
       </c>
       <c r="AI30">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="AJ30" t="s">
         <v>207</v>
@@ -6050,13 +6050,13 @@
         <v>207</v>
       </c>
       <c r="AL30">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AM30">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AN30">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="AO30">
         <v>-1</v>
@@ -6065,31 +6065,31 @@
         <v>1.28</v>
       </c>
       <c r="AQ30">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AR30">
-        <v>2.29</v>
+        <v>1.95</v>
       </c>
       <c r="AS30">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AT30">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AU30">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AV30">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AW30">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="AX30">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AY30">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="BC30">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="BD30" s="3">
         <v>45796.60416666666</v>
@@ -6142,76 +6142,76 @@
         <v>206</v>
       </c>
       <c r="L31">
-        <v>2.71</v>
+        <v>3.13</v>
       </c>
       <c r="M31">
-        <v>3.39</v>
+        <v>3.87</v>
       </c>
       <c r="N31">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AB31">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="AC31">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AJ31" t="s">
         <v>207</v>
@@ -6220,46 +6220,46 @@
         <v>207</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AO31">
         <v>-1</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AZ31">
         <v>0</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BD31" s="3">
         <v>45796.60416666666</v>
@@ -6285,7 +6285,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
@@ -6312,76 +6312,76 @@
         <v>206</v>
       </c>
       <c r="L32">
-        <v>2.67</v>
+        <v>3.58</v>
       </c>
       <c r="M32">
-        <v>3.03</v>
+        <v>3.68</v>
       </c>
       <c r="N32">
-        <v>2.41</v>
+        <v>1.76</v>
       </c>
       <c r="O32">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="P32">
-        <v>8.699999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="Q32">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="R32">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="S32">
-        <v>2.62</v>
+        <v>3.66</v>
       </c>
       <c r="T32">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="U32">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="V32">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="W32">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X32">
         <v>1.01</v>
       </c>
       <c r="Y32">
-        <v>8.699999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="Z32">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AA32">
-        <v>2.88</v>
+        <v>5.23</v>
       </c>
       <c r="AB32">
+        <v>1.45</v>
+      </c>
+      <c r="AC32">
+        <v>2.55</v>
+      </c>
+      <c r="AD32">
         <v>2.05</v>
       </c>
-      <c r="AC32">
-        <v>1.61</v>
-      </c>
-      <c r="AD32">
-        <v>3.8</v>
-      </c>
       <c r="AE32">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="AF32">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
       <c r="AG32">
-        <v>1.86</v>
+        <v>2.46</v>
       </c>
       <c r="AH32">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="AI32">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="AJ32" t="s">
         <v>207</v>
@@ -6390,46 +6390,46 @@
         <v>207</v>
       </c>
       <c r="AL32">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AM32">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AO32">
         <v>-1</v>
       </c>
       <c r="AP32">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS32">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="AT32">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="AU32">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AV32">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AW32">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AX32">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AY32">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -6438,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="BC32">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="BD32" s="3">
         <v>45796.60416666666</v>
@@ -6455,7 +6455,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>102</v>
@@ -6482,76 +6482,76 @@
         <v>206</v>
       </c>
       <c r="L33">
-        <v>3.58</v>
+        <v>2.71</v>
       </c>
       <c r="M33">
-        <v>3.68</v>
+        <v>3.39</v>
       </c>
       <c r="N33">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="O33">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="AC33">
-        <v>2.57</v>
+        <v>1.8</v>
       </c>
       <c r="AD33">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="s">
         <v>207</v>
@@ -6560,46 +6560,46 @@
         <v>207</v>
       </c>
       <c r="AL33">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AO33">
         <v>-1</v>
       </c>
       <c r="AP33">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AQ33">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="AU33">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="AV33">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AW33">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AX33">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AY33">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="BC33">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="3">
         <v>45796.60416666666</v>
@@ -7162,76 +7162,76 @@
         <v>206</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ37" t="s">
         <v>207</v>
@@ -7240,46 +7240,46 @@
         <v>207</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM37">
         <v>0</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AO37">
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AV37">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AW37">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AX37">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AY37">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7288,10 +7288,10 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC37">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD37" s="3">
         <v>45796.65625</v>
@@ -7305,7 +7305,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -7332,76 +7332,76 @@
         <v>206</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AJ38" t="s">
         <v>207</v>
@@ -7410,46 +7410,46 @@
         <v>207</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AR38">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS38">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT38">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AU38">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AX38">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AY38">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD38" s="3">
         <v>45796.66666666666</v>
@@ -7475,7 +7475,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
         <v>102</v>
@@ -7645,7 +7645,7 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>103</v>
@@ -7672,76 +7672,76 @@
         <v>206</v>
       </c>
       <c r="L40">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O40">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P40">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="R40">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="T40">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U40">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="V40">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="W40">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="X40">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Y40">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z40">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AA40">
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="AB40">
+        <v>2.1</v>
+      </c>
+      <c r="AC40">
+        <v>1.61</v>
+      </c>
+      <c r="AD40">
+        <v>3.9</v>
+      </c>
+      <c r="AE40">
+        <v>1.22</v>
+      </c>
+      <c r="AF40">
+        <v>1.96</v>
+      </c>
+      <c r="AG40">
         <v>1.75</v>
       </c>
-      <c r="AC40">
-        <v>2.05</v>
-      </c>
-      <c r="AD40">
-        <v>2.79</v>
-      </c>
-      <c r="AE40">
-        <v>1.34</v>
-      </c>
-      <c r="AF40">
-        <v>1.62</v>
-      </c>
-      <c r="AG40">
-        <v>2.2</v>
-      </c>
       <c r="AH40">
-        <v>5.4</v>
+        <v>8.5</v>
       </c>
       <c r="AI40">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AJ40" t="s">
         <v>207</v>
@@ -7750,46 +7750,46 @@
         <v>207</v>
       </c>
       <c r="AL40">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM40">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AN40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO40">
         <v>-1</v>
       </c>
       <c r="AP40">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AR40">
-        <v>1.6</v>
+        <v>1.86</v>
       </c>
       <c r="AS40">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AT40">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="AU40">
-        <v>3.85</v>
+        <v>3.28</v>
       </c>
       <c r="AV40">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="AW40">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="AX40">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="AY40">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="AZ40">
         <v>0</v>
@@ -7798,10 +7798,10 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BC40">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="BD40" s="3">
         <v>45796.66666666666</v>
@@ -7842,91 +7842,91 @@
         <v>206</v>
       </c>
       <c r="L41">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="M41">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N41">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R41">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S41">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="T41">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="U41">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V41">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="W41">
         <v>1.18</v>
       </c>
       <c r="X41">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y41">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z41">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AA41">
-        <v>5.75</v>
+        <v>5.83</v>
       </c>
       <c r="AB41">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AC41">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AD41">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AE41">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AF41">
+        <v>1.35</v>
+      </c>
+      <c r="AG41">
+        <v>2.8</v>
+      </c>
+      <c r="AH41">
+        <v>3.1</v>
+      </c>
+      <c r="AI41">
+        <v>1.3</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL41">
         <v>1.44</v>
       </c>
-      <c r="AG41">
-        <v>2.63</v>
-      </c>
-      <c r="AH41">
-        <v>3.28</v>
-      </c>
-      <c r="AI41">
-        <v>1.29</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL41">
-        <v>1.25</v>
-      </c>
       <c r="AM41">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AN41">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO41">
         <v>-1</v>
@@ -7935,43 +7935,43 @@
         <v>0</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AR41">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT41">
+        <v>1.8</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>4.75</v>
+      </c>
+      <c r="AW41">
+        <v>3.28</v>
+      </c>
+      <c r="AX41">
+        <v>2.45</v>
+      </c>
+      <c r="AY41">
+        <v>1.92</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
         <v>1.98</v>
       </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>2.4</v>
-      </c>
-      <c r="AY41">
-        <v>1.82</v>
-      </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
-      </c>
       <c r="BC41">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD41" s="3">
         <v>45796.67708333334</v>
@@ -8012,91 +8012,91 @@
         <v>206</v>
       </c>
       <c r="L42">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="M42">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="O42">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="P42">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q42">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="R42">
         <v>1.22</v>
       </c>
       <c r="S42">
-        <v>3.94</v>
+        <v>3.9</v>
       </c>
       <c r="T42">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U42">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="V42">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="W42">
+        <v>1.22</v>
+      </c>
+      <c r="X42">
+        <v>1.01</v>
+      </c>
+      <c r="Y42">
+        <v>19</v>
+      </c>
+      <c r="Z42">
+        <v>1.11</v>
+      </c>
+      <c r="AA42">
+        <v>6.2</v>
+      </c>
+      <c r="AB42">
+        <v>1.38</v>
+      </c>
+      <c r="AC42">
+        <v>2.9</v>
+      </c>
+      <c r="AD42">
+        <v>1.91</v>
+      </c>
+      <c r="AE42">
+        <v>1.75</v>
+      </c>
+      <c r="AF42">
+        <v>1.33</v>
+      </c>
+      <c r="AG42">
+        <v>2.85</v>
+      </c>
+      <c r="AH42">
+        <v>3.1</v>
+      </c>
+      <c r="AI42">
+        <v>1.33</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL42">
         <v>1.2</v>
       </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>21</v>
-      </c>
-      <c r="Z42">
-        <v>1.13</v>
-      </c>
-      <c r="AA42">
-        <v>5.83</v>
-      </c>
-      <c r="AB42">
-        <v>1.42</v>
-      </c>
-      <c r="AC42">
-        <v>2.62</v>
-      </c>
-      <c r="AD42">
-        <v>1.97</v>
-      </c>
-      <c r="AE42">
-        <v>1.73</v>
-      </c>
-      <c r="AF42">
-        <v>1.4</v>
-      </c>
-      <c r="AG42">
-        <v>2.8</v>
-      </c>
-      <c r="AH42">
-        <v>3.4</v>
-      </c>
-      <c r="AI42">
-        <v>1.27</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL42">
-        <v>1.24</v>
-      </c>
       <c r="AM42">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AN42">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AO42">
         <v>-1</v>
@@ -8111,10 +8111,10 @@
         <v>1.25</v>
       </c>
       <c r="AS42">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -8126,10 +8126,10 @@
         <v>3.28</v>
       </c>
       <c r="AX42">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="AY42">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8138,10 +8138,10 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>1.98</v>
+        <v>1.64</v>
       </c>
       <c r="BC42">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="BD42" s="3">
         <v>45796.67708333334</v>
@@ -8182,40 +8182,40 @@
         <v>206</v>
       </c>
       <c r="L43">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="M43">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N43">
-        <v>2.97</v>
+        <v>1.71</v>
       </c>
       <c r="O43">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>1.22</v>
       </c>
       <c r="S43">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T43">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V43">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="W43">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="X43">
         <v>1.02</v>
@@ -8224,34 +8224,34 @@
         <v>19</v>
       </c>
       <c r="Z43">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AA43">
-        <v>6.01</v>
+        <v>5.75</v>
       </c>
       <c r="AB43">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AC43">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="AD43">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AE43">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AF43">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AG43">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="AH43">
         <v>3.1</v>
       </c>
       <c r="AI43">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AJ43" t="s">
         <v>207</v>
@@ -8263,43 +8263,43 @@
         <v>1.25</v>
       </c>
       <c r="AM43">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AN43">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AO43">
         <v>-1</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AQ43">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS43">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT43">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AU43">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AV43">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AW43">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AX43">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="AY43">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -8308,10 +8308,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="BC43">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BD43" s="3">
         <v>45796.67708333334</v>
@@ -8325,7 +8325,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s">
         <v>103</v>
@@ -8352,76 +8352,76 @@
         <v>206</v>
       </c>
       <c r="L44">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="M44">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="O44">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="P44">
-        <v>6.25</v>
+        <v>13</v>
       </c>
       <c r="Q44">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R44">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T44">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="U44">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="V44">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="W44">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="X44">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Y44">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="Z44">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="AA44">
-        <v>2.35</v>
+        <v>3.7</v>
       </c>
       <c r="AB44">
-        <v>2.88</v>
+        <v>1.8</v>
       </c>
       <c r="AC44">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD44">
-        <v>5.4</v>
+        <v>2.75</v>
       </c>
       <c r="AE44">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AF44">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="AG44">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AH44">
-        <v>12</v>
+        <v>5.1</v>
       </c>
       <c r="AI44">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AJ44" t="s">
         <v>207</v>
@@ -8430,34 +8430,34 @@
         <v>207</v>
       </c>
       <c r="AL44">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="AM44">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN44">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="AO44">
         <v>-1</v>
       </c>
       <c r="AP44">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR44">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="AS44">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="AT44">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="AU44">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AV44">
         <v>2.07</v>
@@ -8466,10 +8466,10 @@
         <v>1.66</v>
       </c>
       <c r="AX44">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AY44">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -8478,10 +8478,10 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="BC44">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="BD44" s="3">
         <v>45796.79166666666</v>
@@ -8495,7 +8495,7 @@
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
@@ -8522,76 +8522,76 @@
         <v>206</v>
       </c>
       <c r="L45">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>3.38</v>
       </c>
       <c r="N45">
-        <v>6.5</v>
+        <v>3.35</v>
       </c>
       <c r="O45">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="P45">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q45">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R45">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="S45">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="T45">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="U45">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="V45">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="W45">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="X45">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="Y45">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z45">
+        <v>1.42</v>
+      </c>
+      <c r="AA45">
+        <v>2.8</v>
+      </c>
+      <c r="AB45">
+        <v>2.15</v>
+      </c>
+      <c r="AC45">
+        <v>1.62</v>
+      </c>
+      <c r="AD45">
+        <v>4.2</v>
+      </c>
+      <c r="AE45">
         <v>1.2</v>
       </c>
-      <c r="AA45">
-        <v>3.7</v>
-      </c>
-      <c r="AB45">
-        <v>1.8</v>
-      </c>
-      <c r="AC45">
-        <v>2</v>
-      </c>
-      <c r="AD45">
-        <v>2.75</v>
-      </c>
-      <c r="AE45">
-        <v>1.35</v>
-      </c>
       <c r="AF45">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AG45">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AH45">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AI45">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AJ45" t="s">
         <v>207</v>
@@ -8600,46 +8600,46 @@
         <v>207</v>
       </c>
       <c r="AL45">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AM45">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AN45">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="AO45">
         <v>-1</v>
       </c>
       <c r="AP45">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AR45">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="AS45">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="AT45">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="AU45">
-        <v>2.7</v>
+        <v>3.32</v>
       </c>
       <c r="AV45">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="AW45">
-        <v>1.66</v>
+        <v>1.84</v>
       </c>
       <c r="AX45">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AY45">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -8648,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="BC45">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="BD45" s="3">
         <v>45796.79166666666</v>
@@ -8692,76 +8692,76 @@
         <v>206</v>
       </c>
       <c r="L46">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>4.93</v>
+        <v>5.25</v>
       </c>
       <c r="O46">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P46">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="Q46">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R46">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S46">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="T46">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="U46">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="V46">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W46">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="X46">
         <v>1.08</v>
       </c>
       <c r="Y46">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="Z46">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="AA46">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AB46">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AC46">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AD46">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AE46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AF46">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="AG46">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="AH46">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI46">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AJ46" t="s">
         <v>207</v>
@@ -8770,46 +8770,46 @@
         <v>207</v>
       </c>
       <c r="AL46">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AM46">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AN46">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AQ46">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AR46">
-        <v>1.84</v>
+        <v>2.14</v>
       </c>
       <c r="AS46">
-        <v>2.3</v>
+        <v>2.73</v>
       </c>
       <c r="AT46">
-        <v>2.9</v>
+        <v>3.68</v>
       </c>
       <c r="AU46">
-        <v>3.32</v>
+        <v>2.68</v>
       </c>
       <c r="AV46">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="AW46">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="AX46">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AY46">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8818,10 +8818,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BC46">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="BD46" s="3">
         <v>45796.79166666666</v>
@@ -8862,34 +8862,34 @@
         <v>206</v>
       </c>
       <c r="L47">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="M47">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="R47">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S47">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="T47">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="U47">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="V47">
         <v>7.3</v>
@@ -8898,10 +8898,10 @@
         <v>1.06</v>
       </c>
       <c r="X47">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Y47">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="Z47">
         <v>1.29</v>
@@ -8910,43 +8910,43 @@
         <v>3.25</v>
       </c>
       <c r="AB47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AC47">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AD47">
         <v>3.8</v>
       </c>
       <c r="AE47">
+        <v>1.21</v>
+      </c>
+      <c r="AF47">
+        <v>1.77</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+      <c r="AH47">
+        <v>6.5</v>
+      </c>
+      <c r="AI47">
+        <v>1.05</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL47">
         <v>1.26</v>
-      </c>
-      <c r="AF47">
-        <v>1.81</v>
-      </c>
-      <c r="AG47">
-        <v>1.95</v>
-      </c>
-      <c r="AH47">
-        <v>7.1</v>
-      </c>
-      <c r="AI47">
-        <v>1.04</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL47">
-        <v>1.3</v>
       </c>
       <c r="AM47">
         <v>1.3</v>
       </c>
       <c r="AN47">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
         <v>-1</v>
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="BC47">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="BD47" s="3">
         <v>45796.8125</v>
@@ -9032,13 +9032,13 @@
         <v>206</v>
       </c>
       <c r="L48">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N48">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O48">
         <v>1.49</v>
@@ -9071,13 +9071,13 @@
         <v>1.02</v>
       </c>
       <c r="Y48">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z48">
         <v>1.29</v>
       </c>
       <c r="AA48">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="AB48">
         <v>2.05</v>
@@ -9095,13 +9095,13 @@
         <v>1.97</v>
       </c>
       <c r="AG48">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AH48">
         <v>8.5</v>
       </c>
       <c r="AI48">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AJ48" t="s">
         <v>207</v>
@@ -9202,13 +9202,13 @@
         <v>206</v>
       </c>
       <c r="L49">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="M49">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="N49">
-        <v>2.75</v>
+        <v>3.08</v>
       </c>
       <c r="O49">
         <v>1.95</v>
@@ -9226,13 +9226,13 @@
         <v>2.16</v>
       </c>
       <c r="T49">
-        <v>3.7</v>
+        <v>3.84</v>
       </c>
       <c r="U49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V49">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W49">
         <v>1</v>
@@ -9241,25 +9241,25 @@
         <v>1.13</v>
       </c>
       <c r="Y49">
-        <v>5.3</v>
+        <v>5.52</v>
       </c>
       <c r="Z49">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AA49">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="AB49">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AC49">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AD49">
         <v>5.3</v>
       </c>
       <c r="AE49">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AF49">
         <v>2.2</v>
@@ -9268,7 +9268,7 @@
         <v>1.62</v>
       </c>
       <c r="AH49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI49">
         <v>1</v>
@@ -9280,22 +9280,22 @@
         <v>207</v>
       </c>
       <c r="AL49">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AM49">
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AO49">
         <v>-1</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AQ49">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
         <v>2.4</v>
@@ -9310,10 +9310,10 @@
         <v>2.33</v>
       </c>
       <c r="AV49">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="AW49">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AX49">
         <v>1.31</v>
@@ -9345,7 +9345,7 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
         <v>103</v>
@@ -9372,124 +9372,124 @@
         <v>206</v>
       </c>
       <c r="L50">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="M50">
+        <v>3.1</v>
+      </c>
+      <c r="N50">
+        <v>2.88</v>
+      </c>
+      <c r="O50">
+        <v>1.83</v>
+      </c>
+      <c r="P50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q50">
+        <v>2.2</v>
+      </c>
+      <c r="R50">
+        <v>1.4</v>
+      </c>
+      <c r="S50">
+        <v>2.75</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>3.75</v>
-      </c>
-      <c r="O50">
-        <v>1.73</v>
-      </c>
-      <c r="P50">
-        <v>5.5</v>
-      </c>
-      <c r="Q50">
-        <v>2.75</v>
-      </c>
-      <c r="R50">
-        <v>1.57</v>
-      </c>
-      <c r="S50">
-        <v>2.25</v>
-      </c>
-      <c r="T50">
-        <v>3.75</v>
-      </c>
       <c r="U50">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="V50">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W50">
+        <v>1.08</v>
+      </c>
+      <c r="X50">
+        <v>1.01</v>
+      </c>
+      <c r="Y50">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>1.28</v>
+      </c>
+      <c r="AA50">
+        <v>3.08</v>
+      </c>
+      <c r="AB50">
+        <v>2.05</v>
+      </c>
+      <c r="AC50">
+        <v>1.75</v>
+      </c>
+      <c r="AD50">
+        <v>3.44</v>
+      </c>
+      <c r="AE50">
+        <v>1.23</v>
+      </c>
+      <c r="AF50">
+        <v>1.8</v>
+      </c>
+      <c r="AG50">
+        <v>1.91</v>
+      </c>
+      <c r="AH50">
+        <v>6.75</v>
+      </c>
+      <c r="AI50">
         <v>1.04</v>
       </c>
-      <c r="X50">
-        <v>1.07</v>
-      </c>
-      <c r="Y50">
-        <v>6.3</v>
-      </c>
-      <c r="Z50">
+      <c r="AJ50" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL50">
+        <v>1.4</v>
+      </c>
+      <c r="AM50">
+        <v>1.33</v>
+      </c>
+      <c r="AN50">
         <v>1.53</v>
-      </c>
-      <c r="AA50">
-        <v>2.3</v>
-      </c>
-      <c r="AB50">
-        <v>2.7</v>
-      </c>
-      <c r="AC50">
-        <v>1.44</v>
-      </c>
-      <c r="AD50">
-        <v>5.15</v>
-      </c>
-      <c r="AE50">
-        <v>1.1</v>
-      </c>
-      <c r="AF50">
-        <v>2.2</v>
-      </c>
-      <c r="AG50">
-        <v>1.62</v>
-      </c>
-      <c r="AH50">
-        <v>12</v>
-      </c>
-      <c r="AI50">
-        <v>1.01</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK50" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL50">
-        <v>1.26</v>
-      </c>
-      <c r="AM50">
-        <v>1.32</v>
-      </c>
-      <c r="AN50">
-        <v>1.75</v>
       </c>
       <c r="AO50">
         <v>-1</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AQ50">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AR50">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="AS50">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AT50">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="AU50">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AV50">
-        <v>2</v>
+        <v>2.23</v>
       </c>
       <c r="AW50">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="AX50">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AY50">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BC50">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="BD50" s="3">
         <v>45796.89583333334</v>
@@ -9515,7 +9515,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>103</v>
@@ -9542,124 +9542,124 @@
         <v>206</v>
       </c>
       <c r="L51">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="M51">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N51">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="O51">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P51">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
+        <v>2.75</v>
+      </c>
+      <c r="R51">
+        <v>1.57</v>
+      </c>
+      <c r="S51">
+        <v>2.25</v>
+      </c>
+      <c r="T51">
+        <v>3.75</v>
+      </c>
+      <c r="U51">
+        <v>1.25</v>
+      </c>
+      <c r="V51">
+        <v>13</v>
+      </c>
+      <c r="W51">
+        <v>1.04</v>
+      </c>
+      <c r="X51">
+        <v>1.07</v>
+      </c>
+      <c r="Y51">
+        <v>6.3</v>
+      </c>
+      <c r="Z51">
+        <v>1.53</v>
+      </c>
+      <c r="AA51">
+        <v>2.3</v>
+      </c>
+      <c r="AB51">
+        <v>2.7</v>
+      </c>
+      <c r="AC51">
+        <v>1.44</v>
+      </c>
+      <c r="AD51">
+        <v>5.15</v>
+      </c>
+      <c r="AE51">
+        <v>1.1</v>
+      </c>
+      <c r="AF51">
         <v>2.2</v>
       </c>
-      <c r="R51">
-        <v>1.4</v>
-      </c>
-      <c r="S51">
-        <v>2.75</v>
-      </c>
-      <c r="T51">
-        <v>3</v>
-      </c>
-      <c r="U51">
-        <v>1.36</v>
-      </c>
-      <c r="V51">
-        <v>8</v>
-      </c>
-      <c r="W51">
-        <v>1.08</v>
-      </c>
-      <c r="X51">
+      <c r="AG51">
+        <v>1.62</v>
+      </c>
+      <c r="AH51">
+        <v>12</v>
+      </c>
+      <c r="AI51">
         <v>1.01</v>
       </c>
-      <c r="Y51">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Z51">
-        <v>1.28</v>
-      </c>
-      <c r="AA51">
-        <v>3.08</v>
-      </c>
-      <c r="AB51">
-        <v>2.05</v>
-      </c>
-      <c r="AC51">
+      <c r="AJ51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL51">
+        <v>1.26</v>
+      </c>
+      <c r="AM51">
+        <v>1.32</v>
+      </c>
+      <c r="AN51">
         <v>1.75</v>
-      </c>
-      <c r="AD51">
-        <v>3.44</v>
-      </c>
-      <c r="AE51">
-        <v>1.23</v>
-      </c>
-      <c r="AF51">
-        <v>1.8</v>
-      </c>
-      <c r="AG51">
-        <v>1.91</v>
-      </c>
-      <c r="AH51">
-        <v>6.75</v>
-      </c>
-      <c r="AI51">
-        <v>1.04</v>
-      </c>
-      <c r="AJ51" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK51" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL51">
-        <v>1.4</v>
-      </c>
-      <c r="AM51">
-        <v>1.33</v>
-      </c>
-      <c r="AN51">
-        <v>1.53</v>
       </c>
       <c r="AO51">
         <v>-1</v>
       </c>
       <c r="AP51">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AQ51">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AR51">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AS51">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AT51">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AV51">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AW51">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="AX51">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AY51">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -9668,10 +9668,10 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="BC51">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="BD51" s="3">
         <v>45796.89583333334</v>
@@ -9685,7 +9685,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
@@ -9712,13 +9712,13 @@
         <v>206</v>
       </c>
       <c r="L52">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="M52">
         <v>3</v>
       </c>
       <c r="N52">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="O52">
         <v>1.62</v>
@@ -9730,52 +9730,52 @@
         <v>2.88</v>
       </c>
       <c r="R52">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="S52">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T52">
         <v>3.4</v>
       </c>
       <c r="U52">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="V52">
         <v>7.8</v>
       </c>
       <c r="W52">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X52">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Y52">
-        <v>6.5</v>
+        <v>6.05</v>
       </c>
       <c r="Z52">
         <v>1.5</v>
       </c>
       <c r="AA52">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AB52">
         <v>2.55</v>
       </c>
       <c r="AC52">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AD52">
         <v>4.7</v>
       </c>
       <c r="AE52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AF52">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AG52">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AH52">
         <v>8.800000000000001</v>
@@ -9805,28 +9805,28 @@
         <v>1.22</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AR52">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AS52">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AT52">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="AU52">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AV52">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="AW52">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="AX52">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="AY52">
         <v>1.58</v>

--- a/jogos_2025-05-19.xlsx
+++ b/jogos_2025-05-19.xlsx
@@ -247,10 +247,13 @@
     <t>Serbia Prva Liga</t>
   </si>
   <si>
+    <t>Russia FNL</t>
+  </si>
+  <si>
     <t>Uzbekistan Uzbekistan Super League</t>
   </si>
   <si>
-    <t>Russia FNL</t>
+    <t>Algeria Ligue 1</t>
   </si>
   <si>
     <t>Israel Liga Leumit</t>
@@ -259,36 +262,33 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
-    <t>Algeria Ligue 1</t>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Turkey 1. Lig</t>
+  </si>
+  <si>
+    <t>Poland 1. Liga</t>
   </si>
   <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Poland 1. Liga</t>
-  </si>
-  <si>
-    <t>Turkey 1. Lig</t>
-  </si>
-  <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
+    <t>Israel Israeli Premier League</t>
+  </si>
+  <si>
+    <t>Russia Russian Premier League</t>
   </si>
   <si>
     <t>Romania Liga I</t>
   </si>
   <si>
-    <t>Israel Israeli Premier League</t>
-  </si>
-  <si>
-    <t>Russia Russian Premier League</t>
-  </si>
-  <si>
     <t>Hungary NB II</t>
   </si>
   <si>
@@ -301,21 +301,21 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>England Premier League</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>England Premier League</t>
-  </si>
-  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -328,81 +328,81 @@
     <t>2025</t>
   </si>
   <si>
+    <t>Al Ain</t>
+  </si>
+  <si>
     <t>Al Ittihad Kalba</t>
   </si>
   <si>
-    <t>Al Ain</t>
-  </si>
-  <si>
     <t>CSKA 1948 Sofia</t>
   </si>
   <si>
+    <t>Sloboda Užice</t>
+  </si>
+  <si>
+    <t>KAMAZ</t>
+  </si>
+  <si>
+    <t>Semendrija 1924</t>
+  </si>
+  <si>
+    <t>Inđija</t>
+  </si>
+  <si>
+    <t>Neftekhimik</t>
+  </si>
+  <si>
+    <t>AGMK</t>
+  </si>
+  <si>
     <t>Dubočica</t>
   </si>
   <si>
-    <t>AGMK</t>
-  </si>
-  <si>
-    <t>Sloboda Užice</t>
-  </si>
-  <si>
-    <t>Semendrija 1924</t>
-  </si>
-  <si>
-    <t>Neftekhimik</t>
-  </si>
-  <si>
-    <t>KAMAZ</t>
-  </si>
-  <si>
-    <t>Inđija</t>
+    <t>ASO Chlef</t>
+  </si>
+  <si>
+    <t>Maccabi Herzliya</t>
+  </si>
+  <si>
+    <t>Hapoel Ramat Gan</t>
   </si>
   <si>
     <t>Hapoel Kfar Saba</t>
   </si>
   <si>
-    <t>Maccabi Herzliya</t>
-  </si>
-  <si>
-    <t>Hapoel Ramat Gan</t>
-  </si>
-  <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
-    <t>ASO Chlef</t>
-  </si>
-  <si>
     <t>MC Alger</t>
   </si>
   <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Sirius</t>
+  </si>
+  <si>
+    <t>Landskrona</t>
+  </si>
+  <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Boluspor</t>
+  </si>
+  <si>
+    <t>Chrobry Głogów</t>
+  </si>
+  <si>
+    <t>Miedź Legnica</t>
+  </si>
+  <si>
     <t>Brøndby</t>
   </si>
   <si>
-    <t>Miedź Legnica</t>
-  </si>
-  <si>
-    <t>Boluspor</t>
-  </si>
-  <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
-    <t>Sirius</t>
-  </si>
-  <si>
-    <t>Landskrona</t>
-  </si>
-  <si>
-    <t>Chrobry Głogów</t>
-  </si>
-  <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
     <t>Al Wahda</t>
   </si>
   <si>
@@ -412,18 +412,18 @@
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moskva</t>
+  </si>
+  <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
     <t>Beitar Jerusalem</t>
   </si>
   <si>
-    <t>Lokomotiv Moskva</t>
-  </si>
-  <si>
     <t>Kazincbarcika</t>
   </si>
   <si>
@@ -436,15 +436,15 @@
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
     <t>Unión Española</t>
   </si>
   <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
-  </si>
-  <si>
     <t>ÍA</t>
   </si>
   <si>
@@ -454,15 +454,15 @@
     <t>Stjarnan</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
     <t>Colo-Colo</t>
   </si>
   <si>
     <t>Volta Redonda</t>
   </si>
   <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
     <t>Confiança</t>
   </si>
   <si>
@@ -481,81 +481,81 @@
     <t>Coritiba</t>
   </si>
   <si>
+    <t>Ajman</t>
+  </si>
+  <si>
     <t>Al Nasr</t>
   </si>
   <si>
-    <t>Ajman</t>
-  </si>
-  <si>
     <t>Levski Krumovgrad</t>
   </si>
   <si>
+    <t>Radnički Sr. Mitrovica</t>
+  </si>
+  <si>
+    <t>Spartak Vladikavkaz</t>
+  </si>
+  <si>
+    <t>Trajal Krusevac</t>
+  </si>
+  <si>
+    <t>Zemun</t>
+  </si>
+  <si>
+    <t>FK Chernomorets Novorossiysk</t>
+  </si>
+  <si>
+    <t>Neftchi</t>
+  </si>
+  <si>
     <t>Sloven Ruma</t>
   </si>
   <si>
-    <t>Neftchi</t>
-  </si>
-  <si>
-    <t>Radnički Sr. Mitrovica</t>
-  </si>
-  <si>
-    <t>Trajal Krusevac</t>
-  </si>
-  <si>
-    <t>FK Chernomorets Novorossiysk</t>
-  </si>
-  <si>
-    <t>Spartak Vladikavkaz</t>
-  </si>
-  <si>
-    <t>Zemun</t>
+    <t>CR Belouizdad</t>
+  </si>
+  <si>
+    <t>Hapoel Petah Tikva</t>
+  </si>
+  <si>
+    <t>Bnei Yehuda</t>
   </si>
   <si>
     <t>Hapoel Tel Aviv</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
-  </si>
-  <si>
-    <t>Bnei Yehuda</t>
-  </si>
-  <si>
     <t>Trans</t>
   </si>
   <si>
-    <t>CR Belouizdad</t>
-  </si>
-  <si>
     <t>ES Sétif</t>
   </si>
   <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Bandırmaspor</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
+    <t>Nieciecza</t>
+  </si>
+  <si>
     <t>Midtjylland</t>
   </si>
   <si>
-    <t>Nieciecza</t>
-  </si>
-  <si>
-    <t>Bandırmaspor</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
     <t>Al Jazira</t>
   </si>
   <si>
@@ -565,18 +565,18 @@
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>Maccabi Tel Aviv</t>
+  </si>
+  <si>
+    <t>CSKA Moskva</t>
+  </si>
+  <si>
     <t>CFR Cluj</t>
   </si>
   <si>
-    <t>Maccabi Tel Aviv</t>
-  </si>
-  <si>
     <t>Hapoel Be'er Sheva</t>
   </si>
   <si>
-    <t>CSKA Moskva</t>
-  </si>
-  <si>
     <t>Mezőkövesd-Zsóry</t>
   </si>
   <si>
@@ -589,15 +589,15 @@
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>St Patrick's Athl.</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
     <t>Everton</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>St Patrick's Athl.</t>
-  </si>
-  <si>
     <t>FH</t>
   </si>
   <si>
@@ -607,13 +607,13 @@
     <t>Víkingur Reykjavík</t>
   </si>
   <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
     <t>Ñublense</t>
   </si>
   <si>
     <t>Amazonas</t>
-  </si>
-  <si>
-    <t>San Lorenzo</t>
   </si>
   <si>
     <t>Londrina</t>
@@ -1552,13 +1552,13 @@
         <v>206</v>
       </c>
       <c r="L4">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="M4">
-        <v>3.83</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>5.8</v>
+        <v>7.25</v>
       </c>
       <c r="O4">
         <v>1.43</v>
@@ -1570,58 +1570,58 @@
         <v>3.42</v>
       </c>
       <c r="R4">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="S4">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="U4">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="W4">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="X4">
         <v>1.01</v>
       </c>
       <c r="Y4">
-        <v>8.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="Z4">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AA4">
-        <v>3.08</v>
+        <v>3.5</v>
       </c>
       <c r="AB4">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AC4">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AD4">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="AE4">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AG4">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AH4">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="AI4">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AJ4" t="s">
         <v>207</v>
@@ -1636,40 +1636,40 @@
         <v>1.22</v>
       </c>
       <c r="AN4">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="AO4">
         <v>-1</v>
       </c>
       <c r="AP4">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AQ4">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AR4">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="AS4">
-        <v>2.43</v>
+        <v>2.48</v>
       </c>
       <c r="AT4">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU4">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AV4">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AW4">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AX4">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AY4">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
@@ -1892,76 +1892,76 @@
         <v>206</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.77</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ6" t="s">
         <v>207</v>
@@ -1970,13 +1970,13 @@
         <v>207</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BD6" s="3">
         <v>45796.5</v>
@@ -2062,13 +2062,13 @@
         <v>206</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
@@ -2435,7 +2435,7 @@
         <v>11.5</v>
       </c>
       <c r="W9">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1.09</v>
@@ -2450,10 +2450,10 @@
         <v>2.45</v>
       </c>
       <c r="AB9">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AC9">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AD9">
         <v>5.55</v>
@@ -2465,7 +2465,7 @@
         <v>2.34</v>
       </c>
       <c r="AG9">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AH9">
         <v>13.5</v>
@@ -2548,7 +2548,7 @@
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>112</v>
@@ -2572,76 +2572,76 @@
         <v>206</v>
       </c>
       <c r="L10">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>2.69</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="s">
         <v>207</v>
@@ -2650,13 +2650,13 @@
         <v>207</v>
       </c>
       <c r="AL10">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2698,10 +2698,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="BC10">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="3">
         <v>45796.5</v>
@@ -2742,13 +2742,13 @@
         <v>206</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2912,76 +2912,76 @@
         <v>206</v>
       </c>
       <c r="L12">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>3.16</v>
       </c>
       <c r="N12">
-        <v>1.79</v>
+        <v>2.59</v>
       </c>
       <c r="O12">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="P12">
-        <v>11.75</v>
+        <v>9</v>
       </c>
       <c r="Q12">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="R12">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="S12">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="T12">
-        <v>2.68</v>
+        <v>3.04</v>
       </c>
       <c r="U12">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="V12">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="W12">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X12">
         <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="Z12">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AA12">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="AB12">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="AD12">
-        <v>3.04</v>
+        <v>3.68</v>
       </c>
       <c r="AE12">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AF12">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AG12">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="AH12">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI12">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AJ12" t="s">
         <v>207</v>
@@ -2990,13 +2990,13 @@
         <v>207</v>
       </c>
       <c r="AL12">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="AM12">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AN12">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>2.6</v>
+        <v>1.96</v>
       </c>
       <c r="BC12">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="BD12" s="3">
         <v>45796.54166666666</v>
@@ -3055,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -3100,22 +3100,22 @@
         <v>1.53</v>
       </c>
       <c r="R13">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S13">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="T13">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W13">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X13">
         <v>1.01</v>
@@ -3124,16 +3124,16 @@
         <v>11</v>
       </c>
       <c r="Z13">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AA13">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="AB13">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC13">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AD13">
         <v>2.92</v>
@@ -3142,7 +3142,7 @@
         <v>1.31</v>
       </c>
       <c r="AF13">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AG13">
         <v>2</v>
@@ -3160,7 +3160,7 @@
         <v>207</v>
       </c>
       <c r="AL13">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="AM13">
         <v>1.2</v>
@@ -3225,7 +3225,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3270,55 +3270,55 @@
         <v>2.5</v>
       </c>
       <c r="R14">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S14">
-        <v>2.99</v>
+        <v>3.15</v>
       </c>
       <c r="T14">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="U14">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="V14">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="W14">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="Y14">
-        <v>10.9</v>
+        <v>10.5</v>
       </c>
       <c r="Z14">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AA14">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="AB14">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AD14">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="AE14">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AF14">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AG14">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AH14">
-        <v>4.6</v>
+        <v>5.15</v>
       </c>
       <c r="AI14">
         <v>1.1</v>
@@ -3330,13 +3330,13 @@
         <v>207</v>
       </c>
       <c r="AL14">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AM14">
         <v>1.21</v>
       </c>
       <c r="AN14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3398,7 +3398,7 @@
         <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
@@ -3422,76 +3422,76 @@
         <v>206</v>
       </c>
       <c r="L15">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="M15">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P15">
-        <v>18</v>
+        <v>11.75</v>
       </c>
       <c r="Q15">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="R15">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="S15">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="T15">
-        <v>2.22</v>
+        <v>2.65</v>
       </c>
       <c r="U15">
-        <v>1.63</v>
+        <v>1.4</v>
       </c>
       <c r="V15">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="W15">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X15">
         <v>1.01</v>
       </c>
       <c r="Y15">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Z15">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="AA15">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB15">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="AC15">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AD15">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="AE15">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AF15">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AG15">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AH15">
-        <v>3.9</v>
+        <v>5.65</v>
       </c>
       <c r="AI15">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="AJ15" t="s">
         <v>207</v>
@@ -3500,13 +3500,13 @@
         <v>207</v>
       </c>
       <c r="AL15">
-        <v>1.13</v>
+        <v>1.97</v>
       </c>
       <c r="AM15">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AN15">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AO15">
         <v>-1</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="BC15">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="BD15" s="3">
         <v>45796.54166666666</v>
@@ -3568,7 +3568,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
@@ -3592,76 +3592,76 @@
         <v>206</v>
       </c>
       <c r="L16">
-        <v>2.46</v>
+        <v>5.7</v>
       </c>
       <c r="M16">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>1.38</v>
       </c>
       <c r="O16">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q16">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="R16">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="S16">
-        <v>2.69</v>
+        <v>4.2</v>
       </c>
       <c r="T16">
-        <v>3.04</v>
+        <v>2.08</v>
       </c>
       <c r="U16">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="V16">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="W16">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="X16">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y16">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z16">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AA16">
-        <v>2.97</v>
+        <v>5.4</v>
       </c>
       <c r="AB16">
-        <v>2.05</v>
+        <v>1.47</v>
       </c>
       <c r="AC16">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="AD16">
-        <v>3.68</v>
+        <v>2.25</v>
       </c>
       <c r="AE16">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AF16">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="AG16">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AH16">
-        <v>6.75</v>
+        <v>3.9</v>
       </c>
       <c r="AI16">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AJ16" t="s">
         <v>207</v>
@@ -3670,13 +3670,13 @@
         <v>207</v>
       </c>
       <c r="AL16">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AM16">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AN16">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="AO16">
         <v>-1</v>
@@ -3718,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="BC16">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="BD16" s="3">
         <v>45796.54166666666</v>
@@ -3735,7 +3735,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -3762,13 +3762,13 @@
         <v>206</v>
       </c>
       <c r="L17">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M17">
         <v>4.4</v>
       </c>
       <c r="N17">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O17">
         <v>1.29</v>
@@ -3783,10 +3783,10 @@
         <v>1.35</v>
       </c>
       <c r="S17">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="T17">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="U17">
         <v>1.4</v>
@@ -3795,43 +3795,43 @@
         <v>6.4</v>
       </c>
       <c r="W17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X17">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z17">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA17">
-        <v>2.97</v>
+        <v>3.14</v>
       </c>
       <c r="AB17">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="AC17">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AD17">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF17">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="AG17">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AH17">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI17">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AJ17" t="s">
         <v>207</v>
@@ -3840,13 +3840,13 @@
         <v>207</v>
       </c>
       <c r="AL17">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AM17">
         <v>1.15</v>
       </c>
       <c r="AN17">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -3908,7 +3908,7 @@
         <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
         <v>120</v>
@@ -3932,76 +3932,76 @@
         <v>206</v>
       </c>
       <c r="L18">
-        <v>2.16</v>
+        <v>2.64</v>
       </c>
       <c r="M18">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="N18">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="O18">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P18">
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R18">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="S18">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U18">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="V18">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="W18">
         <v>1.11</v>
       </c>
       <c r="X18">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Y18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z18">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AA18">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AB18">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AC18">
+        <v>2.08</v>
+      </c>
+      <c r="AD18">
+        <v>2.85</v>
+      </c>
+      <c r="AE18">
+        <v>1.42</v>
+      </c>
+      <c r="AF18">
+        <v>1.62</v>
+      </c>
+      <c r="AG18">
         <v>2.2</v>
       </c>
-      <c r="AD18">
-        <v>2.25</v>
-      </c>
-      <c r="AE18">
-        <v>1.55</v>
-      </c>
-      <c r="AF18">
-        <v>1.45</v>
-      </c>
-      <c r="AG18">
-        <v>2.5</v>
-      </c>
       <c r="AH18">
-        <v>3.98</v>
+        <v>5.25</v>
       </c>
       <c r="AI18">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AJ18" t="s">
         <v>207</v>
@@ -4010,58 +4010,58 @@
         <v>207</v>
       </c>
       <c r="AL18">
-        <v>1.23</v>
+        <v>1.57</v>
       </c>
       <c r="AM18">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AN18">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS18">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="AT18">
+        <v>2.08</v>
+      </c>
+      <c r="AU18">
+        <v>4.6</v>
+      </c>
+      <c r="AV18">
+        <v>3.3</v>
+      </c>
+      <c r="AW18">
         <v>2.5</v>
       </c>
-      <c r="AU18">
-        <v>4.25</v>
-      </c>
-      <c r="AV18">
-        <v>3.05</v>
-      </c>
-      <c r="AW18">
-        <v>2.33</v>
-      </c>
       <c r="AX18">
+        <v>1.98</v>
+      </c>
+      <c r="AY18">
+        <v>1.66</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>2.1</v>
+      </c>
+      <c r="BC18">
         <v>1.8</v>
-      </c>
-      <c r="AY18">
-        <v>1.47</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>1.91</v>
-      </c>
-      <c r="BC18">
-        <v>2.05</v>
       </c>
       <c r="BD18" s="3">
         <v>45796.58333333334</v>
@@ -4075,10 +4075,10 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
         <v>121</v>
@@ -4102,124 +4102,124 @@
         <v>206</v>
       </c>
       <c r="L19">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
       <c r="M19">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N19">
-        <v>2.41</v>
+        <v>2.85</v>
       </c>
       <c r="O19">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Q19">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="R19">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="S19">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="T19">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V19">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="X19">
         <v>1.04</v>
       </c>
       <c r="Y19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>4.5</v>
+      </c>
+      <c r="AB19">
+        <v>1.6</v>
+      </c>
+      <c r="AC19">
+        <v>2.1</v>
+      </c>
+      <c r="AD19">
+        <v>2.55</v>
+      </c>
+      <c r="AE19">
+        <v>1.53</v>
+      </c>
+      <c r="AF19">
+        <v>1.57</v>
+      </c>
+      <c r="AG19">
+        <v>2.25</v>
+      </c>
+      <c r="AH19">
+        <v>4.5</v>
+      </c>
+      <c r="AI19">
+        <v>1.2</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL19">
+        <v>1.35</v>
+      </c>
+      <c r="AM19">
         <v>1.22</v>
       </c>
-      <c r="AA19">
-        <v>3.58</v>
-      </c>
-      <c r="AB19">
-        <v>1.77</v>
-      </c>
-      <c r="AC19">
-        <v>1.93</v>
-      </c>
-      <c r="AD19">
-        <v>2.78</v>
-      </c>
-      <c r="AE19">
-        <v>1.38</v>
-      </c>
-      <c r="AF19">
-        <v>1.6</v>
-      </c>
-      <c r="AG19">
-        <v>2.07</v>
-      </c>
-      <c r="AH19">
-        <v>5.5</v>
-      </c>
-      <c r="AI19">
-        <v>1.14</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL19">
-        <v>1.25</v>
-      </c>
-      <c r="AM19">
-        <v>1.26</v>
-      </c>
       <c r="AN19">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AQ19">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AR19">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AS19">
         <v>1.76</v>
       </c>
       <c r="AT19">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AV19">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="AW19">
-        <v>2.46</v>
+        <v>2.43</v>
       </c>
       <c r="AX19">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="AY19">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4228,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BC19">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="BD19" s="3">
         <v>45796.58333333334</v>
@@ -4245,10 +4245,10 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
@@ -4272,76 +4272,76 @@
         <v>206</v>
       </c>
       <c r="L20">
+        <v>2.07</v>
+      </c>
+      <c r="M20">
+        <v>3.41</v>
+      </c>
+      <c r="N20">
+        <v>2.9</v>
+      </c>
+      <c r="O20">
+        <v>1.8</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
         <v>2.3</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20">
-        <v>2.8</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S20">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="T20">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="U20">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V20">
         <v>6.7</v>
       </c>
       <c r="W20">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z20">
         <v>1.3</v>
       </c>
       <c r="AA20">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AB20">
+        <v>1.8</v>
+      </c>
+      <c r="AC20">
+        <v>1.9</v>
+      </c>
+      <c r="AD20">
+        <v>3.25</v>
+      </c>
+      <c r="AE20">
+        <v>1.35</v>
+      </c>
+      <c r="AF20">
+        <v>1.7</v>
+      </c>
+      <c r="AG20">
         <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>1.8</v>
-      </c>
-      <c r="AD20">
-        <v>3.4</v>
-      </c>
-      <c r="AE20">
-        <v>1.3</v>
-      </c>
-      <c r="AF20">
-        <v>1.67</v>
-      </c>
-      <c r="AG20">
-        <v>2.1</v>
       </c>
       <c r="AH20">
         <v>6.5</v>
       </c>
       <c r="AI20">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AJ20" t="s">
         <v>207</v>
@@ -4350,46 +4350,46 @@
         <v>207</v>
       </c>
       <c r="AL20">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AM20">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AN20">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR20">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="AS20">
-        <v>2.95</v>
+        <v>2.05</v>
       </c>
       <c r="AT20">
-        <v>3.78</v>
+        <v>2.55</v>
       </c>
       <c r="AU20">
-        <v>2.85</v>
+        <v>3.55</v>
       </c>
       <c r="AV20">
-        <v>2.03</v>
+        <v>2.65</v>
       </c>
       <c r="AW20">
-        <v>1.63</v>
+        <v>2.07</v>
       </c>
       <c r="AX20">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AY20">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD20" s="3">
         <v>45796.58333333334</v>
@@ -4415,7 +4415,7 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>103</v>
@@ -4442,76 +4442,76 @@
         <v>206</v>
       </c>
       <c r="L21">
-        <v>2.64</v>
+        <v>1.52</v>
       </c>
       <c r="M21">
-        <v>3.34</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>2.26</v>
+        <v>5.1</v>
       </c>
       <c r="O21">
+        <v>1.44</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>2.88</v>
+      </c>
+      <c r="R21">
+        <v>1.3</v>
+      </c>
+      <c r="S21">
+        <v>3.4</v>
+      </c>
+      <c r="T21">
+        <v>2.38</v>
+      </c>
+      <c r="U21">
+        <v>1.53</v>
+      </c>
+      <c r="V21">
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <v>1.13</v>
+      </c>
+      <c r="X21">
+        <v>1.04</v>
+      </c>
+      <c r="Y21">
+        <v>11</v>
+      </c>
+      <c r="Z21">
+        <v>1.2</v>
+      </c>
+      <c r="AA21">
+        <v>4.5</v>
+      </c>
+      <c r="AB21">
+        <v>1.55</v>
+      </c>
+      <c r="AC21">
+        <v>2.2</v>
+      </c>
+      <c r="AD21">
+        <v>2.6</v>
+      </c>
+      <c r="AE21">
+        <v>1.5</v>
+      </c>
+      <c r="AF21">
+        <v>1.67</v>
+      </c>
+      <c r="AG21">
         <v>2.1</v>
       </c>
-      <c r="P21">
-        <v>10</v>
-      </c>
-      <c r="Q21">
-        <v>1.8</v>
-      </c>
-      <c r="R21">
-        <v>1.33</v>
-      </c>
-      <c r="S21">
-        <v>3.25</v>
-      </c>
-      <c r="T21">
-        <v>2.63</v>
-      </c>
-      <c r="U21">
-        <v>1.44</v>
-      </c>
-      <c r="V21">
-        <v>6.5</v>
-      </c>
-      <c r="W21">
-        <v>1.11</v>
-      </c>
-      <c r="X21">
-        <v>1.05</v>
-      </c>
-      <c r="Y21">
-        <v>10</v>
-      </c>
-      <c r="Z21">
-        <v>1.25</v>
-      </c>
-      <c r="AA21">
-        <v>4</v>
-      </c>
-      <c r="AB21">
-        <v>1.66</v>
-      </c>
-      <c r="AC21">
-        <v>2.08</v>
-      </c>
-      <c r="AD21">
-        <v>2.85</v>
-      </c>
-      <c r="AE21">
-        <v>1.42</v>
-      </c>
-      <c r="AF21">
-        <v>1.62</v>
-      </c>
-      <c r="AG21">
-        <v>2.2</v>
-      </c>
       <c r="AH21">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="AI21">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AJ21" t="s">
         <v>207</v>
@@ -4520,46 +4520,46 @@
         <v>207</v>
       </c>
       <c r="AL21">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AM21">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AN21">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AS21">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="AT21">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="AU21">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AV21">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AW21">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AX21">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AY21">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4568,10 +4568,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>2.1</v>
+        <v>1.44</v>
       </c>
       <c r="BC21">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="BD21" s="3">
         <v>45796.58333333334</v>
@@ -4585,7 +4585,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
@@ -4630,58 +4630,58 @@
         <v>2.88</v>
       </c>
       <c r="R22">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="T22">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="U22">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="V22">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X22">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y22">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z22">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA22">
-        <v>4.05</v>
+        <v>3.7</v>
       </c>
       <c r="AB22">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="AC22">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="AD22">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AE22">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AF22">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AG22">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="AH22">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AI22">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AJ22" t="s">
         <v>207</v>
@@ -4702,34 +4702,34 @@
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AR22">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AS22">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AT22">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="AU22">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AV22">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="AW22">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="AX22">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AY22">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>125</v>
@@ -4782,124 +4782,124 @@
         <v>206</v>
       </c>
       <c r="L23">
-        <v>2.11</v>
+        <v>2.3</v>
       </c>
       <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2.8</v>
+      </c>
+      <c r="O23">
+        <v>1.77</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>2.2</v>
+      </c>
+      <c r="R23">
+        <v>1.38</v>
+      </c>
+      <c r="S23">
+        <v>2.93</v>
+      </c>
+      <c r="T23">
+        <v>2.92</v>
+      </c>
+      <c r="U23">
+        <v>1.38</v>
+      </c>
+      <c r="V23">
+        <v>6.7</v>
+      </c>
+      <c r="W23">
+        <v>1.07</v>
+      </c>
+      <c r="X23">
+        <v>1.06</v>
+      </c>
+      <c r="Y23">
+        <v>9</v>
+      </c>
+      <c r="Z23">
+        <v>1.3</v>
+      </c>
+      <c r="AA23">
         <v>3.4</v>
       </c>
-      <c r="N23">
-        <v>2.85</v>
-      </c>
-      <c r="O23">
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>1.8</v>
+      </c>
+      <c r="AD23">
+        <v>3.4</v>
+      </c>
+      <c r="AE23">
+        <v>1.3</v>
+      </c>
+      <c r="AF23">
         <v>1.67</v>
       </c>
-      <c r="P23">
-        <v>11</v>
-      </c>
-      <c r="Q23">
-        <v>2.25</v>
-      </c>
-      <c r="R23">
+      <c r="AG23">
+        <v>2.1</v>
+      </c>
+      <c r="AH23">
+        <v>6.5</v>
+      </c>
+      <c r="AI23">
+        <v>1.1</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL23">
+        <v>1.43</v>
+      </c>
+      <c r="AM23">
         <v>1.3</v>
       </c>
-      <c r="S23">
-        <v>3.4</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.5</v>
-      </c>
-      <c r="V23">
-        <v>6</v>
-      </c>
-      <c r="W23">
-        <v>1.13</v>
-      </c>
-      <c r="X23">
-        <v>1.04</v>
-      </c>
-      <c r="Y23">
-        <v>11</v>
-      </c>
-      <c r="Z23">
-        <v>1.2</v>
-      </c>
-      <c r="AA23">
-        <v>4.5</v>
-      </c>
-      <c r="AB23">
-        <v>1.6</v>
-      </c>
-      <c r="AC23">
-        <v>2.1</v>
-      </c>
-      <c r="AD23">
-        <v>2.55</v>
-      </c>
-      <c r="AE23">
-        <v>1.53</v>
-      </c>
-      <c r="AF23">
-        <v>1.57</v>
-      </c>
-      <c r="AG23">
-        <v>2.25</v>
-      </c>
-      <c r="AH23">
-        <v>4.5</v>
-      </c>
-      <c r="AI23">
-        <v>1.2</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL23">
-        <v>1.35</v>
-      </c>
-      <c r="AM23">
-        <v>1.22</v>
-      </c>
       <c r="AN23">
-        <v>1.67</v>
+        <v>1.51</v>
       </c>
       <c r="AO23">
         <v>-1</v>
       </c>
       <c r="AP23">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AQ23">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
-        <v>1.49</v>
+        <v>2.21</v>
       </c>
       <c r="AS23">
-        <v>1.76</v>
+        <v>2.95</v>
       </c>
       <c r="AT23">
-        <v>2.15</v>
+        <v>3.78</v>
       </c>
       <c r="AU23">
-        <v>4.6</v>
+        <v>2.85</v>
       </c>
       <c r="AV23">
-        <v>3.3</v>
+        <v>2.03</v>
       </c>
       <c r="AW23">
-        <v>2.43</v>
+        <v>1.63</v>
       </c>
       <c r="AX23">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="AY23">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="AZ23">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="BC23">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BD23" s="3">
         <v>45796.58333333334</v>
@@ -4925,10 +4925,10 @@
         <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>126</v>
@@ -4952,136 +4952,136 @@
         <v>206</v>
       </c>
       <c r="L24">
+        <v>2.75</v>
+      </c>
+      <c r="M24">
+        <v>3.31</v>
+      </c>
+      <c r="N24">
+        <v>2.2</v>
+      </c>
+      <c r="O24">
         <v>2.07</v>
       </c>
-      <c r="M24">
-        <v>3.41</v>
-      </c>
-      <c r="N24">
-        <v>2.9</v>
-      </c>
-      <c r="O24">
+      <c r="P24">
+        <v>12.75</v>
+      </c>
+      <c r="Q24">
         <v>1.8</v>
       </c>
-      <c r="P24">
-        <v>10</v>
-      </c>
-      <c r="Q24">
-        <v>2.3</v>
-      </c>
       <c r="R24">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="S24">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="T24">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="U24">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V24">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="W24">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X24">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="Z24">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AA24">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AB24">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AC24">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AD24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AE24">
+        <v>1.28</v>
+      </c>
+      <c r="AF24">
+        <v>1.67</v>
+      </c>
+      <c r="AG24">
+        <v>2.1</v>
+      </c>
+      <c r="AH24">
+        <v>6.25</v>
+      </c>
+      <c r="AI24">
+        <v>1.06</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL24">
+        <v>1.25</v>
+      </c>
+      <c r="AM24">
+        <v>1.26</v>
+      </c>
+      <c r="AN24">
         <v>1.35</v>
-      </c>
-      <c r="AF24">
-        <v>1.7</v>
-      </c>
-      <c r="AG24">
-        <v>2</v>
-      </c>
-      <c r="AH24">
-        <v>6.5</v>
-      </c>
-      <c r="AI24">
-        <v>1.11</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL24">
-        <v>1.3</v>
-      </c>
-      <c r="AM24">
-        <v>1.25</v>
-      </c>
-      <c r="AN24">
-        <v>1.7</v>
       </c>
       <c r="AO24">
         <v>-1</v>
       </c>
       <c r="AP24">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AQ24">
+        <v>1.31</v>
+      </c>
+      <c r="AR24">
+        <v>1.56</v>
+      </c>
+      <c r="AS24">
+        <v>1.95</v>
+      </c>
+      <c r="AT24">
+        <v>2.49</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>2.92</v>
+      </c>
+      <c r="AW24">
+        <v>2.16</v>
+      </c>
+      <c r="AX24">
+        <v>1.72</v>
+      </c>
+      <c r="AY24">
         <v>1.42</v>
       </c>
-      <c r="AR24">
-        <v>1.67</v>
-      </c>
-      <c r="AS24">
-        <v>2.05</v>
-      </c>
-      <c r="AT24">
-        <v>2.55</v>
-      </c>
-      <c r="AU24">
-        <v>3.55</v>
-      </c>
-      <c r="AV24">
-        <v>2.65</v>
-      </c>
-      <c r="AW24">
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
         <v>2.07</v>
       </c>
-      <c r="AX24">
-        <v>1.68</v>
-      </c>
-      <c r="AY24">
-        <v>1.44</v>
-      </c>
-      <c r="AZ24">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
+      <c r="BC24">
         <v>1.8</v>
-      </c>
-      <c r="BC24">
-        <v>2.3</v>
       </c>
       <c r="BD24" s="3">
         <v>45796.58333333334</v>
@@ -5095,7 +5095,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -5122,73 +5122,73 @@
         <v>206</v>
       </c>
       <c r="L25">
-        <v>2.75</v>
+        <v>2.46</v>
       </c>
       <c r="M25">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="N25">
+        <v>2.41</v>
+      </c>
+      <c r="O25">
+        <v>1.95</v>
+      </c>
+      <c r="P25">
+        <v>12.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.92</v>
+      </c>
+      <c r="R25">
+        <v>1.3</v>
+      </c>
+      <c r="S25">
+        <v>3.1</v>
+      </c>
+      <c r="T25">
+        <v>2.62</v>
+      </c>
+      <c r="U25">
+        <v>1.46</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25">
+        <v>1.11</v>
+      </c>
+      <c r="X25">
+        <v>1.05</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+      <c r="Z25">
+        <v>1.2</v>
+      </c>
+      <c r="AA25">
+        <v>3.7</v>
+      </c>
+      <c r="AB25">
+        <v>1.77</v>
+      </c>
+      <c r="AC25">
+        <v>1.93</v>
+      </c>
+      <c r="AD25">
+        <v>2.74</v>
+      </c>
+      <c r="AE25">
+        <v>1.36</v>
+      </c>
+      <c r="AF25">
+        <v>1.6</v>
+      </c>
+      <c r="AG25">
         <v>2.2</v>
       </c>
-      <c r="O25">
-        <v>2.07</v>
-      </c>
-      <c r="P25">
-        <v>12.75</v>
-      </c>
-      <c r="Q25">
-        <v>1.8</v>
-      </c>
-      <c r="R25">
-        <v>1.36</v>
-      </c>
-      <c r="S25">
-        <v>3.04</v>
-      </c>
-      <c r="T25">
-        <v>2.65</v>
-      </c>
-      <c r="U25">
-        <v>1.42</v>
-      </c>
-      <c r="V25">
+      <c r="AH25">
         <v>5.5</v>
-      </c>
-      <c r="W25">
-        <v>1.1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>9.1</v>
-      </c>
-      <c r="Z25">
-        <v>1.22</v>
-      </c>
-      <c r="AA25">
-        <v>3.5</v>
-      </c>
-      <c r="AB25">
-        <v>1.82</v>
-      </c>
-      <c r="AC25">
-        <v>1.88</v>
-      </c>
-      <c r="AD25">
-        <v>3.2</v>
-      </c>
-      <c r="AE25">
-        <v>1.3</v>
-      </c>
-      <c r="AF25">
-        <v>1.67</v>
-      </c>
-      <c r="AG25">
-        <v>2.05</v>
-      </c>
-      <c r="AH25">
-        <v>6.25</v>
       </c>
       <c r="AI25">
         <v>1.13</v>
@@ -5200,13 +5200,13 @@
         <v>207</v>
       </c>
       <c r="AL25">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AM25">
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
         <v>-1</v>
@@ -5215,43 +5215,43 @@
         <v>0</v>
       </c>
       <c r="AQ25">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR25">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="AS25">
+        <v>1.83</v>
+      </c>
+      <c r="AT25">
+        <v>2.21</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>3.34</v>
+      </c>
+      <c r="AW25">
+        <v>2.43</v>
+      </c>
+      <c r="AX25">
+        <v>1.88</v>
+      </c>
+      <c r="AY25">
+        <v>1.53</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
         <v>1.95</v>
       </c>
-      <c r="AT25">
-        <v>2.49</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>2.92</v>
-      </c>
-      <c r="AW25">
-        <v>2.16</v>
-      </c>
-      <c r="AX25">
-        <v>1.72</v>
-      </c>
-      <c r="AY25">
-        <v>1.42</v>
-      </c>
-      <c r="AZ25">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>2.07</v>
-      </c>
       <c r="BC25">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="BD25" s="3">
         <v>45796.58333333334</v>
@@ -5265,10 +5265,10 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
@@ -5292,52 +5292,52 @@
         <v>206</v>
       </c>
       <c r="L26">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>3.41</v>
       </c>
       <c r="N26">
-        <v>5.1</v>
+        <v>2.73</v>
       </c>
       <c r="O26">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="P26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="R26">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="S26">
         <v>3.4</v>
       </c>
       <c r="T26">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="U26">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X26">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Y26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Z26">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AA26">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AB26">
         <v>1.55</v>
@@ -5346,22 +5346,22 @@
         <v>2.2</v>
       </c>
       <c r="AD26">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AE26">
+        <v>1.6</v>
+      </c>
+      <c r="AF26">
         <v>1.5</v>
       </c>
-      <c r="AF26">
-        <v>1.67</v>
-      </c>
       <c r="AG26">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="AH26">
-        <v>4.5</v>
+        <v>3.98</v>
       </c>
       <c r="AI26">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AJ26" t="s">
         <v>207</v>
@@ -5370,46 +5370,46 @@
         <v>207</v>
       </c>
       <c r="AL26">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AM26">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AN26">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
       </c>
       <c r="AR26">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS26">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AT26">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="AU26">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="AV26">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AW26">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AX26">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AY26">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5418,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="BC26">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="BD26" s="3">
         <v>45796.58333333334</v>
@@ -5605,7 +5605,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
@@ -5802,13 +5802,13 @@
         <v>206</v>
       </c>
       <c r="L29">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="M29">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="N29">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O29">
         <v>2.5</v>
@@ -5820,19 +5820,19 @@
         <v>1.71</v>
       </c>
       <c r="R29">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S29">
         <v>2.8</v>
       </c>
       <c r="T29">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="U29">
         <v>1.35</v>
       </c>
       <c r="V29">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="W29">
         <v>1.07</v>
@@ -5847,31 +5847,31 @@
         <v>1.27</v>
       </c>
       <c r="AA29">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="AB29">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AC29">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AD29">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="AE29">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF29">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AG29">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AH29">
-        <v>6.15</v>
+        <v>5.8</v>
       </c>
       <c r="AI29">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AJ29" t="s">
         <v>207</v>
@@ -5886,40 +5886,40 @@
         <v>1.28</v>
       </c>
       <c r="AN29">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>1.76</v>
       </c>
       <c r="AR29">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AS29">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="AT29">
         <v>3.45</v>
       </c>
       <c r="AU29">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AV29">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AW29">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AX29">
         <v>1.42</v>
       </c>
       <c r="AY29">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5972,76 +5972,76 @@
         <v>206</v>
       </c>
       <c r="L30">
-        <v>2.67</v>
+        <v>3.13</v>
       </c>
       <c r="M30">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="N30">
-        <v>2.41</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
       <c r="P30">
-        <v>8.699999999999999</v>
+        <v>26</v>
       </c>
       <c r="Q30">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="R30">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="S30">
-        <v>2.62</v>
+        <v>4.25</v>
       </c>
       <c r="T30">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="U30">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="V30">
-        <v>8.4</v>
+        <v>3.9</v>
       </c>
       <c r="W30">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="X30">
         <v>1.01</v>
       </c>
       <c r="Y30">
-        <v>8.699999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="Z30">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="AA30">
-        <v>2.88</v>
+        <v>6.2</v>
       </c>
       <c r="AB30">
-        <v>2.05</v>
+        <v>1.38</v>
       </c>
       <c r="AC30">
-        <v>1.61</v>
+        <v>2.81</v>
       </c>
       <c r="AD30">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
       <c r="AE30">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
       <c r="AF30">
-        <v>1.84</v>
+        <v>1.42</v>
       </c>
       <c r="AG30">
-        <v>1.86</v>
+        <v>2.63</v>
       </c>
       <c r="AH30">
-        <v>7.9</v>
+        <v>3.15</v>
       </c>
       <c r="AI30">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="AJ30" t="s">
         <v>207</v>
@@ -6050,46 +6050,46 @@
         <v>207</v>
       </c>
       <c r="AL30">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AM30">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AN30">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AQ30">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="AR30">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AS30">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="AT30">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="AU30">
-        <v>3.08</v>
+        <v>2.78</v>
       </c>
       <c r="AV30">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AW30">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AX30">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AY30">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6098,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>2.07</v>
+        <v>2.66</v>
       </c>
       <c r="BC30">
-        <v>1.98</v>
+        <v>1.45</v>
       </c>
       <c r="BD30" s="3">
         <v>45796.60416666666</v>
@@ -6142,76 +6142,76 @@
         <v>206</v>
       </c>
       <c r="L31">
-        <v>3.13</v>
+        <v>2.71</v>
       </c>
       <c r="M31">
-        <v>3.87</v>
+        <v>3.39</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>2.46</v>
       </c>
       <c r="O31">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="AC31">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD31">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="s">
         <v>207</v>
@@ -6220,46 +6220,46 @@
         <v>207</v>
       </c>
       <c r="AL31">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AO31">
         <v>-1</v>
       </c>
       <c r="AP31">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="AU31">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AV31">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AX31">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AY31">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AZ31">
         <v>0</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="BC31">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="3">
         <v>45796.60416666666</v>
@@ -6285,7 +6285,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
@@ -6312,76 +6312,76 @@
         <v>206</v>
       </c>
       <c r="L32">
-        <v>3.58</v>
+        <v>2.67</v>
       </c>
       <c r="M32">
-        <v>3.68</v>
+        <v>3.03</v>
       </c>
       <c r="N32">
-        <v>1.76</v>
+        <v>2.41</v>
       </c>
       <c r="O32">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="P32">
-        <v>20.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q32">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="R32">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="S32">
-        <v>3.66</v>
+        <v>2.62</v>
       </c>
       <c r="T32">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="U32">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="V32">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="W32">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="X32">
         <v>1.01</v>
       </c>
       <c r="Y32">
-        <v>15.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z32">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AA32">
-        <v>5.23</v>
+        <v>2.88</v>
       </c>
       <c r="AB32">
-        <v>1.45</v>
+        <v>2.05</v>
       </c>
       <c r="AC32">
-        <v>2.55</v>
+        <v>1.61</v>
       </c>
       <c r="AD32">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="AE32">
-        <v>1.65</v>
+        <v>1.19</v>
       </c>
       <c r="AF32">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="AG32">
-        <v>2.46</v>
+        <v>1.86</v>
       </c>
       <c r="AH32">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="AI32">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="AJ32" t="s">
         <v>207</v>
@@ -6390,46 +6390,46 @@
         <v>207</v>
       </c>
       <c r="AL32">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AM32">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AN32">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AO32">
         <v>-1</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AR32">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AS32">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="AT32">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AU32">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="AV32">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AW32">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AX32">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AY32">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -6438,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>2.72</v>
+        <v>2.07</v>
       </c>
       <c r="BC32">
-        <v>1.46</v>
+        <v>1.98</v>
       </c>
       <c r="BD32" s="3">
         <v>45796.60416666666</v>
@@ -6455,7 +6455,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
         <v>102</v>
@@ -6482,76 +6482,76 @@
         <v>206</v>
       </c>
       <c r="L33">
-        <v>2.71</v>
+        <v>3.58</v>
       </c>
       <c r="M33">
-        <v>3.39</v>
+        <v>3.68</v>
       </c>
       <c r="N33">
-        <v>2.46</v>
+        <v>1.76</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AB33">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="AC33">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AJ33" t="s">
         <v>207</v>
@@ -6560,46 +6560,46 @@
         <v>207</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AO33">
         <v>-1</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AX33">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY33">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BD33" s="3">
         <v>45796.60416666666</v>
@@ -6652,22 +6652,22 @@
         <v>206</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -6700,10 +6700,10 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -6778,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC34">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD34" s="3">
         <v>45796.625</v>
@@ -7165,49 +7165,49 @@
         <v>1.85</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="N37">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="O37">
         <v>1.57</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
       </c>
       <c r="R37">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S37">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="T37">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="U37">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V37">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="W37">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X37">
         <v>1.08</v>
       </c>
       <c r="Y37">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z37">
         <v>1.4</v>
       </c>
       <c r="AA37">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AB37">
         <v>2.25</v>
@@ -7219,13 +7219,13 @@
         <v>4.5</v>
       </c>
       <c r="AE37">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF37">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AG37">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AH37">
         <v>8.699999999999999</v>
@@ -7240,25 +7240,25 @@
         <v>207</v>
       </c>
       <c r="AL37">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN37">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AO37">
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AR37">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="AS37">
         <v>2.9</v>
@@ -7267,16 +7267,16 @@
         <v>3.8</v>
       </c>
       <c r="AU37">
-        <v>2.48</v>
+        <v>2.97</v>
       </c>
       <c r="AV37">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="AW37">
         <v>1.56</v>
       </c>
       <c r="AX37">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AY37">
         <v>1.2</v>
@@ -7305,7 +7305,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -7332,76 +7332,76 @@
         <v>206</v>
       </c>
       <c r="L38">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="M38">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="N38">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="O38">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P38">
-        <v>14.75</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="R38">
+        <v>1.42</v>
+      </c>
+      <c r="S38">
+        <v>2.6</v>
+      </c>
+      <c r="T38">
+        <v>3.04</v>
+      </c>
+      <c r="U38">
         <v>1.33</v>
       </c>
-      <c r="S38">
-        <v>3.25</v>
-      </c>
-      <c r="T38">
-        <v>2.63</v>
-      </c>
-      <c r="U38">
-        <v>1.44</v>
-      </c>
       <c r="V38">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="W38">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="X38">
         <v>1.02</v>
       </c>
       <c r="Y38">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="Z38">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="AA38">
-        <v>3.96</v>
+        <v>2.88</v>
       </c>
       <c r="AB38">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AC38">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="AD38">
-        <v>2.79</v>
+        <v>3.72</v>
       </c>
       <c r="AE38">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AF38">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AG38">
-        <v>2.2</v>
+        <v>1.78</v>
       </c>
       <c r="AH38">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="AI38">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AJ38" t="s">
         <v>207</v>
@@ -7410,46 +7410,46 @@
         <v>207</v>
       </c>
       <c r="AL38">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AM38">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AN38">
-        <v>1.75</v>
+        <v>1.97</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AR38">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AS38">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AT38">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AU38">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="AV38">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="AW38">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="AX38">
-        <v>1.71</v>
+        <v>1.48</v>
       </c>
       <c r="AY38">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AZ38">
         <v>0</v>
@@ -7458,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="BC38">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="BD38" s="3">
         <v>45796.66666666666</v>
@@ -7475,7 +7475,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
         <v>102</v>
@@ -7550,10 +7550,10 @@
         <v>5.25</v>
       </c>
       <c r="AB39">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AC39">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="AD39">
         <v>2.25</v>
@@ -7645,7 +7645,7 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>103</v>
@@ -7672,136 +7672,136 @@
         <v>206</v>
       </c>
       <c r="L40">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O40">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>14.75</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R40">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="S40">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="U40">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="V40">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="W40">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="X40">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="Y40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Z40">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AA40">
-        <v>3</v>
+        <v>3.96</v>
       </c>
       <c r="AB40">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AC40">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="AD40">
-        <v>3.9</v>
+        <v>2.79</v>
       </c>
       <c r="AE40">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AF40">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="AG40">
+        <v>2.2</v>
+      </c>
+      <c r="AH40">
+        <v>5.4</v>
+      </c>
+      <c r="AI40">
+        <v>1.09</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.3</v>
+      </c>
+      <c r="AN40">
         <v>1.75</v>
-      </c>
-      <c r="AH40">
-        <v>8.5</v>
-      </c>
-      <c r="AI40">
-        <v>1.08</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL40">
-        <v>1.28</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>2</v>
       </c>
       <c r="AO40">
         <v>-1</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AQ40">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AR40">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="AS40">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AT40">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AU40">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="AV40">
+        <v>2.8</v>
+      </c>
+      <c r="AW40">
+        <v>2.12</v>
+      </c>
+      <c r="AX40">
+        <v>1.71</v>
+      </c>
+      <c r="AY40">
+        <v>1.45</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>1.62</v>
+      </c>
+      <c r="BC40">
         <v>2.38</v>
-      </c>
-      <c r="AW40">
-        <v>1.84</v>
-      </c>
-      <c r="AX40">
-        <v>1.48</v>
-      </c>
-      <c r="AY40">
-        <v>1.26</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>1.5</v>
-      </c>
-      <c r="BC40">
-        <v>3</v>
       </c>
       <c r="BD40" s="3">
         <v>45796.66666666666</v>
@@ -7842,13 +7842,13 @@
         <v>206</v>
       </c>
       <c r="L41">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="M41">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="N41">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="O41">
         <v>1.98</v>
@@ -7863,7 +7863,7 @@
         <v>1.22</v>
       </c>
       <c r="S41">
-        <v>3.94</v>
+        <v>3.8</v>
       </c>
       <c r="T41">
         <v>2.02</v>
@@ -7875,25 +7875,25 @@
         <v>4.1</v>
       </c>
       <c r="W41">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z41">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AA41">
-        <v>5.83</v>
+        <v>6</v>
       </c>
       <c r="AB41">
         <v>1.4</v>
       </c>
       <c r="AC41">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AD41">
         <v>1.95</v>
@@ -7902,16 +7902,16 @@
         <v>1.7</v>
       </c>
       <c r="AF41">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AG41">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AH41">
         <v>3.1</v>
       </c>
       <c r="AI41">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AJ41" t="s">
         <v>207</v>
@@ -7920,13 +7920,13 @@
         <v>207</v>
       </c>
       <c r="AL41">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AM41">
         <v>1.24</v>
       </c>
       <c r="AN41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AO41">
         <v>-1</v>
@@ -7938,13 +7938,13 @@
         <v>1.12</v>
       </c>
       <c r="AR41">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS41">
         <v>1.46</v>
       </c>
       <c r="AT41">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8012,13 +8012,13 @@
         <v>206</v>
       </c>
       <c r="L42">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="N42">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="O42">
         <v>1.64</v>
@@ -8030,58 +8030,58 @@
         <v>2.19</v>
       </c>
       <c r="R42">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S42">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="T42">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U42">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V42">
         <v>4</v>
       </c>
       <c r="W42">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z42">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AA42">
-        <v>6.2</v>
+        <v>5.85</v>
       </c>
       <c r="AB42">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AC42">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="AD42">
         <v>1.91</v>
       </c>
       <c r="AE42">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="AF42">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AG42">
         <v>2.85</v>
       </c>
       <c r="AH42">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="AI42">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AJ42" t="s">
         <v>207</v>
@@ -8090,13 +8090,13 @@
         <v>207</v>
       </c>
       <c r="AL42">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM42">
         <v>1.22</v>
       </c>
       <c r="AN42">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AO42">
         <v>-1</v>
@@ -8114,7 +8114,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -8126,10 +8126,10 @@
         <v>3.28</v>
       </c>
       <c r="AX42">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="AY42">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8182,13 +8182,13 @@
         <v>206</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>3.32</v>
       </c>
       <c r="M43">
-        <v>3.9</v>
+        <v>3.77</v>
       </c>
       <c r="N43">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>1.22</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="T43">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U43">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V43">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="W43">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y43">
         <v>19</v>
@@ -8230,10 +8230,10 @@
         <v>5.75</v>
       </c>
       <c r="AB43">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AC43">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="AD43">
         <v>2.05</v>
@@ -8248,7 +8248,7 @@
         <v>2.63</v>
       </c>
       <c r="AH43">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="AI43">
         <v>1.29</v>
@@ -8278,7 +8278,7 @@
         <v>1.13</v>
       </c>
       <c r="AR43">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AS43">
         <v>1.49</v>
@@ -8293,7 +8293,7 @@
         <v>4.6</v>
       </c>
       <c r="AW43">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="AX43">
         <v>2.38</v>
@@ -8325,7 +8325,7 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
         <v>103</v>
@@ -8352,77 +8352,77 @@
         <v>206</v>
       </c>
       <c r="L44">
-        <v>1.48</v>
+        <v>1.9</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="P44">
+        <v>6.25</v>
+      </c>
+      <c r="Q44">
+        <v>3.4</v>
+      </c>
+      <c r="R44">
+        <v>1.57</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44">
+        <v>3.75</v>
+      </c>
+      <c r="U44">
+        <v>1.25</v>
+      </c>
+      <c r="V44">
         <v>13</v>
       </c>
-      <c r="Q44">
-        <v>3.6</v>
-      </c>
-      <c r="R44">
-        <v>1.33</v>
-      </c>
-      <c r="S44">
-        <v>3.25</v>
-      </c>
-      <c r="T44">
-        <v>2.63</v>
-      </c>
-      <c r="U44">
-        <v>1.44</v>
-      </c>
-      <c r="V44">
-        <v>6.5</v>
-      </c>
       <c r="W44">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="X44">
+        <v>1.08</v>
+      </c>
+      <c r="Y44">
+        <v>6.1</v>
+      </c>
+      <c r="Z44">
+        <v>1.59</v>
+      </c>
+      <c r="AA44">
+        <v>2.35</v>
+      </c>
+      <c r="AB44">
+        <v>2.88</v>
+      </c>
+      <c r="AC44">
+        <v>1.4</v>
+      </c>
+      <c r="AD44">
+        <v>5.4</v>
+      </c>
+      <c r="AE44">
+        <v>1.09</v>
+      </c>
+      <c r="AF44">
+        <v>2.38</v>
+      </c>
+      <c r="AG44">
+        <v>1.53</v>
+      </c>
+      <c r="AH44">
+        <v>12</v>
+      </c>
+      <c r="AI44">
         <v>1.01</v>
       </c>
-      <c r="Y44">
-        <v>11</v>
-      </c>
-      <c r="Z44">
-        <v>1.2</v>
-      </c>
-      <c r="AA44">
-        <v>3.7</v>
-      </c>
-      <c r="AB44">
-        <v>1.8</v>
-      </c>
-      <c r="AC44">
-        <v>2</v>
-      </c>
-      <c r="AD44">
-        <v>2.75</v>
-      </c>
-      <c r="AE44">
-        <v>1.35</v>
-      </c>
-      <c r="AF44">
-        <v>1.91</v>
-      </c>
-      <c r="AG44">
-        <v>1.8</v>
-      </c>
-      <c r="AH44">
-        <v>5.1</v>
-      </c>
-      <c r="AI44">
-        <v>1.1</v>
-      </c>
       <c r="AJ44" t="s">
         <v>207</v>
       </c>
@@ -8430,34 +8430,34 @@
         <v>207</v>
       </c>
       <c r="AL44">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AM44">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AN44">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="AO44">
         <v>-1</v>
       </c>
       <c r="AP44">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AQ44">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR44">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AS44">
-        <v>2.55</v>
+        <v>2.73</v>
       </c>
       <c r="AT44">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="AU44">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AV44">
         <v>2.07</v>
@@ -8466,10 +8466,10 @@
         <v>1.66</v>
       </c>
       <c r="AX44">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AY44">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -8478,10 +8478,10 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="BC44">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BD44" s="3">
         <v>45796.79166666666</v>
@@ -8495,7 +8495,7 @@
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
@@ -8522,76 +8522,76 @@
         <v>206</v>
       </c>
       <c r="L45">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="M45">
-        <v>3.38</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>3.35</v>
+        <v>6.5</v>
       </c>
       <c r="O45">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q45">
+        <v>3.6</v>
+      </c>
+      <c r="R45">
+        <v>1.33</v>
+      </c>
+      <c r="S45">
+        <v>3.25</v>
+      </c>
+      <c r="T45">
         <v>2.63</v>
       </c>
-      <c r="R45">
-        <v>1.45</v>
-      </c>
-      <c r="S45">
-        <v>2.55</v>
-      </c>
-      <c r="T45">
-        <v>3.15</v>
-      </c>
       <c r="U45">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="V45">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="W45">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="X45">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Y45">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z45">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AA45">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB45">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="AC45">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AD45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AE45">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AF45">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AG45">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AH45">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="AI45">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AJ45" t="s">
         <v>207</v>
@@ -8600,46 +8600,46 @@
         <v>207</v>
       </c>
       <c r="AL45">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AM45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AN45">
-        <v>1.85</v>
+        <v>2.62</v>
       </c>
       <c r="AO45">
         <v>-1</v>
       </c>
       <c r="AP45">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AQ45">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="AS45">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AT45">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="AU45">
-        <v>3.32</v>
+        <v>2.7</v>
       </c>
       <c r="AV45">
-        <v>2.33</v>
+        <v>2.07</v>
       </c>
       <c r="AW45">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="AX45">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AY45">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -8648,10 +8648,10 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="BC45">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="BD45" s="3">
         <v>45796.79166666666</v>
@@ -8692,124 +8692,124 @@
         <v>206</v>
       </c>
       <c r="L46">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="N46">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O46">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P46">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="Q46">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R46">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="S46">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="T46">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="U46">
+        <v>1.28</v>
+      </c>
+      <c r="V46">
+        <v>9.5</v>
+      </c>
+      <c r="W46">
+        <v>1.01</v>
+      </c>
+      <c r="X46">
+        <v>1.06</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="Z46">
+        <v>1.61</v>
+      </c>
+      <c r="AA46">
+        <v>2.1</v>
+      </c>
+      <c r="AB46">
+        <v>2.34</v>
+      </c>
+      <c r="AC46">
+        <v>1.53</v>
+      </c>
+      <c r="AD46">
+        <v>4.55</v>
+      </c>
+      <c r="AE46">
+        <v>1.16</v>
+      </c>
+      <c r="AF46">
+        <v>2.08</v>
+      </c>
+      <c r="AG46">
+        <v>1.67</v>
+      </c>
+      <c r="AH46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AI46">
+        <v>1.09</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL46">
+        <v>1.33</v>
+      </c>
+      <c r="AM46">
         <v>1.25</v>
       </c>
-      <c r="V46">
-        <v>13</v>
-      </c>
-      <c r="W46">
-        <v>1.04</v>
-      </c>
-      <c r="X46">
-        <v>1.08</v>
-      </c>
-      <c r="Y46">
-        <v>6.1</v>
-      </c>
-      <c r="Z46">
-        <v>1.59</v>
-      </c>
-      <c r="AA46">
-        <v>2.35</v>
-      </c>
-      <c r="AB46">
-        <v>2.88</v>
-      </c>
-      <c r="AC46">
-        <v>1.4</v>
-      </c>
-      <c r="AD46">
-        <v>5.4</v>
-      </c>
-      <c r="AE46">
-        <v>1.09</v>
-      </c>
-      <c r="AF46">
-        <v>2.38</v>
-      </c>
-      <c r="AG46">
-        <v>1.53</v>
-      </c>
-      <c r="AH46">
-        <v>12</v>
-      </c>
-      <c r="AI46">
-        <v>1.01</v>
-      </c>
-      <c r="AJ46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK46" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL46">
-        <v>1.21</v>
-      </c>
-      <c r="AM46">
-        <v>1.36</v>
-      </c>
       <c r="AN46">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AR46">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="AS46">
-        <v>2.73</v>
+        <v>2.33</v>
       </c>
       <c r="AT46">
-        <v>3.68</v>
+        <v>2.9</v>
       </c>
       <c r="AU46">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="AV46">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="AW46">
-        <v>1.66</v>
+        <v>1.81</v>
       </c>
       <c r="AX46">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AY46">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8818,10 +8818,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BC46">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="BD46" s="3">
         <v>45796.79166666666</v>
@@ -8880,16 +8880,16 @@
         <v>2.16</v>
       </c>
       <c r="R47">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S47">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="T47">
         <v>2.89</v>
       </c>
       <c r="U47">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V47">
         <v>7.3</v>
@@ -8898,7 +8898,7 @@
         <v>1.06</v>
       </c>
       <c r="X47">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y47">
         <v>8.1</v>
@@ -8916,16 +8916,16 @@
         <v>1.7</v>
       </c>
       <c r="AD47">
-        <v>3.8</v>
+        <v>3.42</v>
       </c>
       <c r="AE47">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AF47">
         <v>1.77</v>
       </c>
       <c r="AG47">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AH47">
         <v>6.5</v>
@@ -8958,7 +8958,7 @@
         <v>1.38</v>
       </c>
       <c r="AR47">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AS47">
         <v>1.95</v>
@@ -8976,7 +8976,7 @@
         <v>2.15</v>
       </c>
       <c r="AX47">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AY47">
         <v>1.49</v>
@@ -9050,34 +9050,34 @@
         <v>2.85</v>
       </c>
       <c r="R48">
+        <v>1.43</v>
+      </c>
+      <c r="S48">
+        <v>2.55</v>
+      </c>
+      <c r="T48">
+        <v>3.18</v>
+      </c>
+      <c r="U48">
+        <v>1.3</v>
+      </c>
+      <c r="V48">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W48">
+        <v>1.04</v>
+      </c>
+      <c r="X48">
+        <v>1.01</v>
+      </c>
+      <c r="Y48">
+        <v>10</v>
+      </c>
+      <c r="Z48">
         <v>1.38</v>
       </c>
-      <c r="S48">
-        <v>2.72</v>
-      </c>
-      <c r="T48">
-        <v>3.04</v>
-      </c>
-      <c r="U48">
-        <v>1.31</v>
-      </c>
-      <c r="V48">
-        <v>7.6</v>
-      </c>
-      <c r="W48">
-        <v>1.05</v>
-      </c>
-      <c r="X48">
-        <v>1.02</v>
-      </c>
-      <c r="Y48">
-        <v>8.4</v>
-      </c>
-      <c r="Z48">
-        <v>1.29</v>
-      </c>
       <c r="AA48">
-        <v>3.15</v>
+        <v>2.83</v>
       </c>
       <c r="AB48">
         <v>2.05</v>
@@ -9086,22 +9086,22 @@
         <v>1.68</v>
       </c>
       <c r="AD48">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AE48">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AF48">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AG48">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AH48">
         <v>8.5</v>
       </c>
       <c r="AI48">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AJ48" t="s">
         <v>207</v>
@@ -9110,46 +9110,46 @@
         <v>207</v>
       </c>
       <c r="AL48">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM48">
         <v>1.21</v>
       </c>
       <c r="AN48">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="AO48">
         <v>-1</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AU48">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -9214,34 +9214,34 @@
         <v>1.95</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="Q49">
         <v>2.3</v>
       </c>
       <c r="R49">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="S49">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="T49">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="U49">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="V49">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Y49">
-        <v>5.52</v>
+        <v>5.3</v>
       </c>
       <c r="Z49">
         <v>1.5</v>
@@ -9250,28 +9250,28 @@
         <v>2.3</v>
       </c>
       <c r="AB49">
-        <v>2.55</v>
+        <v>2.81</v>
       </c>
       <c r="AC49">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AD49">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AE49">
         <v>1.11</v>
       </c>
       <c r="AF49">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AG49">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AH49">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AJ49" t="s">
         <v>207</v>
@@ -9280,13 +9280,13 @@
         <v>207</v>
       </c>
       <c r="AL49">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AM49">
         <v>1.4</v>
       </c>
       <c r="AN49">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AO49">
         <v>-1</v>
@@ -9298,7 +9298,7 @@
         <v>1.71</v>
       </c>
       <c r="AR49">
-        <v>2.4</v>
+        <v>2.21</v>
       </c>
       <c r="AS49">
         <v>2.92</v>
@@ -9307,13 +9307,13 @@
         <v>4.3</v>
       </c>
       <c r="AU49">
-        <v>2.33</v>
+        <v>2.62</v>
       </c>
       <c r="AV49">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AW49">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AX49">
         <v>1.31</v>
@@ -9345,7 +9345,7 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>103</v>
@@ -9515,7 +9515,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
         <v>103</v>
@@ -9685,7 +9685,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
@@ -9712,13 +9712,13 @@
         <v>206</v>
       </c>
       <c r="L52">
-        <v>1.95</v>
+        <v>2.32</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N52">
-        <v>3.7</v>
+        <v>3.13</v>
       </c>
       <c r="O52">
         <v>1.62</v>
@@ -9739,31 +9739,31 @@
         <v>3.4</v>
       </c>
       <c r="U52">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V52">
         <v>7.8</v>
       </c>
       <c r="W52">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="X52">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Y52">
         <v>6.05</v>
       </c>
       <c r="Z52">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AB52">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="AC52">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AD52">
         <v>4.7</v>
@@ -9772,16 +9772,16 @@
         <v>1.13</v>
       </c>
       <c r="AF52">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="AG52">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AH52">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AI52">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AJ52" t="s">
         <v>207</v>
@@ -9802,34 +9802,34 @@
         <v>-1</v>
       </c>
       <c r="AP52">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AQ52">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS52">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="AT52">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AU52">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="AV52">
-        <v>3.28</v>
+        <v>3.15</v>
       </c>
       <c r="AW52">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AX52">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AY52">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AZ52">
         <v>0</v>

--- a/jogos_2025-05-19.xlsx
+++ b/jogos_2025-05-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="210">
   <si>
     <t>Date</t>
   </si>
@@ -253,31 +253,34 @@
     <t>Uzbekistan Uzbekistan Super League</t>
   </si>
   <si>
+    <t>Estonia Meistriliiga</t>
+  </si>
+  <si>
+    <t>Israel Liga Leumit</t>
+  </si>
+  <si>
     <t>Algeria Ligue 1</t>
   </si>
   <si>
-    <t>Israel Liga Leumit</t>
-  </si>
-  <si>
-    <t>Estonia Meistriliiga</t>
-  </si>
-  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
+    <t>Turkey 1. Lig</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Poland 1. Liga</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Turkey 1. Lig</t>
-  </si>
-  <si>
-    <t>Poland 1. Liga</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
+    <t>Romania Liga I</t>
   </si>
   <si>
     <t>Israel Israeli Premier League</t>
@@ -286,42 +289,39 @@
     <t>Russia Russian Premier League</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Hungary NB II</t>
   </si>
   <si>
+    <t>Spain Segunda División</t>
+  </si>
+  <si>
     <t>Italy Serie B</t>
   </si>
   <si>
-    <t>Spain Segunda División</t>
-  </si>
-  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Chile Primera División</t>
+  </si>
+  <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
     <t>England Premier League</t>
   </si>
   <si>
-    <t>Chile Primera División</t>
-  </si>
-  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
     <t>2024/2025</t>
   </si>
   <si>
@@ -343,126 +343,129 @@
     <t>KAMAZ</t>
   </si>
   <si>
+    <t>Inđija</t>
+  </si>
+  <si>
+    <t>Neftekhimik</t>
+  </si>
+  <si>
+    <t>Dubočica</t>
+  </si>
+  <si>
+    <t>AGMK</t>
+  </si>
+  <si>
     <t>Semendrija 1924</t>
   </si>
   <si>
-    <t>Inđija</t>
-  </si>
-  <si>
-    <t>Neftekhimik</t>
-  </si>
-  <si>
-    <t>AGMK</t>
-  </si>
-  <si>
-    <t>Dubočica</t>
+    <t>Tallinna Kalev</t>
+  </si>
+  <si>
+    <t>Hapoel Kfar Saba</t>
+  </si>
+  <si>
+    <t>MC Alger</t>
+  </si>
+  <si>
+    <t>Maccabi Herzliya</t>
   </si>
   <si>
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>Maccabi Herzliya</t>
-  </si>
-  <si>
     <t>Hapoel Ramat Gan</t>
   </si>
   <si>
-    <t>Hapoel Kfar Saba</t>
-  </si>
-  <si>
-    <t>Tallinna Kalev</t>
-  </si>
-  <si>
-    <t>MC Alger</t>
-  </si>
-  <si>
     <t>Degerfors</t>
   </si>
   <si>
+    <t>Mjällby</t>
+  </si>
+  <si>
+    <t>Boluspor</t>
+  </si>
+  <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Miedź Legnica</t>
+  </si>
+  <si>
+    <t>Al Wahda</t>
+  </si>
+  <si>
+    <t>Brøndby</t>
+  </si>
+  <si>
+    <t>Chrobry Głogów</t>
+  </si>
+  <si>
     <t>Sirius</t>
   </si>
   <si>
     <t>Landskrona</t>
   </si>
   <si>
-    <t>Mjällby</t>
-  </si>
-  <si>
-    <t>Widzew Łódź</t>
-  </si>
-  <si>
-    <t>Boluspor</t>
-  </si>
-  <si>
-    <t>Chrobry Głogów</t>
-  </si>
-  <si>
-    <t>Miedź Legnica</t>
-  </si>
-  <si>
-    <t>Brøndby</t>
-  </si>
-  <si>
-    <t>Al Wahda</t>
-  </si>
-  <si>
     <t>Elfsborg</t>
   </si>
   <si>
     <t>Slavia Sofia</t>
   </si>
   <si>
+    <t>Rapid Bucureşti</t>
+  </si>
+  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
+    <t>Beitar Jerusalem</t>
+  </si>
+  <si>
     <t>Lokomotiv Moskva</t>
   </si>
   <si>
-    <t>Rapid Bucureşti</t>
-  </si>
-  <si>
-    <t>Beitar Jerusalem</t>
-  </si>
-  <si>
     <t>Kazincbarcika</t>
   </si>
   <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
     <t>Salernitana</t>
   </si>
   <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Unión Española</t>
+  </si>
+  <si>
+    <t>Patronato</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Unión Española</t>
+    <t>Stjarnan</t>
+  </si>
+  <si>
+    <t>Breidablik</t>
   </si>
   <si>
     <t>ÍA</t>
   </si>
   <si>
-    <t>Breidablik</t>
-  </si>
-  <si>
-    <t>Stjarnan</t>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
-    <t>Colo-Colo</t>
-  </si>
-  <si>
-    <t>Volta Redonda</t>
-  </si>
-  <si>
     <t>Confiança</t>
   </si>
   <si>
@@ -472,12 +475,12 @@
     <t>Agropecuario</t>
   </si>
   <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
     <t>La Serena</t>
   </si>
   <si>
-    <t>Boca Juniors</t>
-  </si>
-  <si>
     <t>Coritiba</t>
   </si>
   <si>
@@ -496,126 +499,129 @@
     <t>Spartak Vladikavkaz</t>
   </si>
   <si>
+    <t>Zemun</t>
+  </si>
+  <si>
+    <t>FK Chernomorets Novorossiysk</t>
+  </si>
+  <si>
+    <t>Sloven Ruma</t>
+  </si>
+  <si>
+    <t>Neftchi</t>
+  </si>
+  <si>
     <t>Trajal Krusevac</t>
   </si>
   <si>
-    <t>Zemun</t>
-  </si>
-  <si>
-    <t>FK Chernomorets Novorossiysk</t>
-  </si>
-  <si>
-    <t>Neftchi</t>
-  </si>
-  <si>
-    <t>Sloven Ruma</t>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>Hapoel Tel Aviv</t>
+  </si>
+  <si>
+    <t>ES Sétif</t>
+  </si>
+  <si>
+    <t>Hapoel Petah Tikva</t>
   </si>
   <si>
     <t>CR Belouizdad</t>
   </si>
   <si>
-    <t>Hapoel Petah Tikva</t>
-  </si>
-  <si>
     <t>Bnei Yehuda</t>
   </si>
   <si>
-    <t>Hapoel Tel Aviv</t>
-  </si>
-  <si>
-    <t>Trans</t>
-  </si>
-  <si>
-    <t>ES Sétif</t>
-  </si>
-  <si>
     <t>IFK Göteborg</t>
   </si>
   <si>
+    <t>Brommapojkarna</t>
+  </si>
+  <si>
+    <t>Bandırmaspor</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Nieciecza</t>
+  </si>
+  <si>
+    <t>Al Jazira</t>
+  </si>
+  <si>
+    <t>Midtjylland</t>
+  </si>
+  <si>
+    <t>Ruch Chorzów</t>
+  </si>
+  <si>
     <t>Norrköping</t>
   </si>
   <si>
     <t>Helsingborg</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
-  </si>
-  <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
-    <t>Bandırmaspor</t>
-  </si>
-  <si>
-    <t>Ruch Chorzów</t>
-  </si>
-  <si>
-    <t>Nieciecza</t>
-  </si>
-  <si>
-    <t>Midtjylland</t>
-  </si>
-  <si>
-    <t>Al Jazira</t>
-  </si>
-  <si>
     <t>Djurgården</t>
   </si>
   <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
     <t>Maccabi Tel Aviv</t>
   </si>
   <si>
+    <t>Hapoel Be'er Sheva</t>
+  </si>
+  <si>
     <t>CSKA Moskva</t>
   </si>
   <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>Hapoel Be'er Sheva</t>
-  </si>
-  <si>
     <t>Mezőkövesd-Zsóry</t>
   </si>
   <si>
+    <t>Mirandés</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Mirandés</t>
-  </si>
-  <si>
     <t>Drogheda United</t>
   </si>
   <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Everton</t>
+    <t>Víkingur Reykjavík</t>
+  </si>
+  <si>
+    <t>Valur</t>
   </si>
   <si>
     <t>FH</t>
   </si>
   <si>
-    <t>Valur</t>
-  </si>
-  <si>
-    <t>Víkingur Reykjavík</t>
+    <t>Ñublense</t>
+  </si>
+  <si>
+    <t>Amazonas</t>
   </si>
   <si>
     <t>San Lorenzo</t>
   </si>
   <si>
-    <t>Ñublense</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
     <t>Londrina</t>
   </si>
   <si>
@@ -625,10 +631,10 @@
     <t>Gimnasia Jujuy</t>
   </si>
   <si>
+    <t>Independiente</t>
+  </si>
+  <si>
     <t>Deportes Iquique</t>
-  </si>
-  <si>
-    <t>Independiente</t>
   </si>
   <si>
     <t>América Mineiro</t>
@@ -1001,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD52"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1194,7 +1200,7 @@
         <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1209,127 +1215,127 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AJ2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AO2">
         <v>-1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1338,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BD2" s="3">
         <v>45796.46527777778</v>
@@ -1364,7 +1370,7 @@
         <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1379,127 +1385,127 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AJ3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO3">
         <v>-1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1508,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BD3" s="3">
         <v>45796.46527777778</v>
@@ -1534,7 +1540,7 @@
         <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1549,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L4">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="N4">
-        <v>7.25</v>
+        <v>7.9</v>
       </c>
       <c r="O4">
         <v>1.43</v>
@@ -1570,64 +1576,64 @@
         <v>3.42</v>
       </c>
       <c r="R4">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S4">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="U4">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V4">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X4">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4">
         <v>1.29</v>
       </c>
       <c r="AA4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC4">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AD4">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="AE4">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF4">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AG4">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AH4">
-        <v>6.75</v>
+        <v>6.1</v>
       </c>
       <c r="AI4">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="AJ4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL4">
         <v>1.18</v>
@@ -1636,40 +1642,40 @@
         <v>1.22</v>
       </c>
       <c r="AN4">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO4">
         <v>-1</v>
       </c>
       <c r="AP4">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AR4">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="AS4">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="AT4">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="AU4">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AV4">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AW4">
         <v>1.77</v>
       </c>
       <c r="AX4">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AY4">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -1704,7 +1710,7 @@
         <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1719,94 +1725,94 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AO5">
         <v>-1</v>
@@ -1848,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="BD5" s="3">
         <v>45796.5</v>
@@ -1874,7 +1880,7 @@
         <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1889,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L6">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="M6">
-        <v>3.98</v>
+        <v>3.88</v>
       </c>
       <c r="N6">
-        <v>6.77</v>
+        <v>5.29</v>
       </c>
       <c r="O6">
         <v>1.43</v>
@@ -1910,73 +1916,73 @@
         <v>3.35</v>
       </c>
       <c r="R6">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="S6">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="T6">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="U6">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="V6">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="W6">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X6">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Y6">
-        <v>7.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z6">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA6">
-        <v>2.98</v>
+        <v>3.28</v>
       </c>
       <c r="AB6">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AC6">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AD6">
-        <v>3.78</v>
+        <v>3.48</v>
       </c>
       <c r="AE6">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AF6">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AG6">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AH6">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="AI6">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AJ6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL6">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AM6">
         <v>1.23</v>
       </c>
       <c r="AN6">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="AO6">
         <v>-1</v>
@@ -2044,7 +2050,7 @@
         <v>109</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2059,94 +2065,94 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L7">
-        <v>1.91</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AB7">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AC7">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AO7">
         <v>-1</v>
@@ -2188,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BD7" s="3">
         <v>45796.5</v>
@@ -2205,7 +2211,7 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>102</v>
@@ -2214,7 +2220,7 @@
         <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2229,127 +2235,127 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO8">
         <v>-1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2358,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BD8" s="3">
         <v>45796.5</v>
@@ -2375,7 +2381,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
@@ -2384,7 +2390,7 @@
         <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2399,94 +2405,94 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L9">
-        <v>4.78</v>
+        <v>1.61</v>
       </c>
       <c r="M9">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="N9">
-        <v>1.89</v>
+        <v>6.3</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="P9">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Q9">
-        <v>1.64</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="S9">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>3.92</v>
+        <v>3.75</v>
       </c>
       <c r="U9">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="V9">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="X9">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Y9">
-        <v>5.45</v>
+        <v>6.5</v>
       </c>
       <c r="Z9">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AA9">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AB9">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="AC9">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AD9">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="AE9">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AF9">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AG9">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AH9">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AI9">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AJ9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL9">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="AM9">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AN9">
-        <v>1.26</v>
+        <v>1.83</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2528,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="BC9">
-        <v>1.64</v>
+        <v>3.4</v>
       </c>
       <c r="BD9" s="3">
         <v>45796.5</v>
@@ -2554,7 +2560,7 @@
         <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2569,94 +2575,94 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2698,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BD10" s="3">
         <v>45796.5</v>
@@ -2724,7 +2730,7 @@
         <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2739,55 +2745,55 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L11">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="M11">
         <v>2.9</v>
       </c>
       <c r="N11">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB11">
         <v>2.63</v>
@@ -2796,37 +2802,37 @@
         <v>1.44</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AO11">
         <v>-1</v>
@@ -2868,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BD11" s="3">
         <v>45796.5</v>
@@ -2888,13 +2894,13 @@
         <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2909,94 +2915,94 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L12">
-        <v>2.52</v>
+        <v>5.7</v>
       </c>
       <c r="M12">
-        <v>3.16</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>2.59</v>
+        <v>1.38</v>
       </c>
       <c r="O12">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Q12">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="R12">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="S12">
-        <v>2.69</v>
+        <v>3.5</v>
       </c>
       <c r="T12">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="V12">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="W12">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="X12">
         <v>1.01</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z12">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AA12">
-        <v>2.97</v>
+        <v>4.6</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="AC12">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AD12">
-        <v>3.68</v>
+        <v>2.25</v>
       </c>
       <c r="AE12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AF12">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="AG12">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AH12">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="AI12">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AJ12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL12">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AM12">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AN12">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AO12">
         <v>-1</v>
@@ -3038,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>1.96</v>
+        <v>3.1</v>
       </c>
       <c r="BC12">
-        <v>2.02</v>
+        <v>1.36</v>
       </c>
       <c r="BD12" s="3">
         <v>45796.54166666666</v>
@@ -3064,7 +3070,7 @@
         <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3079,94 +3085,94 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M13">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="O13">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="P13">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="Q13">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R13">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S13">
         <v>2.85</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="U13">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="V13">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="W13">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X13">
         <v>1.01</v>
       </c>
       <c r="Y13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z13">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="AB13">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC13">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AD13">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AE13">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AF13">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH13">
-        <v>5.75</v>
+        <v>5.8</v>
       </c>
       <c r="AI13">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL13">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AM13">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AN13">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AO13">
         <v>-1</v>
@@ -3208,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="BC13">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BD13" s="3">
         <v>45796.54166666666</v>
@@ -3225,7 +3231,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -3234,7 +3240,7 @@
         <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3249,127 +3255,127 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L14">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="N14">
-        <v>3.65</v>
+        <v>7.3</v>
       </c>
       <c r="O14">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="P14">
-        <v>12.75</v>
+        <v>9</v>
       </c>
       <c r="Q14">
+        <v>4.33</v>
+      </c>
+      <c r="R14">
+        <v>1.5</v>
+      </c>
+      <c r="S14">
+        <v>2.55</v>
+      </c>
+      <c r="T14">
+        <v>3.1</v>
+      </c>
+      <c r="U14">
+        <v>1.35</v>
+      </c>
+      <c r="V14">
+        <v>5.5</v>
+      </c>
+      <c r="W14">
+        <v>1.1</v>
+      </c>
+      <c r="X14">
+        <v>1.04</v>
+      </c>
+      <c r="Y14">
+        <v>7.8</v>
+      </c>
+      <c r="Z14">
+        <v>1.39</v>
+      </c>
+      <c r="AA14">
+        <v>2.75</v>
+      </c>
+      <c r="AB14">
+        <v>1.83</v>
+      </c>
+      <c r="AC14">
+        <v>1.87</v>
+      </c>
+      <c r="AD14">
+        <v>4.2</v>
+      </c>
+      <c r="AE14">
+        <v>1.2</v>
+      </c>
+      <c r="AF14">
+        <v>2.38</v>
+      </c>
+      <c r="AG14">
+        <v>1.55</v>
+      </c>
+      <c r="AH14">
+        <v>8.5</v>
+      </c>
+      <c r="AI14">
+        <v>1.01</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL14">
+        <v>1.19</v>
+      </c>
+      <c r="AM14">
+        <v>1.15</v>
+      </c>
+      <c r="AN14">
         <v>2.5</v>
-      </c>
-      <c r="R14">
-        <v>1.29</v>
-      </c>
-      <c r="S14">
-        <v>3.15</v>
-      </c>
-      <c r="T14">
-        <v>2.51</v>
-      </c>
-      <c r="U14">
-        <v>1.5</v>
-      </c>
-      <c r="V14">
-        <v>6.3</v>
-      </c>
-      <c r="W14">
-        <v>1.11</v>
-      </c>
-      <c r="X14">
-        <v>1.01</v>
-      </c>
-      <c r="Y14">
-        <v>10.5</v>
-      </c>
-      <c r="Z14">
-        <v>1.25</v>
-      </c>
-      <c r="AA14">
-        <v>3.8</v>
-      </c>
-      <c r="AB14">
-        <v>1.7</v>
-      </c>
-      <c r="AC14">
-        <v>1.95</v>
-      </c>
-      <c r="AD14">
-        <v>2.78</v>
-      </c>
-      <c r="AE14">
-        <v>1.38</v>
-      </c>
-      <c r="AF14">
-        <v>1.69</v>
-      </c>
-      <c r="AG14">
-        <v>2.05</v>
-      </c>
-      <c r="AH14">
-        <v>5.15</v>
-      </c>
-      <c r="AI14">
-        <v>1.1</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL14">
-        <v>1.2</v>
-      </c>
-      <c r="AM14">
-        <v>1.21</v>
-      </c>
-      <c r="AN14">
-        <v>2</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3378,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="BC14">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="BD14" s="3">
         <v>45796.54166666666</v>
@@ -3404,7 +3410,7 @@
         <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3419,94 +3425,94 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N15">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="O15">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="P15">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="Q15">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R15">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S15">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="T15">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U15">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V15">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="W15">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X15">
         <v>1.01</v>
       </c>
       <c r="Y15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z15">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AA15">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC15">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AD15">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AE15">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AF15">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AG15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH15">
-        <v>5.65</v>
+        <v>5.75</v>
       </c>
       <c r="AI15">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AJ15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL15">
-        <v>1.97</v>
+        <v>1.22</v>
       </c>
       <c r="AM15">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AN15">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AO15">
         <v>-1</v>
@@ -3515,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3530,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AW15">
         <v>0</v>
@@ -3548,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="BC15">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BD15" s="3">
         <v>45796.54166666666</v>
@@ -3568,13 +3574,13 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3589,127 +3595,127 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L16">
-        <v>5.7</v>
+        <v>2.52</v>
       </c>
       <c r="M16">
-        <v>4.5</v>
+        <v>3.16</v>
       </c>
       <c r="N16">
-        <v>1.38</v>
+        <v>2.59</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="P16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q16">
+        <v>2.02</v>
+      </c>
+      <c r="R16">
+        <v>1.53</v>
+      </c>
+      <c r="S16">
+        <v>2.4</v>
+      </c>
+      <c r="T16">
+        <v>3.6</v>
+      </c>
+      <c r="U16">
+        <v>1.25</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+      <c r="W16">
+        <v>1.06</v>
+      </c>
+      <c r="X16">
+        <v>1.07</v>
+      </c>
+      <c r="Y16">
+        <v>6.5</v>
+      </c>
+      <c r="Z16">
+        <v>1.42</v>
+      </c>
+      <c r="AA16">
+        <v>2.45</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>1.67</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>1.15</v>
+      </c>
+      <c r="AF16">
+        <v>2.07</v>
+      </c>
+      <c r="AG16">
+        <v>1.7</v>
+      </c>
+      <c r="AH16">
+        <v>12</v>
+      </c>
+      <c r="AI16">
+        <v>1.04</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL16">
         <v>1.36</v>
       </c>
-      <c r="R16">
-        <v>1.17</v>
-      </c>
-      <c r="S16">
-        <v>4.2</v>
-      </c>
-      <c r="T16">
-        <v>2.08</v>
-      </c>
-      <c r="U16">
-        <v>1.65</v>
-      </c>
-      <c r="V16">
-        <v>4.6</v>
-      </c>
-      <c r="W16">
-        <v>1.16</v>
-      </c>
-      <c r="X16">
-        <v>1.02</v>
-      </c>
-      <c r="Y16">
-        <v>19</v>
-      </c>
-      <c r="Z16">
-        <v>1.12</v>
-      </c>
-      <c r="AA16">
-        <v>5.4</v>
-      </c>
-      <c r="AB16">
-        <v>1.47</v>
-      </c>
-      <c r="AC16">
-        <v>2.5</v>
-      </c>
-      <c r="AD16">
-        <v>2.25</v>
-      </c>
-      <c r="AE16">
-        <v>1.5</v>
-      </c>
-      <c r="AF16">
-        <v>1.55</v>
-      </c>
-      <c r="AG16">
-        <v>2.25</v>
-      </c>
-      <c r="AH16">
-        <v>3.9</v>
-      </c>
-      <c r="AI16">
+      <c r="AM16">
+        <v>1.28</v>
+      </c>
+      <c r="AN16">
         <v>1.25</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL16">
-        <v>1.18</v>
-      </c>
-      <c r="AM16">
-        <v>1.15</v>
-      </c>
-      <c r="AN16">
-        <v>1.17</v>
       </c>
       <c r="AO16">
         <v>-1</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -3718,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>3.1</v>
+        <v>1.96</v>
       </c>
       <c r="BC16">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="BD16" s="3">
         <v>45796.54166666666</v>
@@ -3735,7 +3741,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
@@ -3744,7 +3750,7 @@
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3759,94 +3765,94 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17">
-        <v>1.36</v>
+        <v>1.79</v>
       </c>
       <c r="M17">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>7.3</v>
+        <v>3.65</v>
       </c>
       <c r="O17">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="P17">
-        <v>9</v>
+        <v>12.75</v>
       </c>
       <c r="Q17">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="R17">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S17">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>2.84</v>
+        <v>2.43</v>
       </c>
       <c r="U17">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="V17">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="W17">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="Y17">
-        <v>9.300000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z17">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AA17">
-        <v>3.14</v>
+        <v>3.8</v>
       </c>
       <c r="AB17">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AC17">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AD17">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="AE17">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AF17">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="AG17">
-        <v>1.59</v>
+        <v>1.98</v>
       </c>
       <c r="AH17">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="AI17">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AJ17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL17">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM17">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AN17">
-        <v>3.02</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -3888,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="BC17">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="BD17" s="3">
         <v>45796.54166666666</v>
@@ -3914,7 +3920,7 @@
         <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3929,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L18">
         <v>2.64</v>
@@ -4004,10 +4010,10 @@
         <v>1.17</v>
       </c>
       <c r="AJ18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL18">
         <v>1.57</v>
@@ -4084,7 +4090,7 @@
         <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4099,25 +4105,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N19">
-        <v>2.85</v>
+        <v>5.1</v>
       </c>
       <c r="O19">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P19">
         <v>11</v>
       </c>
       <c r="Q19">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="R19">
         <v>1.3</v>
@@ -4126,10 +4132,10 @@
         <v>3.4</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U19">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V19">
         <v>6</v>
@@ -4150,22 +4156,22 @@
         <v>4.5</v>
       </c>
       <c r="AB19">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AC19">
+        <v>2.2</v>
+      </c>
+      <c r="AD19">
+        <v>2.6</v>
+      </c>
+      <c r="AE19">
+        <v>1.5</v>
+      </c>
+      <c r="AF19">
+        <v>1.67</v>
+      </c>
+      <c r="AG19">
         <v>2.1</v>
-      </c>
-      <c r="AD19">
-        <v>2.55</v>
-      </c>
-      <c r="AE19">
-        <v>1.53</v>
-      </c>
-      <c r="AF19">
-        <v>1.57</v>
-      </c>
-      <c r="AG19">
-        <v>2.25</v>
       </c>
       <c r="AH19">
         <v>4.5</v>
@@ -4174,52 +4180,52 @@
         <v>1.2</v>
       </c>
       <c r="AJ19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL19">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AM19">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AN19">
-        <v>1.67</v>
+        <v>2.35</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="AS19">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AT19">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AU19">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AV19">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="AW19">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AX19">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AY19">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4228,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BC19">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="BD19" s="3">
         <v>45796.58333333334</v>
@@ -4248,13 +4254,13 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4269,127 +4275,127 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L20">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="M20">
-        <v>3.41</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O20">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R20">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S20">
-        <v>2.88</v>
+        <v>2.93</v>
       </c>
       <c r="T20">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="U20">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="V20">
         <v>6.7</v>
       </c>
       <c r="W20">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="X20">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Y20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z20">
         <v>1.3</v>
       </c>
       <c r="AA20">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="AC20">
         <v>1.8</v>
       </c>
-      <c r="AC20">
-        <v>1.9</v>
-      </c>
       <c r="AD20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE20">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF20">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH20">
         <v>6.5</v>
       </c>
       <c r="AI20">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AJ20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL20">
+        <v>1.43</v>
+      </c>
+      <c r="AM20">
         <v>1.3</v>
       </c>
-      <c r="AM20">
-        <v>1.25</v>
-      </c>
       <c r="AN20">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AQ20">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>1.67</v>
+        <v>2.21</v>
       </c>
       <c r="AS20">
-        <v>2.05</v>
+        <v>2.95</v>
       </c>
       <c r="AT20">
-        <v>2.55</v>
+        <v>3.78</v>
       </c>
       <c r="AU20">
-        <v>3.55</v>
+        <v>2.85</v>
       </c>
       <c r="AV20">
-        <v>2.65</v>
+        <v>2.03</v>
       </c>
       <c r="AW20">
-        <v>2.07</v>
+        <v>1.63</v>
       </c>
       <c r="AX20">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AY20">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4398,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="BC20">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BD20" s="3">
         <v>45796.58333333334</v>
@@ -4415,16 +4421,16 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4439,127 +4445,127 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L21">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M21">
-        <v>3.8</v>
+        <v>3.84</v>
       </c>
       <c r="N21">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="O21">
         <v>1.44</v>
       </c>
       <c r="P21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q21">
         <v>2.88</v>
       </c>
       <c r="R21">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="S21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>2.38</v>
+        <v>2.69</v>
       </c>
       <c r="U21">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="V21">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="W21">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="X21">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y21">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z21">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AA21">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AB21">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="AC21">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="AD21">
-        <v>2.6</v>
+        <v>2.98</v>
       </c>
       <c r="AE21">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AF21">
         <v>1.67</v>
       </c>
       <c r="AG21">
+        <v>2.05</v>
+      </c>
+      <c r="AH21">
+        <v>5.74</v>
+      </c>
+      <c r="AI21">
+        <v>1.09</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.2</v>
+      </c>
+      <c r="AN21">
         <v>2.1</v>
-      </c>
-      <c r="AH21">
-        <v>4.5</v>
-      </c>
-      <c r="AI21">
-        <v>1.2</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL21">
-        <v>1.14</v>
-      </c>
-      <c r="AM21">
-        <v>1.18</v>
-      </c>
-      <c r="AN21">
-        <v>2.35</v>
       </c>
       <c r="AO21">
         <v>-1</v>
       </c>
       <c r="AP21">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR21">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AS21">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AT21">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="AU21">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="AV21">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AW21">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AX21">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AY21">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4585,7 +4591,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>102</v>
@@ -4594,7 +4600,7 @@
         <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4609,127 +4615,127 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L22">
-        <v>1.55</v>
+        <v>2.41</v>
       </c>
       <c r="M22">
-        <v>3.84</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>4.7</v>
+        <v>2.67</v>
       </c>
       <c r="O22">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="P22">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Q22">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="R22">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S22">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="T22">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="U22">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V22">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="W22">
+        <v>1.08</v>
+      </c>
+      <c r="X22">
+        <v>1.03</v>
+      </c>
+      <c r="Y22">
+        <v>9</v>
+      </c>
+      <c r="Z22">
+        <v>1.27</v>
+      </c>
+      <c r="AA22">
+        <v>3.2</v>
+      </c>
+      <c r="AB22">
+        <v>1.91</v>
+      </c>
+      <c r="AC22">
+        <v>1.8</v>
+      </c>
+      <c r="AD22">
+        <v>3.2</v>
+      </c>
+      <c r="AE22">
+        <v>1.29</v>
+      </c>
+      <c r="AF22">
+        <v>1.78</v>
+      </c>
+      <c r="AG22">
+        <v>1.95</v>
+      </c>
+      <c r="AH22">
+        <v>6.5</v>
+      </c>
+      <c r="AI22">
         <v>1.09</v>
       </c>
-      <c r="X22">
-        <v>1.05</v>
-      </c>
-      <c r="Y22">
-        <v>11.5</v>
-      </c>
-      <c r="Z22">
-        <v>1.22</v>
-      </c>
-      <c r="AA22">
-        <v>3.7</v>
-      </c>
-      <c r="AB22">
-        <v>1.81</v>
-      </c>
-      <c r="AC22">
-        <v>1.89</v>
-      </c>
-      <c r="AD22">
-        <v>2.9</v>
-      </c>
-      <c r="AE22">
-        <v>1.33</v>
-      </c>
-      <c r="AF22">
-        <v>1.8</v>
-      </c>
-      <c r="AG22">
-        <v>1.93</v>
-      </c>
-      <c r="AH22">
-        <v>6</v>
-      </c>
-      <c r="AI22">
-        <v>1.05</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL22">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM22">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AN22">
-        <v>2.1</v>
+        <v>1.49</v>
       </c>
       <c r="AO22">
         <v>-1</v>
       </c>
       <c r="AP22">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="AR22">
+        <v>1.62</v>
+      </c>
+      <c r="AS22">
         <v>1.78</v>
       </c>
-      <c r="AS22">
-        <v>2.03</v>
-      </c>
       <c r="AT22">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AU22">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AV22">
-        <v>2.35</v>
+        <v>3.34</v>
       </c>
       <c r="AW22">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="AX22">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AY22">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AZ22">
         <v>0</v>
@@ -4738,10 +4744,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="BC22">
-        <v>2.88</v>
+        <v>1.92</v>
       </c>
       <c r="BD22" s="3">
         <v>45796.58333333334</v>
@@ -4755,7 +4761,7 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
         <v>102</v>
@@ -4764,7 +4770,7 @@
         <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4779,128 +4785,128 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L23">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="N23">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="O23">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="P23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q23">
+        <v>2.7</v>
+      </c>
+      <c r="R23">
+        <v>1.25</v>
+      </c>
+      <c r="S23">
+        <v>3.75</v>
+      </c>
+      <c r="T23">
         <v>2.2</v>
       </c>
-      <c r="R23">
-        <v>1.38</v>
-      </c>
-      <c r="S23">
-        <v>2.93</v>
-      </c>
-      <c r="T23">
-        <v>2.92</v>
-      </c>
       <c r="U23">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="V23">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="W23">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="X23">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Y23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AA23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AC23">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD23">
-        <v>3.4</v>
+        <v>2.28</v>
       </c>
       <c r="AE23">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="AF23">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AG23">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH23">
-        <v>6.5</v>
+        <v>4.35</v>
       </c>
       <c r="AI23">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AJ23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL23">
-        <v>1.43</v>
+        <v>1.15</v>
       </c>
       <c r="AM23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AN23">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="AO23">
         <v>-1</v>
       </c>
       <c r="AP23">
+        <v>1.25</v>
+      </c>
+      <c r="AQ23">
+        <v>1.47</v>
+      </c>
+      <c r="AR23">
+        <v>1.8</v>
+      </c>
+      <c r="AS23">
+        <v>2.24</v>
+      </c>
+      <c r="AT23">
+        <v>2.83</v>
+      </c>
+      <c r="AU23">
+        <v>3.4</v>
+      </c>
+      <c r="AV23">
+        <v>2.48</v>
+      </c>
+      <c r="AW23">
+        <v>2</v>
+      </c>
+      <c r="AX23">
+        <v>1.6</v>
+      </c>
+      <c r="AY23">
         <v>1.37</v>
       </c>
-      <c r="AQ23">
-        <v>1.75</v>
-      </c>
-      <c r="AR23">
-        <v>2.21</v>
-      </c>
-      <c r="AS23">
-        <v>2.95</v>
-      </c>
-      <c r="AT23">
-        <v>3.78</v>
-      </c>
-      <c r="AU23">
-        <v>2.85</v>
-      </c>
-      <c r="AV23">
-        <v>2.03</v>
-      </c>
-      <c r="AW23">
-        <v>1.63</v>
-      </c>
-      <c r="AX23">
-        <v>1.35</v>
-      </c>
-      <c r="AY23">
-        <v>1.21</v>
-      </c>
       <c r="AZ23">
         <v>0</v>
       </c>
@@ -4908,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="BC23">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="BD23" s="3">
         <v>45796.58333333334</v>
@@ -4934,7 +4940,7 @@
         <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4949,127 +4955,127 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.16</v>
       </c>
       <c r="M24">
-        <v>3.31</v>
+        <v>3.41</v>
       </c>
       <c r="N24">
+        <v>2.73</v>
+      </c>
+      <c r="O24">
+        <v>1.91</v>
+      </c>
+      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <v>2.05</v>
+      </c>
+      <c r="R24">
+        <v>1.25</v>
+      </c>
+      <c r="S24">
+        <v>3.4</v>
+      </c>
+      <c r="T24">
         <v>2.2</v>
       </c>
-      <c r="O24">
-        <v>2.07</v>
-      </c>
-      <c r="P24">
-        <v>12.75</v>
-      </c>
-      <c r="Q24">
-        <v>1.8</v>
-      </c>
-      <c r="R24">
-        <v>1.32</v>
-      </c>
-      <c r="S24">
-        <v>2.95</v>
-      </c>
-      <c r="T24">
-        <v>2.69</v>
-      </c>
       <c r="U24">
+        <v>1.6</v>
+      </c>
+      <c r="V24">
+        <v>4.75</v>
+      </c>
+      <c r="W24">
+        <v>1.14</v>
+      </c>
+      <c r="X24">
+        <v>1.02</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>1.14</v>
+      </c>
+      <c r="AA24">
+        <v>4.9</v>
+      </c>
+      <c r="AB24">
+        <v>1.55</v>
+      </c>
+      <c r="AC24">
+        <v>2.2</v>
+      </c>
+      <c r="AD24">
+        <v>2.25</v>
+      </c>
+      <c r="AE24">
+        <v>1.57</v>
+      </c>
+      <c r="AF24">
         <v>1.4</v>
       </c>
-      <c r="V24">
-        <v>6.3</v>
-      </c>
-      <c r="W24">
-        <v>1.1</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>9.1</v>
-      </c>
-      <c r="Z24">
-        <v>1.24</v>
-      </c>
-      <c r="AA24">
-        <v>3.5</v>
-      </c>
-      <c r="AB24">
-        <v>1.82</v>
-      </c>
-      <c r="AC24">
-        <v>1.88</v>
-      </c>
-      <c r="AD24">
-        <v>3.2</v>
-      </c>
-      <c r="AE24">
-        <v>1.28</v>
-      </c>
-      <c r="AF24">
-        <v>1.67</v>
-      </c>
       <c r="AG24">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH24">
-        <v>6.25</v>
+        <v>3.72</v>
       </c>
       <c r="AI24">
-        <v>1.06</v>
+        <v>1.19</v>
       </c>
       <c r="AJ24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK24" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL24">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM24">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AN24">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AO24">
         <v>-1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AQ24">
         <v>1.31</v>
       </c>
       <c r="AR24">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS24">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AT24">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AV24">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="AW24">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="AX24">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AY24">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -5078,10 +5084,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="BC24">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BD24" s="3">
         <v>45796.58333333334</v>
@@ -5095,7 +5101,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
@@ -5104,7 +5110,7 @@
         <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5119,127 +5125,127 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L25">
-        <v>2.46</v>
+        <v>3.24</v>
       </c>
       <c r="M25">
-        <v>3.35</v>
+        <v>3.58</v>
       </c>
       <c r="N25">
-        <v>2.41</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="P25">
-        <v>12.5</v>
+        <v>12.75</v>
       </c>
       <c r="Q25">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="R25">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="S25">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="T25">
-        <v>2.62</v>
+        <v>2.81</v>
       </c>
       <c r="U25">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W25">
+        <v>1.09</v>
+      </c>
+      <c r="X25">
+        <v>1.02</v>
+      </c>
+      <c r="Y25">
+        <v>9.1</v>
+      </c>
+      <c r="Z25">
+        <v>1.21</v>
+      </c>
+      <c r="AA25">
+        <v>3.4</v>
+      </c>
+      <c r="AB25">
+        <v>1.85</v>
+      </c>
+      <c r="AC25">
+        <v>1.85</v>
+      </c>
+      <c r="AD25">
+        <v>3.16</v>
+      </c>
+      <c r="AE25">
+        <v>1.33</v>
+      </c>
+      <c r="AF25">
+        <v>1.67</v>
+      </c>
+      <c r="AG25">
+        <v>2.05</v>
+      </c>
+      <c r="AH25">
+        <v>6.5</v>
+      </c>
+      <c r="AI25">
         <v>1.11</v>
       </c>
-      <c r="X25">
-        <v>1.05</v>
-      </c>
-      <c r="Y25">
-        <v>11</v>
-      </c>
-      <c r="Z25">
-        <v>1.2</v>
-      </c>
-      <c r="AA25">
-        <v>3.7</v>
-      </c>
-      <c r="AB25">
-        <v>1.77</v>
-      </c>
-      <c r="AC25">
-        <v>1.93</v>
-      </c>
-      <c r="AD25">
-        <v>2.74</v>
-      </c>
-      <c r="AE25">
-        <v>1.36</v>
-      </c>
-      <c r="AF25">
-        <v>1.6</v>
-      </c>
-      <c r="AG25">
-        <v>2.2</v>
-      </c>
-      <c r="AH25">
-        <v>5.5</v>
-      </c>
-      <c r="AI25">
-        <v>1.13</v>
-      </c>
       <c r="AJ25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL25">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AM25">
         <v>1.26</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AO25">
         <v>-1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ25">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>2.21</v>
+        <v>2.5</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV25">
-        <v>3.34</v>
+        <v>2.8</v>
       </c>
       <c r="AW25">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="AX25">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="AY25">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5248,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="BC25">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="BD25" s="3">
         <v>45796.58333333334</v>
@@ -5265,16 +5271,16 @@
         <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>128</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5289,127 +5295,127 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L26">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="M26">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="O26">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q26">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R26">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S26">
         <v>3.4</v>
       </c>
       <c r="T26">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X26">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Y26">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z26">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AA26">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB26">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AC26">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD26">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AE26">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AF26">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AG26">
-        <v>2.66</v>
+        <v>2.25</v>
       </c>
       <c r="AH26">
-        <v>3.98</v>
+        <v>4.5</v>
       </c>
       <c r="AI26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AJ26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL26">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AM26">
         <v>1.22</v>
       </c>
       <c r="AN26">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR26">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS26">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="AT26">
-        <v>2.52</v>
+        <v>2.15</v>
       </c>
       <c r="AU26">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="AV26">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="AW26">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="AX26">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="AY26">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5418,10 +5424,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="BC26">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BD26" s="3">
         <v>45796.58333333334</v>
@@ -5435,16 +5441,16 @@
         <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5459,127 +5465,127 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5588,10 +5594,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD27" s="3">
         <v>45796.58333333334</v>
@@ -5614,7 +5620,7 @@
         <v>130</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5629,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L28">
         <v>2.03</v>
@@ -5704,10 +5710,10 @@
         <v>1.1</v>
       </c>
       <c r="AJ28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL28">
         <v>1.33</v>
@@ -5784,7 +5790,7 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5799,16 +5805,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L29">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
-        <v>3.89</v>
+        <v>3.99</v>
       </c>
       <c r="N29">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="O29">
         <v>2.5</v>
@@ -5826,100 +5832,100 @@
         <v>2.8</v>
       </c>
       <c r="T29">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="U29">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="V29">
-        <v>6.5</v>
+        <v>6.35</v>
       </c>
       <c r="W29">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X29">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y29">
         <v>9</v>
       </c>
       <c r="Z29">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AA29">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB29">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AC29">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AD29">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="AE29">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AF29">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AG29">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AH29">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI29">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AJ29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL29">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AM29">
         <v>1.28</v>
       </c>
       <c r="AN29">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AQ29">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
-        <v>2.14</v>
+        <v>2.29</v>
       </c>
       <c r="AS29">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="AT29">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AU29">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AV29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AW29">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AX29">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AY29">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5954,7 +5960,7 @@
         <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5969,127 +5975,127 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L30">
-        <v>3.13</v>
+        <v>2.67</v>
       </c>
       <c r="M30">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>2.41</v>
       </c>
       <c r="O30">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="P30">
-        <v>26</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q30">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="R30">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="S30">
-        <v>4.25</v>
+        <v>2.62</v>
       </c>
       <c r="T30">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="U30">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="V30">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="W30">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="X30">
         <v>1.01</v>
       </c>
       <c r="Y30">
-        <v>16.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z30">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="AA30">
-        <v>6.2</v>
+        <v>2.88</v>
       </c>
       <c r="AB30">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="AC30">
-        <v>2.81</v>
+        <v>1.74</v>
       </c>
       <c r="AD30">
-        <v>1.91</v>
+        <v>3.8</v>
       </c>
       <c r="AE30">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="AF30">
-        <v>1.42</v>
+        <v>1.84</v>
       </c>
       <c r="AG30">
-        <v>2.63</v>
+        <v>1.86</v>
       </c>
       <c r="AH30">
-        <v>3.15</v>
+        <v>7.9</v>
       </c>
       <c r="AI30">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="AJ30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK30" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL30">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AM30">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AN30">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ30">
-        <v>1.77</v>
+        <v>1.54</v>
       </c>
       <c r="AR30">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AS30">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="AT30">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="AU30">
-        <v>2.78</v>
+        <v>3.08</v>
       </c>
       <c r="AV30">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AW30">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AX30">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AY30">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6098,10 +6104,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>2.66</v>
+        <v>2.07</v>
       </c>
       <c r="BC30">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="BD30" s="3">
         <v>45796.60416666666</v>
@@ -6124,7 +6130,7 @@
         <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6139,127 +6145,127 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L31">
-        <v>2.71</v>
+        <v>3.13</v>
       </c>
       <c r="M31">
-        <v>3.39</v>
+        <v>3.87</v>
       </c>
       <c r="N31">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AB31">
-        <v>1.94</v>
+        <v>1.38</v>
       </c>
       <c r="AC31">
-        <v>1.8</v>
+        <v>2.81</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AJ31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AO31">
         <v>-1</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AV31">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AW31">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AX31">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AY31">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AZ31">
         <v>0</v>
@@ -6268,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BC31">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="BD31" s="3">
         <v>45796.60416666666</v>
@@ -6285,7 +6291,7 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>102</v>
@@ -6294,7 +6300,7 @@
         <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6309,127 +6315,127 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L32">
-        <v>2.67</v>
+        <v>3.58</v>
       </c>
       <c r="M32">
-        <v>3.03</v>
+        <v>3.68</v>
       </c>
       <c r="N32">
-        <v>2.41</v>
+        <v>1.76</v>
       </c>
       <c r="O32">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="P32">
-        <v>8.699999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="Q32">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="R32">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="S32">
-        <v>2.62</v>
+        <v>3.66</v>
       </c>
       <c r="T32">
-        <v>3.1</v>
+        <v>2.21</v>
       </c>
       <c r="U32">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="V32">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="W32">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X32">
         <v>1.01</v>
       </c>
       <c r="Y32">
-        <v>8.699999999999999</v>
+        <v>15.5</v>
       </c>
       <c r="Z32">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AA32">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="AB32">
+        <v>1.42</v>
+      </c>
+      <c r="AC32">
+        <v>2.65</v>
+      </c>
+      <c r="AD32">
         <v>2.05</v>
       </c>
-      <c r="AC32">
-        <v>1.61</v>
-      </c>
-      <c r="AD32">
-        <v>3.8</v>
-      </c>
       <c r="AE32">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="AF32">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AG32">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="AH32">
-        <v>7.9</v>
+        <v>3.7</v>
       </c>
       <c r="AI32">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="AJ32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL32">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="AM32">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AN32">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="AO32">
         <v>-1</v>
       </c>
       <c r="AP32">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AR32">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AS32">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AT32">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="AU32">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="AV32">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AW32">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AX32">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="AY32">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AZ32">
         <v>0</v>
@@ -6438,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="BB32">
-        <v>2.07</v>
+        <v>2.72</v>
       </c>
       <c r="BC32">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="BD32" s="3">
         <v>45796.60416666666</v>
@@ -6455,7 +6461,7 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
         <v>102</v>
@@ -6464,7 +6470,7 @@
         <v>135</v>
       </c>
       <c r="F33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6479,128 +6485,128 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L33">
-        <v>3.58</v>
+        <v>2.71</v>
       </c>
       <c r="M33">
-        <v>3.68</v>
+        <v>3.39</v>
       </c>
       <c r="N33">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="O33">
-        <v>2.72</v>
+        <v>2.13</v>
       </c>
       <c r="P33">
-        <v>20.5</v>
+        <v>14.25</v>
       </c>
       <c r="Q33">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="R33">
+        <v>1.33</v>
+      </c>
+      <c r="S33">
+        <v>3.12</v>
+      </c>
+      <c r="T33">
+        <v>2.65</v>
+      </c>
+      <c r="U33">
+        <v>1.44</v>
+      </c>
+      <c r="V33">
+        <v>6.8</v>
+      </c>
+      <c r="W33">
+        <v>1.05</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <v>1.22</v>
       </c>
-      <c r="S33">
-        <v>3.66</v>
-      </c>
-      <c r="T33">
+      <c r="AA33">
+        <v>3.82</v>
+      </c>
+      <c r="AB33">
+        <v>1.94</v>
+      </c>
+      <c r="AC33">
+        <v>1.8</v>
+      </c>
+      <c r="AD33">
+        <v>2.94</v>
+      </c>
+      <c r="AE33">
+        <v>1.35</v>
+      </c>
+      <c r="AF33">
+        <v>1.62</v>
+      </c>
+      <c r="AG33">
         <v>2.16</v>
       </c>
-      <c r="U33">
+      <c r="AH33">
+        <v>5.7</v>
+      </c>
+      <c r="AI33">
+        <v>1.08</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL33">
         <v>1.65</v>
       </c>
-      <c r="V33">
-        <v>4.6</v>
-      </c>
-      <c r="W33">
-        <v>1.14</v>
-      </c>
-      <c r="X33">
-        <v>1.01</v>
-      </c>
-      <c r="Y33">
-        <v>15.5</v>
-      </c>
-      <c r="Z33">
-        <v>1.1</v>
-      </c>
-      <c r="AA33">
-        <v>5.3</v>
-      </c>
-      <c r="AB33">
+      <c r="AM33">
+        <v>1.31</v>
+      </c>
+      <c r="AN33">
         <v>1.42</v>
-      </c>
-      <c r="AC33">
-        <v>2.65</v>
-      </c>
-      <c r="AD33">
-        <v>2.05</v>
-      </c>
-      <c r="AE33">
-        <v>1.65</v>
-      </c>
-      <c r="AF33">
-        <v>1.45</v>
-      </c>
-      <c r="AG33">
-        <v>2.45</v>
-      </c>
-      <c r="AH33">
-        <v>3.44</v>
-      </c>
-      <c r="AI33">
-        <v>1.23</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL33">
-        <v>2.32</v>
-      </c>
-      <c r="AM33">
-        <v>1.2</v>
-      </c>
-      <c r="AN33">
-        <v>1.16</v>
       </c>
       <c r="AO33">
         <v>-1</v>
       </c>
       <c r="AP33">
+        <v>1.24</v>
+      </c>
+      <c r="AQ33">
+        <v>1.48</v>
+      </c>
+      <c r="AR33">
+        <v>1.85</v>
+      </c>
+      <c r="AS33">
+        <v>2.38</v>
+      </c>
+      <c r="AT33">
+        <v>3.14</v>
+      </c>
+      <c r="AU33">
+        <v>3.34</v>
+      </c>
+      <c r="AV33">
+        <v>2.4</v>
+      </c>
+      <c r="AW33">
+        <v>1.85</v>
+      </c>
+      <c r="AX33">
+        <v>1.49</v>
+      </c>
+      <c r="AY33">
         <v>1.27</v>
       </c>
-      <c r="AQ33">
-        <v>1.59</v>
-      </c>
-      <c r="AR33">
-        <v>2.25</v>
-      </c>
-      <c r="AS33">
-        <v>2.51</v>
-      </c>
-      <c r="AT33">
-        <v>3.34</v>
-      </c>
-      <c r="AU33">
-        <v>3.14</v>
-      </c>
-      <c r="AV33">
-        <v>2.27</v>
-      </c>
-      <c r="AW33">
-        <v>1.81</v>
-      </c>
-      <c r="AX33">
-        <v>1.44</v>
-      </c>
-      <c r="AY33">
-        <v>1.24</v>
-      </c>
       <c r="AZ33">
         <v>0</v>
       </c>
@@ -6608,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>2.72</v>
+        <v>2.13</v>
       </c>
       <c r="BC33">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="BD33" s="3">
         <v>45796.60416666666</v>
@@ -6634,7 +6640,7 @@
         <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6649,94 +6655,94 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L34">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="M34">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="N34">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O34">
         <v>1.5</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Q34">
         <v>2.88</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AB34">
+        <v>1.83</v>
+      </c>
+      <c r="AC34">
+        <v>1.8</v>
+      </c>
+      <c r="AD34">
+        <v>3.25</v>
+      </c>
+      <c r="AE34">
+        <v>1.27</v>
+      </c>
+      <c r="AF34">
+        <v>1.75</v>
+      </c>
+      <c r="AG34">
         <v>1.9</v>
       </c>
-      <c r="AC34">
-        <v>1.9</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
       <c r="AH34">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AJ34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AM34">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN34">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO34">
         <v>-1</v>
@@ -6751,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -6766,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AX34">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AY34">
         <v>0</v>
@@ -6804,7 +6810,7 @@
         <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6819,127 +6825,127 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L35">
-        <v>2.05</v>
+        <v>2.57</v>
       </c>
       <c r="M35">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="N35">
-        <v>3.58</v>
+        <v>2.65</v>
       </c>
       <c r="O35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P35">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q35">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="R35">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S35">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T35">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="U35">
         <v>1.36</v>
       </c>
       <c r="V35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W35">
+        <v>1.08</v>
+      </c>
+      <c r="X35">
         <v>1.06</v>
       </c>
-      <c r="X35">
-        <v>1.05</v>
-      </c>
       <c r="Y35">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z35">
         <v>1.33</v>
       </c>
       <c r="AA35">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB35">
+        <v>1.98</v>
+      </c>
+      <c r="AC35">
+        <v>1.77</v>
+      </c>
+      <c r="AD35">
+        <v>3.55</v>
+      </c>
+      <c r="AE35">
+        <v>1.28</v>
+      </c>
+      <c r="AF35">
+        <v>1.73</v>
+      </c>
+      <c r="AG35">
         <v>2</v>
       </c>
-      <c r="AC35">
-        <v>1.67</v>
-      </c>
-      <c r="AD35">
-        <v>4</v>
-      </c>
-      <c r="AE35">
-        <v>1.2</v>
-      </c>
-      <c r="AF35">
-        <v>1.79</v>
-      </c>
-      <c r="AG35">
-        <v>1.89</v>
-      </c>
       <c r="AH35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI35">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AJ35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL35">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AM35">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AN35">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AO35">
         <v>-1</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AR35">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="AS35">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="AT35">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AU35">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AV35">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="AW35">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="AX35">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AY35">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -6948,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BC35">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BD35" s="3">
         <v>45796.64583333334</v>
@@ -6974,7 +6980,7 @@
         <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6989,127 +6995,127 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L36">
-        <v>2.57</v>
+        <v>2.05</v>
       </c>
       <c r="M36">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="N36">
-        <v>2.65</v>
+        <v>3.58</v>
       </c>
       <c r="O36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P36">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q36">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="R36">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S36">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="U36">
         <v>1.36</v>
       </c>
       <c r="V36">
+        <v>7</v>
+      </c>
+      <c r="W36">
+        <v>1.06</v>
+      </c>
+      <c r="X36">
+        <v>1.05</v>
+      </c>
+      <c r="Y36">
         <v>8</v>
-      </c>
-      <c r="W36">
-        <v>1.08</v>
-      </c>
-      <c r="X36">
-        <v>1.06</v>
-      </c>
-      <c r="Y36">
-        <v>8.5</v>
       </c>
       <c r="Z36">
         <v>1.33</v>
       </c>
       <c r="AA36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB36">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="AD36">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AE36">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AF36">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AH36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI36">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AJ36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL36">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AM36">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AN36">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="AO36">
         <v>-1</v>
       </c>
       <c r="AP36">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AR36">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="AT36">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="AU36">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AV36">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="AW36">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="AX36">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AY36">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -7118,10 +7124,10 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BC36">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="BD36" s="3">
         <v>45796.64583333334</v>
@@ -7144,7 +7150,7 @@
         <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -7159,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L37">
         <v>1.85</v>
@@ -7180,10 +7186,10 @@
         <v>2.88</v>
       </c>
       <c r="R37">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T37">
         <v>3.2</v>
@@ -7192,22 +7198,22 @@
         <v>1.3</v>
       </c>
       <c r="V37">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="W37">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X37">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Y37">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Z37">
         <v>1.4</v>
       </c>
       <c r="AA37">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="AB37">
         <v>2.25</v>
@@ -7216,28 +7222,28 @@
         <v>1.53</v>
       </c>
       <c r="AD37">
-        <v>4.5</v>
+        <v>4.62</v>
       </c>
       <c r="AE37">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF37">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AG37">
         <v>1.67</v>
       </c>
       <c r="AH37">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="AI37">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AJ37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL37">
         <v>1.33</v>
@@ -7252,34 +7258,34 @@
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AR37">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="AS37">
+        <v>2.52</v>
+      </c>
+      <c r="AT37">
+        <v>3.32</v>
+      </c>
+      <c r="AU37">
         <v>2.9</v>
       </c>
-      <c r="AT37">
-        <v>3.8</v>
-      </c>
-      <c r="AU37">
-        <v>2.97</v>
-      </c>
       <c r="AV37">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AW37">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AX37">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AY37">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7305,7 +7311,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -7314,7 +7320,7 @@
         <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -7329,139 +7335,139 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L38">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="M38">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="N38">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P38">
-        <v>8</v>
+        <v>14.75</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R38">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="S38">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="T38">
-        <v>3.04</v>
+        <v>2.63</v>
       </c>
       <c r="U38">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="V38">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="W38">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="X38">
         <v>1.02</v>
       </c>
       <c r="Y38">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="Z38">
+        <v>1.17</v>
+      </c>
+      <c r="AA38">
+        <v>3.96</v>
+      </c>
+      <c r="AB38">
+        <v>1.75</v>
+      </c>
+      <c r="AC38">
+        <v>2.05</v>
+      </c>
+      <c r="AD38">
+        <v>2.79</v>
+      </c>
+      <c r="AE38">
         <v>1.34</v>
       </c>
-      <c r="AA38">
-        <v>2.88</v>
-      </c>
-      <c r="AB38">
-        <v>2.1</v>
-      </c>
-      <c r="AC38">
-        <v>1.61</v>
-      </c>
-      <c r="AD38">
-        <v>3.72</v>
-      </c>
-      <c r="AE38">
-        <v>1.24</v>
-      </c>
       <c r="AF38">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AG38">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="AH38">
-        <v>8</v>
+        <v>5.4</v>
       </c>
       <c r="AI38">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AJ38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL38">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AM38">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AN38">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AO38">
         <v>-1</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AQ38">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AR38">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="AS38">
+        <v>1.95</v>
+      </c>
+      <c r="AT38">
+        <v>2.45</v>
+      </c>
+      <c r="AU38">
+        <v>3.85</v>
+      </c>
+      <c r="AV38">
+        <v>2.8</v>
+      </c>
+      <c r="AW38">
+        <v>2.12</v>
+      </c>
+      <c r="AX38">
+        <v>1.71</v>
+      </c>
+      <c r="AY38">
+        <v>1.45</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
+        <v>1.62</v>
+      </c>
+      <c r="BC38">
         <v>2.38</v>
-      </c>
-      <c r="AT38">
-        <v>3.1</v>
-      </c>
-      <c r="AU38">
-        <v>2.95</v>
-      </c>
-      <c r="AV38">
-        <v>2.25</v>
-      </c>
-      <c r="AW38">
-        <v>1.77</v>
-      </c>
-      <c r="AX38">
-        <v>1.48</v>
-      </c>
-      <c r="AY38">
-        <v>1.3</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>1.5</v>
-      </c>
-      <c r="BC38">
-        <v>3</v>
       </c>
       <c r="BD38" s="3">
         <v>45796.66666666666</v>
@@ -7475,16 +7481,16 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
         <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7499,128 +7505,128 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="M39">
-        <v>3.85</v>
+        <v>2.96</v>
       </c>
       <c r="N39">
-        <v>2.02</v>
+        <v>3.23</v>
       </c>
       <c r="O39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P39">
-        <v>21</v>
+        <v>6.65</v>
       </c>
       <c r="Q39">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="R39">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>2.19</v>
       </c>
       <c r="T39">
+        <v>4.1</v>
+      </c>
+      <c r="U39">
+        <v>1.18</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>1.04</v>
+      </c>
+      <c r="X39">
+        <v>1.1</v>
+      </c>
+      <c r="Y39">
+        <v>5</v>
+      </c>
+      <c r="Z39">
+        <v>1.48</v>
+      </c>
+      <c r="AA39">
+        <v>2.37</v>
+      </c>
+      <c r="AB39">
+        <v>2.65</v>
+      </c>
+      <c r="AC39">
+        <v>1.42</v>
+      </c>
+      <c r="AD39">
+        <v>5.85</v>
+      </c>
+      <c r="AE39">
+        <v>1.09</v>
+      </c>
+      <c r="AF39">
         <v>2.1</v>
       </c>
-      <c r="U39">
-        <v>1.67</v>
-      </c>
-      <c r="V39">
-        <v>4.5</v>
-      </c>
-      <c r="W39">
-        <v>1.18</v>
-      </c>
-      <c r="X39">
-        <v>1.01</v>
-      </c>
-      <c r="Y39">
-        <v>17</v>
-      </c>
-      <c r="Z39">
-        <v>1.15</v>
-      </c>
-      <c r="AA39">
-        <v>5.25</v>
-      </c>
-      <c r="AB39">
-        <v>1.42</v>
-      </c>
-      <c r="AC39">
-        <v>2.74</v>
-      </c>
-      <c r="AD39">
-        <v>2.25</v>
-      </c>
-      <c r="AE39">
-        <v>1.6</v>
-      </c>
-      <c r="AF39">
-        <v>1.4</v>
-      </c>
       <c r="AG39">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="AH39">
-        <v>3.55</v>
+        <v>11</v>
       </c>
       <c r="AI39">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="AJ39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL39">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AM39">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AO39">
         <v>-1</v>
       </c>
       <c r="AP39">
+        <v>1.45</v>
+      </c>
+      <c r="AQ39">
+        <v>1.79</v>
+      </c>
+      <c r="AR39">
+        <v>2.27</v>
+      </c>
+      <c r="AS39">
+        <v>3.05</v>
+      </c>
+      <c r="AT39">
+        <v>3.95</v>
+      </c>
+      <c r="AU39">
+        <v>2.63</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>1.6</v>
+      </c>
+      <c r="AX39">
+        <v>1.28</v>
+      </c>
+      <c r="AY39">
         <v>1.19</v>
       </c>
-      <c r="AQ39">
-        <v>1.34</v>
-      </c>
-      <c r="AR39">
-        <v>1.56</v>
-      </c>
-      <c r="AS39">
-        <v>1.9</v>
-      </c>
-      <c r="AT39">
-        <v>2.38</v>
-      </c>
-      <c r="AU39">
-        <v>4</v>
-      </c>
-      <c r="AV39">
-        <v>2.9</v>
-      </c>
-      <c r="AW39">
-        <v>2.23</v>
-      </c>
-      <c r="AX39">
-        <v>1.79</v>
-      </c>
-      <c r="AY39">
-        <v>1.5</v>
-      </c>
       <c r="AZ39">
         <v>0</v>
       </c>
@@ -7628,10 +7634,10 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BC39">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="BD39" s="3">
         <v>45796.66666666666</v>
@@ -7645,16 +7651,16 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
         <v>142</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7669,94 +7675,94 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L40">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="N40">
-        <v>3.5</v>
+        <v>2.02</v>
       </c>
       <c r="O40">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>14.75</v>
+        <v>21</v>
       </c>
       <c r="Q40">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="R40">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="S40">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T40">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="U40">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V40">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="W40">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="X40">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Y40">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z40">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AA40">
-        <v>3.96</v>
+        <v>5.25</v>
       </c>
       <c r="AB40">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AC40">
-        <v>2.05</v>
+        <v>2.74</v>
       </c>
       <c r="AD40">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="AE40">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="AF40">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AG40">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AH40">
-        <v>5.4</v>
+        <v>3.55</v>
       </c>
       <c r="AI40">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="AJ40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL40">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AM40">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AN40">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO40">
         <v>-1</v>
@@ -7765,31 +7771,31 @@
         <v>1.19</v>
       </c>
       <c r="AQ40">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AR40">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AS40">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AU40">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AV40">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AW40">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="AX40">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AY40">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AZ40">
         <v>0</v>
@@ -7798,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="BB40">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="BC40">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="BD40" s="3">
         <v>45796.66666666666</v>
@@ -7812,10 +7818,10 @@
         <v>45796</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
         <v>103</v>
@@ -7824,7 +7830,7 @@
         <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7839,127 +7845,127 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L41">
-        <v>2.47</v>
+        <v>1.85</v>
       </c>
       <c r="M41">
-        <v>3.73</v>
+        <v>3.32</v>
       </c>
       <c r="N41">
-        <v>2.34</v>
+        <v>3.86</v>
       </c>
       <c r="O41">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="P41">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Q41">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="R41">
+        <v>1.42</v>
+      </c>
+      <c r="S41">
+        <v>2.54</v>
+      </c>
+      <c r="T41">
+        <v>3.34</v>
+      </c>
+      <c r="U41">
+        <v>1.32</v>
+      </c>
+      <c r="V41">
+        <v>9</v>
+      </c>
+      <c r="W41">
+        <v>1.05</v>
+      </c>
+      <c r="X41">
+        <v>1.02</v>
+      </c>
+      <c r="Y41">
+        <v>8</v>
+      </c>
+      <c r="Z41">
+        <v>1.36</v>
+      </c>
+      <c r="AA41">
+        <v>2.9</v>
+      </c>
+      <c r="AB41">
+        <v>2.1</v>
+      </c>
+      <c r="AC41">
+        <v>1.61</v>
+      </c>
+      <c r="AD41">
+        <v>4.16</v>
+      </c>
+      <c r="AE41">
         <v>1.22</v>
       </c>
-      <c r="S41">
-        <v>3.8</v>
-      </c>
-      <c r="T41">
-        <v>2.02</v>
-      </c>
-      <c r="U41">
-        <v>1.7</v>
-      </c>
-      <c r="V41">
-        <v>4.1</v>
-      </c>
-      <c r="W41">
-        <v>1.2</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41">
-        <v>18</v>
-      </c>
-      <c r="Z41">
-        <v>1.08</v>
-      </c>
-      <c r="AA41">
-        <v>6</v>
-      </c>
-      <c r="AB41">
-        <v>1.4</v>
-      </c>
-      <c r="AC41">
-        <v>2.73</v>
-      </c>
-      <c r="AD41">
-        <v>1.95</v>
-      </c>
-      <c r="AE41">
-        <v>1.7</v>
-      </c>
       <c r="AF41">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AG41">
-        <v>3</v>
+        <v>1.78</v>
       </c>
       <c r="AH41">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="AI41">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="AJ41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL41">
         <v>1.25</v>
       </c>
       <c r="AM41">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AN41">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="AO41">
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ41">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AR41">
-        <v>1.25</v>
+        <v>2.22</v>
       </c>
       <c r="AS41">
-        <v>1.46</v>
+        <v>2.48</v>
       </c>
       <c r="AT41">
-        <v>1.79</v>
+        <v>3.34</v>
       </c>
       <c r="AU41">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AV41">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="AW41">
-        <v>3.28</v>
+        <v>1.81</v>
       </c>
       <c r="AX41">
-        <v>2.45</v>
+        <v>1.45</v>
       </c>
       <c r="AY41">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="AZ41">
         <v>0</v>
@@ -7968,13 +7974,13 @@
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="BC41">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="BD41" s="3">
-        <v>45796.67708333334</v>
+        <v>45796.66666666666</v>
       </c>
     </row>
     <row r="42" spans="1:56">
@@ -7985,7 +7991,7 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>103</v>
@@ -7994,7 +8000,7 @@
         <v>144</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -8009,127 +8015,127 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L42">
-        <v>1.9</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>3.82</v>
+        <v>3.9</v>
       </c>
       <c r="N42">
-        <v>3.21</v>
+        <v>1.71</v>
       </c>
       <c r="O42">
+        <v>2.38</v>
+      </c>
+      <c r="P42">
+        <v>15</v>
+      </c>
+      <c r="Q42">
+        <v>1.53</v>
+      </c>
+      <c r="R42">
+        <v>1.22</v>
+      </c>
+      <c r="S42">
+        <v>4.1</v>
+      </c>
+      <c r="T42">
+        <v>2.24</v>
+      </c>
+      <c r="U42">
         <v>1.64</v>
       </c>
-      <c r="P42">
-        <v>27</v>
-      </c>
-      <c r="Q42">
-        <v>2.19</v>
-      </c>
-      <c r="R42">
+      <c r="V42">
+        <v>4.9</v>
+      </c>
+      <c r="W42">
         <v>1.18</v>
       </c>
-      <c r="S42">
-        <v>4.15</v>
-      </c>
-      <c r="T42">
-        <v>2.01</v>
-      </c>
-      <c r="U42">
-        <v>1.79</v>
-      </c>
-      <c r="V42">
-        <v>4</v>
-      </c>
-      <c r="W42">
+      <c r="X42">
+        <v>1.02</v>
+      </c>
+      <c r="Y42">
+        <v>17</v>
+      </c>
+      <c r="Z42">
+        <v>1.15</v>
+      </c>
+      <c r="AA42">
+        <v>5</v>
+      </c>
+      <c r="AB42">
+        <v>1.4</v>
+      </c>
+      <c r="AC42">
+        <v>2.73</v>
+      </c>
+      <c r="AD42">
+        <v>2.05</v>
+      </c>
+      <c r="AE42">
+        <v>1.65</v>
+      </c>
+      <c r="AF42">
+        <v>1.44</v>
+      </c>
+      <c r="AG42">
+        <v>2.63</v>
+      </c>
+      <c r="AH42">
+        <v>3.7</v>
+      </c>
+      <c r="AI42">
+        <v>1.26</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
         <v>1.2</v>
       </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>23</v>
-      </c>
-      <c r="Z42">
-        <v>1.08</v>
-      </c>
-      <c r="AA42">
-        <v>5.85</v>
-      </c>
-      <c r="AB42">
-        <v>1.36</v>
-      </c>
-      <c r="AC42">
-        <v>2.89</v>
-      </c>
-      <c r="AD42">
-        <v>1.91</v>
-      </c>
-      <c r="AE42">
-        <v>1.79</v>
-      </c>
-      <c r="AF42">
-        <v>1.36</v>
-      </c>
-      <c r="AG42">
-        <v>2.85</v>
-      </c>
-      <c r="AH42">
-        <v>2.93</v>
-      </c>
-      <c r="AI42">
-        <v>1.31</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL42">
-        <v>1.22</v>
-      </c>
-      <c r="AM42">
-        <v>1.22</v>
-      </c>
       <c r="AN42">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="AO42">
         <v>-1</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AR42">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AS42">
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AU42">
-        <v>0</v>
+        <v>5.93</v>
       </c>
       <c r="AV42">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AW42">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AX42">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AY42">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8138,10 +8144,10 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="BC42">
-        <v>2.19</v>
+        <v>1.53</v>
       </c>
       <c r="BD42" s="3">
         <v>45796.67708333334</v>
@@ -8155,7 +8161,7 @@
         <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
         <v>103</v>
@@ -8164,7 +8170,7 @@
         <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8179,127 +8185,127 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L43">
-        <v>3.32</v>
+        <v>1.9</v>
       </c>
       <c r="M43">
-        <v>3.77</v>
+        <v>3.82</v>
       </c>
       <c r="N43">
-        <v>1.81</v>
+        <v>3.21</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="R43">
+        <v>1.18</v>
+      </c>
+      <c r="S43">
+        <v>3.8</v>
+      </c>
+      <c r="T43">
+        <v>2.04</v>
+      </c>
+      <c r="U43">
+        <v>1.76</v>
+      </c>
+      <c r="V43">
+        <v>3.88</v>
+      </c>
+      <c r="W43">
         <v>1.22</v>
-      </c>
-      <c r="S43">
-        <v>3.98</v>
-      </c>
-      <c r="T43">
-        <v>2.02</v>
-      </c>
-      <c r="U43">
-        <v>1.7</v>
-      </c>
-      <c r="V43">
-        <v>4.35</v>
-      </c>
-      <c r="W43">
-        <v>1.2</v>
       </c>
       <c r="X43">
         <v>1.01</v>
       </c>
       <c r="Y43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z43">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AA43">
-        <v>5.75</v>
+        <v>6.2</v>
       </c>
       <c r="AB43">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AC43">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="AD43">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AE43">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AF43">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AG43">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="AH43">
-        <v>3.23</v>
+        <v>2.93</v>
       </c>
       <c r="AI43">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AJ43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL43">
         <v>1.25</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO43">
         <v>-1</v>
       </c>
       <c r="AP43">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AR43">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AS43">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT43">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="AU43">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AV43">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AW43">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="AX43">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="AY43">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -8308,10 +8314,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BC43">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BD43" s="3">
         <v>45796.67708333334</v>
@@ -8322,7 +8328,7 @@
         <v>45796</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>98</v>
@@ -8334,7 +8340,7 @@
         <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -8349,127 +8355,127 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L44">
-        <v>1.9</v>
+        <v>2.47</v>
       </c>
       <c r="M44">
-        <v>2.9</v>
+        <v>3.73</v>
       </c>
       <c r="N44">
-        <v>5.25</v>
+        <v>2.34</v>
       </c>
       <c r="O44">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="P44">
-        <v>6.25</v>
+        <v>24</v>
       </c>
       <c r="Q44">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="R44">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="S44">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="T44">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="U44">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="V44">
-        <v>13</v>
+        <v>4.4</v>
       </c>
       <c r="W44">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="X44">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Y44">
-        <v>6.1</v>
+        <v>17.5</v>
       </c>
       <c r="Z44">
-        <v>1.59</v>
+        <v>1.1</v>
       </c>
       <c r="AA44">
-        <v>2.35</v>
+        <v>5.15</v>
       </c>
       <c r="AB44">
-        <v>2.88</v>
+        <v>1.4</v>
       </c>
       <c r="AC44">
-        <v>1.4</v>
+        <v>2.73</v>
       </c>
       <c r="AD44">
-        <v>5.4</v>
+        <v>1.95</v>
       </c>
       <c r="AE44">
-        <v>1.09</v>
+        <v>1.7</v>
       </c>
       <c r="AF44">
-        <v>2.38</v>
+        <v>1.36</v>
       </c>
       <c r="AG44">
-        <v>1.53</v>
+        <v>2.8</v>
       </c>
       <c r="AH44">
-        <v>12</v>
+        <v>3.47</v>
       </c>
       <c r="AI44">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="AJ44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL44">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM44">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AN44">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AO44">
         <v>-1</v>
       </c>
       <c r="AP44">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>1.71</v>
+        <v>1.16</v>
       </c>
       <c r="AR44">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="AS44">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="AT44">
-        <v>3.68</v>
+        <v>1.8</v>
       </c>
       <c r="AU44">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AV44">
-        <v>2.07</v>
+        <v>4.35</v>
       </c>
       <c r="AW44">
-        <v>1.66</v>
+        <v>3.12</v>
       </c>
       <c r="AX44">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AY44">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -8478,13 +8484,13 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="BC44">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="BD44" s="3">
-        <v>45796.79166666666</v>
+        <v>45796.67708333334</v>
       </c>
     </row>
     <row r="45" spans="1:56">
@@ -8495,7 +8501,7 @@
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
@@ -8504,7 +8510,7 @@
         <v>147</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -8519,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L45">
         <v>1.48</v>
@@ -8594,10 +8600,10 @@
         <v>1.1</v>
       </c>
       <c r="AJ45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL45">
         <v>1.11</v>
@@ -8674,7 +8680,7 @@
         <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -8689,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L46">
         <v>1.88</v>
@@ -8713,22 +8719,22 @@
         <v>1.45</v>
       </c>
       <c r="S46">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="T46">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="U46">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V46">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W46">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="X46">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Y46">
         <v>7</v>
@@ -8746,70 +8752,70 @@
         <v>1.53</v>
       </c>
       <c r="AD46">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AE46">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AF46">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AG46">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AH46">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="AI46">
         <v>1.09</v>
       </c>
       <c r="AJ46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AM46">
         <v>1.25</v>
       </c>
       <c r="AN46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AR46">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="AS46">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="AT46">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU46">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AV46">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AW46">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="AX46">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="AY46">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8832,7 +8838,7 @@
         <v>45796</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>100</v>
@@ -8844,7 +8850,7 @@
         <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -8859,128 +8865,128 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L47">
-        <v>2.28</v>
+        <v>1.9</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O47">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="P47">
-        <v>8.1</v>
+        <v>6.25</v>
       </c>
       <c r="Q47">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="R47">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="S47">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T47">
-        <v>2.89</v>
+        <v>3.75</v>
       </c>
       <c r="U47">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="V47">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="W47">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="X47">
+        <v>1.08</v>
+      </c>
+      <c r="Y47">
+        <v>6.1</v>
+      </c>
+      <c r="Z47">
+        <v>1.59</v>
+      </c>
+      <c r="AA47">
+        <v>2.35</v>
+      </c>
+      <c r="AB47">
+        <v>2.88</v>
+      </c>
+      <c r="AC47">
+        <v>1.4</v>
+      </c>
+      <c r="AD47">
+        <v>5.4</v>
+      </c>
+      <c r="AE47">
+        <v>1.09</v>
+      </c>
+      <c r="AF47">
+        <v>2.38</v>
+      </c>
+      <c r="AG47">
+        <v>1.53</v>
+      </c>
+      <c r="AH47">
+        <v>12</v>
+      </c>
+      <c r="AI47">
         <v>1.01</v>
       </c>
-      <c r="Y47">
-        <v>8.1</v>
-      </c>
-      <c r="Z47">
-        <v>1.29</v>
-      </c>
-      <c r="AA47">
-        <v>3.25</v>
-      </c>
-      <c r="AB47">
-        <v>1.95</v>
-      </c>
-      <c r="AC47">
-        <v>1.7</v>
-      </c>
-      <c r="AD47">
-        <v>3.42</v>
-      </c>
-      <c r="AE47">
-        <v>1.23</v>
-      </c>
-      <c r="AF47">
-        <v>1.77</v>
-      </c>
-      <c r="AG47">
+      <c r="AJ47" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL47">
+        <v>1.21</v>
+      </c>
+      <c r="AM47">
+        <v>1.36</v>
+      </c>
+      <c r="AN47">
         <v>1.87</v>
-      </c>
-      <c r="AH47">
-        <v>6.5</v>
-      </c>
-      <c r="AI47">
-        <v>1.05</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL47">
-        <v>1.26</v>
-      </c>
-      <c r="AM47">
-        <v>1.3</v>
-      </c>
-      <c r="AN47">
-        <v>1.5</v>
       </c>
       <c r="AO47">
         <v>-1</v>
       </c>
       <c r="AP47">
+        <v>1.41</v>
+      </c>
+      <c r="AQ47">
+        <v>1.71</v>
+      </c>
+      <c r="AR47">
+        <v>2.14</v>
+      </c>
+      <c r="AS47">
+        <v>2.73</v>
+      </c>
+      <c r="AT47">
+        <v>3.68</v>
+      </c>
+      <c r="AU47">
+        <v>2.68</v>
+      </c>
+      <c r="AV47">
+        <v>2.07</v>
+      </c>
+      <c r="AW47">
+        <v>1.66</v>
+      </c>
+      <c r="AX47">
+        <v>1.4</v>
+      </c>
+      <c r="AY47">
         <v>1.22</v>
       </c>
-      <c r="AQ47">
-        <v>1.38</v>
-      </c>
-      <c r="AR47">
-        <v>1.75</v>
-      </c>
-      <c r="AS47">
-        <v>1.95</v>
-      </c>
-      <c r="AT47">
-        <v>2.43</v>
-      </c>
-      <c r="AU47">
-        <v>3.8</v>
-      </c>
-      <c r="AV47">
-        <v>2.8</v>
-      </c>
-      <c r="AW47">
-        <v>2.15</v>
-      </c>
-      <c r="AX47">
-        <v>1.65</v>
-      </c>
-      <c r="AY47">
-        <v>1.49</v>
-      </c>
       <c r="AZ47">
         <v>0</v>
       </c>
@@ -8988,13 +8994,13 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="BC47">
-        <v>2.16</v>
+        <v>3.4</v>
       </c>
       <c r="BD47" s="3">
-        <v>45796.8125</v>
+        <v>45796.79166666666</v>
       </c>
     </row>
     <row r="48" spans="1:56">
@@ -9005,7 +9011,7 @@
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>103</v>
@@ -9014,7 +9020,7 @@
         <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -9029,94 +9035,94 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L48">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="M48">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="N48">
-        <v>4.6</v>
+        <v>2.78</v>
       </c>
       <c r="O48">
-        <v>1.49</v>
+        <v>1.89</v>
       </c>
       <c r="P48">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="Q48">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
       <c r="R48">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="S48">
-        <v>2.55</v>
+        <v>2.49</v>
       </c>
       <c r="T48">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="U48">
         <v>1.3</v>
       </c>
       <c r="V48">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="W48">
+        <v>1.03</v>
+      </c>
+      <c r="X48">
         <v>1.04</v>
       </c>
-      <c r="X48">
-        <v>1.01</v>
-      </c>
       <c r="Y48">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Z48">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AA48">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AB48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AC48">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AD48">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AE48">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AF48">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="AG48">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AH48">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI48">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AJ48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL48">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AM48">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AN48">
-        <v>2.22</v>
+        <v>1.3</v>
       </c>
       <c r="AO48">
         <v>-1</v>
@@ -9125,13 +9131,13 @@
         <v>1.23</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR48">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="AS48">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="AT48">
         <v>2.7</v>
@@ -9140,16 +9146,16 @@
         <v>3.55</v>
       </c>
       <c r="AV48">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AW48">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AX48">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AY48">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -9158,10 +9164,10 @@
         <v>0</v>
       </c>
       <c r="BB48">
-        <v>1.49</v>
+        <v>1.89</v>
       </c>
       <c r="BC48">
-        <v>2.85</v>
+        <v>2.16</v>
       </c>
       <c r="BD48" s="3">
         <v>45796.8125</v>
@@ -9172,7 +9178,7 @@
         <v>45796</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>101</v>
@@ -9184,7 +9190,7 @@
         <v>151</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -9199,127 +9205,127 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L49">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="M49">
-        <v>2.89</v>
+        <v>3.55</v>
       </c>
       <c r="N49">
-        <v>3.08</v>
+        <v>4.6</v>
       </c>
       <c r="O49">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="P49">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="Q49">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="R49">
+        <v>1.47</v>
+      </c>
+      <c r="S49">
+        <v>2.45</v>
+      </c>
+      <c r="T49">
+        <v>3.1</v>
+      </c>
+      <c r="U49">
+        <v>1.3</v>
+      </c>
+      <c r="V49">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W49">
+        <v>1.04</v>
+      </c>
+      <c r="X49">
+        <v>1.02</v>
+      </c>
+      <c r="Y49">
+        <v>6.5</v>
+      </c>
+      <c r="Z49">
+        <v>1.46</v>
+      </c>
+      <c r="AA49">
+        <v>2.65</v>
+      </c>
+      <c r="AB49">
+        <v>2.05</v>
+      </c>
+      <c r="AC49">
         <v>1.68</v>
       </c>
-      <c r="S49">
-        <v>2.15</v>
-      </c>
-      <c r="T49">
-        <v>3.8</v>
-      </c>
-      <c r="U49">
-        <v>1.19</v>
-      </c>
-      <c r="V49">
-        <v>10.5</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
-        <v>1.14</v>
-      </c>
-      <c r="Y49">
-        <v>5.3</v>
-      </c>
-      <c r="Z49">
-        <v>1.5</v>
-      </c>
-      <c r="AA49">
-        <v>2.3</v>
-      </c>
-      <c r="AB49">
-        <v>2.81</v>
-      </c>
-      <c r="AC49">
-        <v>1.38</v>
-      </c>
       <c r="AD49">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="AE49">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AF49">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AG49">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH49">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AI49">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AJ49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL49">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="AM49">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AN49">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="AO49">
         <v>-1</v>
       </c>
       <c r="AP49">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="AR49">
-        <v>2.21</v>
+        <v>1.65</v>
       </c>
       <c r="AS49">
-        <v>2.92</v>
+        <v>2.16</v>
       </c>
       <c r="AT49">
-        <v>4.3</v>
+        <v>2.74</v>
       </c>
       <c r="AU49">
-        <v>2.62</v>
+        <v>3.8</v>
       </c>
       <c r="AV49">
-        <v>1.97</v>
+        <v>2.69</v>
       </c>
       <c r="AW49">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="AX49">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="AY49">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AZ49">
         <v>0</v>
@@ -9328,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="BC49">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="BD49" s="3">
-        <v>45796.83333333334</v>
+        <v>45796.8125</v>
       </c>
     </row>
     <row r="50" spans="1:56">
@@ -9342,7 +9348,7 @@
         <v>45796</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>96</v>
@@ -9354,7 +9360,7 @@
         <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -9369,127 +9375,127 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L50">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="M50">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="N50">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="O50">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P50">
-        <v>8.699999999999999</v>
+        <v>5.75</v>
       </c>
       <c r="Q50">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R50">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S50">
-        <v>2.75</v>
+        <v>2.14</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="U50">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="V50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W50">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="Y50">
-        <v>8.699999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="Z50">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="AA50">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="AB50">
-        <v>2.05</v>
+        <v>2.81</v>
       </c>
       <c r="AC50">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AD50">
-        <v>3.44</v>
+        <v>5.7</v>
       </c>
       <c r="AE50">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AF50">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="AG50">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="AH50">
-        <v>6.75</v>
+        <v>11.5</v>
       </c>
       <c r="AI50">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AJ50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL50">
         <v>1.4</v>
       </c>
       <c r="AM50">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AN50">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AO50">
         <v>-1</v>
       </c>
       <c r="AP50">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="AR50">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="AS50">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AT50">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="AU50">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AV50">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="AW50">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AX50">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AY50">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -9498,13 +9504,13 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="BC50">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BD50" s="3">
-        <v>45796.89583333334</v>
+        <v>45796.83333333334</v>
       </c>
     </row>
     <row r="51" spans="1:56">
@@ -9515,7 +9521,7 @@
         <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>103</v>
@@ -9524,7 +9530,7 @@
         <v>153</v>
       </c>
       <c r="F51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -9539,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L51">
         <v>2.15</v>
@@ -9614,10 +9620,10 @@
         <v>1.01</v>
       </c>
       <c r="AJ51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AK51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AL51">
         <v>1.26</v>
@@ -9682,10 +9688,10 @@
         <v>45796</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
         <v>103</v>
@@ -9694,7 +9700,7 @@
         <v>154</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -9709,141 +9715,311 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L52">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="M52">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N52">
-        <v>3.13</v>
+        <v>2.88</v>
       </c>
       <c r="O52">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="P52">
-        <v>6.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q52">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R52">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="S52">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="T52">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U52">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="V52">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W52">
+        <v>1.08</v>
+      </c>
+      <c r="X52">
+        <v>1.01</v>
+      </c>
+      <c r="Y52">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>1.28</v>
+      </c>
+      <c r="AA52">
+        <v>3.08</v>
+      </c>
+      <c r="AB52">
+        <v>2.05</v>
+      </c>
+      <c r="AC52">
+        <v>1.75</v>
+      </c>
+      <c r="AD52">
+        <v>3.44</v>
+      </c>
+      <c r="AE52">
+        <v>1.23</v>
+      </c>
+      <c r="AF52">
+        <v>1.8</v>
+      </c>
+      <c r="AG52">
+        <v>1.91</v>
+      </c>
+      <c r="AH52">
+        <v>6.75</v>
+      </c>
+      <c r="AI52">
         <v>1.04</v>
       </c>
-      <c r="X52">
-        <v>1.06</v>
-      </c>
-      <c r="Y52">
-        <v>6.05</v>
-      </c>
-      <c r="Z52">
+      <c r="AJ52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL52">
+        <v>1.4</v>
+      </c>
+      <c r="AM52">
+        <v>1.33</v>
+      </c>
+      <c r="AN52">
         <v>1.53</v>
-      </c>
-      <c r="AA52">
-        <v>2.25</v>
-      </c>
-      <c r="AB52">
-        <v>2.75</v>
-      </c>
-      <c r="AC52">
-        <v>1.4</v>
-      </c>
-      <c r="AD52">
-        <v>4.7</v>
-      </c>
-      <c r="AE52">
-        <v>1.13</v>
-      </c>
-      <c r="AF52">
-        <v>2.05</v>
-      </c>
-      <c r="AG52">
-        <v>1.67</v>
-      </c>
-      <c r="AH52">
-        <v>11.5</v>
-      </c>
-      <c r="AI52">
-        <v>1.05</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>207</v>
-      </c>
-      <c r="AL52">
-        <v>1.35</v>
-      </c>
-      <c r="AM52">
-        <v>1.3</v>
-      </c>
-      <c r="AN52">
-        <v>1.77</v>
       </c>
       <c r="AO52">
         <v>-1</v>
       </c>
       <c r="AP52">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AR52">
+        <v>1.89</v>
+      </c>
+      <c r="AS52">
+        <v>2.4</v>
+      </c>
+      <c r="AT52">
+        <v>3.15</v>
+      </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
+      <c r="AV52">
+        <v>2.23</v>
+      </c>
+      <c r="AW52">
+        <v>1.76</v>
+      </c>
+      <c r="AX52">
+        <v>1.47</v>
+      </c>
+      <c r="AY52">
+        <v>1.28</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>1.83</v>
+      </c>
+      <c r="BC52">
+        <v>2.2</v>
+      </c>
+      <c r="BD52" s="3">
+        <v>45796.89583333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56">
+      <c r="A53" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>208</v>
+      </c>
+      <c r="L53">
+        <v>2.32</v>
+      </c>
+      <c r="M53">
+        <v>2.7</v>
+      </c>
+      <c r="N53">
+        <v>3.13</v>
+      </c>
+      <c r="O53">
+        <v>1.62</v>
+      </c>
+      <c r="P53">
+        <v>6.5</v>
+      </c>
+      <c r="Q53">
+        <v>2.88</v>
+      </c>
+      <c r="R53">
+        <v>1.5</v>
+      </c>
+      <c r="S53">
+        <v>2.35</v>
+      </c>
+      <c r="T53">
+        <v>3.4</v>
+      </c>
+      <c r="U53">
+        <v>1.27</v>
+      </c>
+      <c r="V53">
+        <v>10</v>
+      </c>
+      <c r="W53">
+        <v>1.01</v>
+      </c>
+      <c r="X53">
+        <v>1.06</v>
+      </c>
+      <c r="Y53">
+        <v>6.5</v>
+      </c>
+      <c r="Z53">
+        <v>1.53</v>
+      </c>
+      <c r="AA53">
+        <v>2.25</v>
+      </c>
+      <c r="AB53">
+        <v>2.47</v>
+      </c>
+      <c r="AC53">
+        <v>1.48</v>
+      </c>
+      <c r="AD53">
+        <v>4.2</v>
+      </c>
+      <c r="AE53">
+        <v>1.17</v>
+      </c>
+      <c r="AF53">
+        <v>2.1</v>
+      </c>
+      <c r="AG53">
+        <v>1.67</v>
+      </c>
+      <c r="AH53">
+        <v>11.5</v>
+      </c>
+      <c r="AI53">
+        <v>1.05</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL53">
+        <v>1.35</v>
+      </c>
+      <c r="AM53">
+        <v>1.3</v>
+      </c>
+      <c r="AN53">
+        <v>1.75</v>
+      </c>
+      <c r="AO53">
+        <v>-1</v>
+      </c>
+      <c r="AP53">
+        <v>1.23</v>
+      </c>
+      <c r="AQ53">
+        <v>1.4</v>
+      </c>
+      <c r="AR53">
         <v>1.51</v>
       </c>
-      <c r="AS52">
-        <v>1.77</v>
-      </c>
-      <c r="AT52">
-        <v>2.34</v>
-      </c>
-      <c r="AU52">
+      <c r="AS53">
+        <v>1.82</v>
+      </c>
+      <c r="AT53">
+        <v>2.3</v>
+      </c>
+      <c r="AU53">
         <v>4.5</v>
       </c>
-      <c r="AV52">
-        <v>3.15</v>
-      </c>
-      <c r="AW52">
+      <c r="AV53">
+        <v>2.65</v>
+      </c>
+      <c r="AW53">
         <v>2.46</v>
       </c>
-      <c r="AX52">
-        <v>1.95</v>
-      </c>
-      <c r="AY52">
+      <c r="AX53">
+        <v>1.93</v>
+      </c>
+      <c r="AY53">
         <v>1.52</v>
       </c>
-      <c r="AZ52">
-        <v>0</v>
-      </c>
-      <c r="BA52">
-        <v>0</v>
-      </c>
-      <c r="BB52">
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
+      <c r="BB53">
         <v>1.62</v>
       </c>
-      <c r="BC52">
+      <c r="BC53">
         <v>2.88</v>
       </c>
-      <c r="BD52" s="3">
+      <c r="BD53" s="3">
         <v>45796.89930555555</v>
       </c>
     </row>
